--- a/BackTest/2020-01-25 BackTest INS.xlsx
+++ b/BackTest/2020-01-25 BackTest INS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M268"/>
+  <dimension ref="A1:M269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>189.4</v>
+        <v>189.3</v>
       </c>
       <c r="C2" t="n">
-        <v>189.6</v>
+        <v>189.5</v>
       </c>
       <c r="D2" t="n">
-        <v>189.8</v>
+        <v>189.5</v>
       </c>
       <c r="E2" t="n">
         <v>189.3</v>
       </c>
       <c r="F2" t="n">
-        <v>2392</v>
+        <v>600</v>
       </c>
       <c r="G2" t="n">
-        <v>192.0299999999999</v>
+        <v>192.1116666666666</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>189.6</v>
+        <v>189.4</v>
       </c>
       <c r="C3" t="n">
         <v>189.6</v>
       </c>
       <c r="D3" t="n">
-        <v>189.6</v>
+        <v>189.8</v>
       </c>
       <c r="E3" t="n">
-        <v>189.6</v>
+        <v>189.3</v>
       </c>
       <c r="F3" t="n">
-        <v>2942</v>
+        <v>2392</v>
       </c>
       <c r="G3" t="n">
-        <v>191.9266666666666</v>
+        <v>192.0299999999999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>189.8</v>
+        <v>189.6</v>
       </c>
       <c r="C4" t="n">
         <v>189.6</v>
       </c>
       <c r="D4" t="n">
-        <v>189.8</v>
+        <v>189.6</v>
       </c>
       <c r="E4" t="n">
         <v>189.6</v>
       </c>
       <c r="F4" t="n">
-        <v>338.7729</v>
+        <v>2942</v>
       </c>
       <c r="G4" t="n">
-        <v>191.8233333333333</v>
+        <v>191.9266666666666</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>189.9</v>
+        <v>189.8</v>
       </c>
       <c r="C5" t="n">
         <v>189.6</v>
       </c>
       <c r="D5" t="n">
-        <v>189.9</v>
+        <v>189.8</v>
       </c>
       <c r="E5" t="n">
         <v>189.6</v>
       </c>
       <c r="F5" t="n">
-        <v>4703.0422</v>
+        <v>338.7729</v>
       </c>
       <c r="G5" t="n">
-        <v>191.7166666666666</v>
+        <v>191.8233333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,19 +576,19 @@
         <v>189.9</v>
       </c>
       <c r="C6" t="n">
-        <v>189.9</v>
+        <v>189.6</v>
       </c>
       <c r="D6" t="n">
         <v>189.9</v>
       </c>
       <c r="E6" t="n">
-        <v>189.9</v>
+        <v>189.6</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>4703.0422</v>
       </c>
       <c r="G6" t="n">
-        <v>191.615</v>
+        <v>191.7166666666666</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>188.2</v>
+        <v>189.9</v>
       </c>
       <c r="C7" t="n">
-        <v>188.2</v>
+        <v>189.9</v>
       </c>
       <c r="D7" t="n">
-        <v>188.2</v>
+        <v>189.9</v>
       </c>
       <c r="E7" t="n">
-        <v>188.2</v>
+        <v>189.9</v>
       </c>
       <c r="F7" t="n">
-        <v>5.9522</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>191.485</v>
+        <v>191.615</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,19 +646,19 @@
         <v>188.2</v>
       </c>
       <c r="C8" t="n">
-        <v>189.9</v>
+        <v>188.2</v>
       </c>
       <c r="D8" t="n">
-        <v>189.9</v>
+        <v>188.2</v>
       </c>
       <c r="E8" t="n">
         <v>188.2</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>5.9522</v>
       </c>
       <c r="G8" t="n">
-        <v>191.3816666666666</v>
+        <v>191.485</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>187.8</v>
+        <v>188.2</v>
       </c>
       <c r="C9" t="n">
-        <v>187.7</v>
+        <v>189.9</v>
       </c>
       <c r="D9" t="n">
-        <v>187.8</v>
+        <v>189.9</v>
       </c>
       <c r="E9" t="n">
-        <v>187.7</v>
+        <v>188.2</v>
       </c>
       <c r="F9" t="n">
-        <v>4318.96</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>191.2283333333333</v>
+        <v>191.3816666666666</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>188.8</v>
+        <v>187.8</v>
       </c>
       <c r="C10" t="n">
-        <v>188.8</v>
+        <v>187.7</v>
       </c>
       <c r="D10" t="n">
-        <v>188.8</v>
+        <v>187.8</v>
       </c>
       <c r="E10" t="n">
-        <v>188.8</v>
+        <v>187.7</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>4318.96</v>
       </c>
       <c r="G10" t="n">
-        <v>191.135</v>
+        <v>191.2283333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>188.9</v>
+        <v>188.8</v>
       </c>
       <c r="C11" t="n">
-        <v>188.9</v>
+        <v>188.8</v>
       </c>
       <c r="D11" t="n">
-        <v>188.9</v>
+        <v>188.8</v>
       </c>
       <c r="E11" t="n">
-        <v>188.9</v>
+        <v>188.8</v>
       </c>
       <c r="F11" t="n">
-        <v>7426.3284</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>191.0933333333333</v>
+        <v>191.135</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>189.8</v>
+        <v>188.9</v>
       </c>
       <c r="C12" t="n">
-        <v>187.6</v>
+        <v>188.9</v>
       </c>
       <c r="D12" t="n">
-        <v>189.8</v>
+        <v>188.9</v>
       </c>
       <c r="E12" t="n">
-        <v>187.6</v>
+        <v>188.9</v>
       </c>
       <c r="F12" t="n">
-        <v>9474.857744994701</v>
+        <v>7426.3284</v>
       </c>
       <c r="G12" t="n">
-        <v>190.94</v>
+        <v>191.0933333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>188.7</v>
+        <v>189.8</v>
       </c>
       <c r="C13" t="n">
-        <v>188.7</v>
+        <v>187.6</v>
       </c>
       <c r="D13" t="n">
-        <v>188.7</v>
+        <v>189.8</v>
       </c>
       <c r="E13" t="n">
-        <v>188.7</v>
+        <v>187.6</v>
       </c>
       <c r="F13" t="n">
-        <v>2000</v>
+        <v>9474.857744994701</v>
       </c>
       <c r="G13" t="n">
-        <v>190.7766666666667</v>
+        <v>190.94</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>188.2</v>
+        <v>188.7</v>
       </c>
       <c r="C14" t="n">
-        <v>187.9</v>
+        <v>188.7</v>
       </c>
       <c r="D14" t="n">
-        <v>188.2</v>
+        <v>188.7</v>
       </c>
       <c r="E14" t="n">
-        <v>187.9</v>
+        <v>188.7</v>
       </c>
       <c r="F14" t="n">
-        <v>3590.3084</v>
+        <v>2000</v>
       </c>
       <c r="G14" t="n">
-        <v>190.6</v>
+        <v>190.7766666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>188.1</v>
+        <v>188.2</v>
       </c>
       <c r="C15" t="n">
-        <v>188.1</v>
+        <v>187.9</v>
       </c>
       <c r="D15" t="n">
-        <v>188.1</v>
+        <v>188.2</v>
       </c>
       <c r="E15" t="n">
-        <v>188.1</v>
+        <v>187.9</v>
       </c>
       <c r="F15" t="n">
-        <v>649.1947</v>
+        <v>3590.3084</v>
       </c>
       <c r="G15" t="n">
-        <v>190.4833333333333</v>
+        <v>190.6</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>187.9</v>
+        <v>188.1</v>
       </c>
       <c r="C16" t="n">
         <v>188.1</v>
@@ -932,13 +932,13 @@
         <v>188.1</v>
       </c>
       <c r="E16" t="n">
-        <v>187.8</v>
+        <v>188.1</v>
       </c>
       <c r="F16" t="n">
-        <v>5302.7364</v>
+        <v>649.1947</v>
       </c>
       <c r="G16" t="n">
-        <v>190.3666666666667</v>
+        <v>190.4833333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>187.8</v>
+        <v>187.9</v>
       </c>
       <c r="C17" t="n">
-        <v>187.8</v>
+        <v>188.1</v>
       </c>
       <c r="D17" t="n">
-        <v>187.8</v>
+        <v>188.1</v>
       </c>
       <c r="E17" t="n">
         <v>187.8</v>
       </c>
       <c r="F17" t="n">
-        <v>2623.9186</v>
+        <v>5302.7364</v>
       </c>
       <c r="G17" t="n">
-        <v>190.21</v>
+        <v>190.3666666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>188.1</v>
+        <v>187.8</v>
       </c>
       <c r="C18" t="n">
-        <v>188.1</v>
+        <v>187.8</v>
       </c>
       <c r="D18" t="n">
-        <v>188.1</v>
+        <v>187.8</v>
       </c>
       <c r="E18" t="n">
-        <v>188.1</v>
+        <v>187.8</v>
       </c>
       <c r="F18" t="n">
-        <v>2226</v>
+        <v>2623.9186</v>
       </c>
       <c r="G18" t="n">
-        <v>190.06</v>
+        <v>190.21</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>188.1</v>
       </c>
       <c r="F19" t="n">
-        <v>1265.3087</v>
+        <v>2226</v>
       </c>
       <c r="G19" t="n">
-        <v>189.9016666666666</v>
+        <v>190.06</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>187.8</v>
+        <v>188.1</v>
       </c>
       <c r="C20" t="n">
-        <v>187.8</v>
+        <v>188.1</v>
       </c>
       <c r="D20" t="n">
-        <v>187.8</v>
+        <v>188.1</v>
       </c>
       <c r="E20" t="n">
-        <v>187.8</v>
+        <v>188.1</v>
       </c>
       <c r="F20" t="n">
-        <v>370.0513</v>
+        <v>1265.3087</v>
       </c>
       <c r="G20" t="n">
-        <v>189.7583333333333</v>
+        <v>189.9016666666666</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>188.2</v>
+        <v>187.8</v>
       </c>
       <c r="C21" t="n">
-        <v>188.2</v>
+        <v>187.8</v>
       </c>
       <c r="D21" t="n">
-        <v>188.2</v>
+        <v>187.8</v>
       </c>
       <c r="E21" t="n">
-        <v>188.2</v>
+        <v>187.8</v>
       </c>
       <c r="F21" t="n">
-        <v>337.5613</v>
+        <v>370.0513</v>
       </c>
       <c r="G21" t="n">
-        <v>189.7266666666666</v>
+        <v>189.7583333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>188.2</v>
       </c>
       <c r="F22" t="n">
-        <v>464</v>
+        <v>337.5613</v>
       </c>
       <c r="G22" t="n">
-        <v>189.635</v>
+        <v>189.7266666666666</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1171,19 +1171,19 @@
         <v>188.2</v>
       </c>
       <c r="C23" t="n">
-        <v>189.8</v>
+        <v>188.2</v>
       </c>
       <c r="D23" t="n">
-        <v>189.8</v>
+        <v>188.2</v>
       </c>
       <c r="E23" t="n">
         <v>188.2</v>
       </c>
       <c r="F23" t="n">
-        <v>1625.7933</v>
+        <v>464</v>
       </c>
       <c r="G23" t="n">
-        <v>189.57</v>
+        <v>189.635</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>190</v>
+        <v>188.2</v>
       </c>
       <c r="C24" t="n">
-        <v>190</v>
+        <v>189.8</v>
       </c>
       <c r="D24" t="n">
-        <v>190</v>
+        <v>189.8</v>
       </c>
       <c r="E24" t="n">
-        <v>190</v>
+        <v>188.2</v>
       </c>
       <c r="F24" t="n">
-        <v>250</v>
+        <v>1625.7933</v>
       </c>
       <c r="G24" t="n">
-        <v>189.5249999999999</v>
+        <v>189.57</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,7 +1238,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C25" t="n">
         <v>190</v>
@@ -1247,13 +1247,13 @@
         <v>190</v>
       </c>
       <c r="E25" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F25" t="n">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="G25" t="n">
-        <v>189.4616666666666</v>
+        <v>189.5249999999999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C26" t="n">
         <v>190</v>
@@ -1282,13 +1282,13 @@
         <v>190</v>
       </c>
       <c r="E26" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F26" t="n">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="G26" t="n">
-        <v>189.3983333333333</v>
+        <v>189.4616666666666</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>190</v>
       </c>
       <c r="F27" t="n">
-        <v>4648.1145</v>
+        <v>295</v>
       </c>
       <c r="G27" t="n">
-        <v>189.3333333333333</v>
+        <v>189.3983333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>190.6</v>
+        <v>190</v>
       </c>
       <c r="C28" t="n">
-        <v>191.1</v>
+        <v>190</v>
       </c>
       <c r="D28" t="n">
-        <v>191.1</v>
+        <v>190</v>
       </c>
       <c r="E28" t="n">
-        <v>190.6</v>
+        <v>190</v>
       </c>
       <c r="F28" t="n">
-        <v>6580.6812</v>
+        <v>4648.1145</v>
       </c>
       <c r="G28" t="n">
-        <v>189.285</v>
+        <v>189.3333333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>190.1</v>
+        <v>190.6</v>
       </c>
       <c r="C29" t="n">
-        <v>190.4</v>
+        <v>191.1</v>
       </c>
       <c r="D29" t="n">
-        <v>190.4</v>
+        <v>191.1</v>
       </c>
       <c r="E29" t="n">
-        <v>190.1</v>
+        <v>190.6</v>
       </c>
       <c r="F29" t="n">
-        <v>3272.242</v>
+        <v>6580.6812</v>
       </c>
       <c r="G29" t="n">
-        <v>189.2266666666666</v>
+        <v>189.285</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1416,19 +1416,19 @@
         <v>190.1</v>
       </c>
       <c r="C30" t="n">
-        <v>190.1</v>
+        <v>190.4</v>
       </c>
       <c r="D30" t="n">
-        <v>190.1</v>
+        <v>190.4</v>
       </c>
       <c r="E30" t="n">
         <v>190.1</v>
       </c>
       <c r="F30" t="n">
-        <v>4421.8398</v>
+        <v>3272.242</v>
       </c>
       <c r="G30" t="n">
-        <v>189.1616666666667</v>
+        <v>189.2266666666666</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,19 +1451,19 @@
         <v>190.1</v>
       </c>
       <c r="C31" t="n">
-        <v>190</v>
+        <v>190.1</v>
       </c>
       <c r="D31" t="n">
         <v>190.1</v>
       </c>
       <c r="E31" t="n">
-        <v>190</v>
+        <v>190.1</v>
       </c>
       <c r="F31" t="n">
-        <v>3913.2449</v>
+        <v>4421.8398</v>
       </c>
       <c r="G31" t="n">
-        <v>189.095</v>
+        <v>189.1616666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>190.7</v>
+        <v>190.1</v>
       </c>
       <c r="C32" t="n">
-        <v>190.7</v>
+        <v>190</v>
       </c>
       <c r="D32" t="n">
-        <v>190.7</v>
+        <v>190.1</v>
       </c>
       <c r="E32" t="n">
-        <v>190.7</v>
+        <v>190</v>
       </c>
       <c r="F32" t="n">
-        <v>7672.3038</v>
+        <v>3913.2449</v>
       </c>
       <c r="G32" t="n">
-        <v>189.0383333333333</v>
+        <v>189.095</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>190.1</v>
+        <v>190.7</v>
       </c>
       <c r="C33" t="n">
-        <v>190</v>
+        <v>190.7</v>
       </c>
       <c r="D33" t="n">
-        <v>190.1</v>
+        <v>190.7</v>
       </c>
       <c r="E33" t="n">
-        <v>190</v>
+        <v>190.7</v>
       </c>
       <c r="F33" t="n">
-        <v>1666.8473</v>
+        <v>7672.3038</v>
       </c>
       <c r="G33" t="n">
-        <v>188.9766666666666</v>
+        <v>189.0383333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>189.6</v>
+        <v>190.1</v>
       </c>
       <c r="C34" t="n">
-        <v>191.6</v>
+        <v>190</v>
       </c>
       <c r="D34" t="n">
-        <v>191.6</v>
+        <v>190.1</v>
       </c>
       <c r="E34" t="n">
-        <v>189.5</v>
+        <v>190</v>
       </c>
       <c r="F34" t="n">
-        <v>15080.6812</v>
+        <v>1666.8473</v>
       </c>
       <c r="G34" t="n">
-        <v>189.0033333333333</v>
+        <v>188.9766666666666</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>191.5</v>
+        <v>189.6</v>
       </c>
       <c r="C35" t="n">
-        <v>190.6</v>
+        <v>191.6</v>
       </c>
       <c r="D35" t="n">
-        <v>191.5</v>
+        <v>191.6</v>
       </c>
       <c r="E35" t="n">
-        <v>190.6</v>
+        <v>189.5</v>
       </c>
       <c r="F35" t="n">
-        <v>3020.97</v>
+        <v>15080.6812</v>
       </c>
       <c r="G35" t="n">
-        <v>189.0133333333333</v>
+        <v>189.0033333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>189.9</v>
+        <v>191.5</v>
       </c>
       <c r="C36" t="n">
-        <v>189.9</v>
+        <v>190.6</v>
       </c>
       <c r="D36" t="n">
         <v>191.5</v>
       </c>
       <c r="E36" t="n">
-        <v>189.9</v>
+        <v>190.6</v>
       </c>
       <c r="F36" t="n">
-        <v>263.8707</v>
+        <v>3020.97</v>
       </c>
       <c r="G36" t="n">
-        <v>189.0216666666666</v>
+        <v>189.0133333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="C37" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="D37" t="n">
         <v>191.5</v>
       </c>
-      <c r="C37" t="n">
-        <v>192</v>
-      </c>
-      <c r="D37" t="n">
-        <v>192</v>
-      </c>
       <c r="E37" t="n">
-        <v>191.5</v>
+        <v>189.9</v>
       </c>
       <c r="F37" t="n">
-        <v>6154.8065</v>
+        <v>263.8707</v>
       </c>
       <c r="G37" t="n">
-        <v>189.065</v>
+        <v>189.0216666666666</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="C38" t="n">
         <v>192</v>
       </c>
-      <c r="C38" t="n">
-        <v>192.9</v>
-      </c>
       <c r="D38" t="n">
-        <v>192.9</v>
+        <v>192</v>
       </c>
       <c r="E38" t="n">
-        <v>192</v>
+        <v>191.5</v>
       </c>
       <c r="F38" t="n">
-        <v>1684.7809036288</v>
+        <v>6154.8065</v>
       </c>
       <c r="G38" t="n">
-        <v>189.1233333333333</v>
+        <v>189.065</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>192</v>
       </c>
       <c r="C39" t="n">
-        <v>193</v>
+        <v>192.9</v>
       </c>
       <c r="D39" t="n">
-        <v>193</v>
+        <v>192.9</v>
       </c>
       <c r="E39" t="n">
         <v>192</v>
       </c>
       <c r="F39" t="n">
-        <v>1797.3441</v>
+        <v>1684.7809036288</v>
       </c>
       <c r="G39" t="n">
-        <v>189.1766666666667</v>
+        <v>189.1233333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>193.4</v>
+        <v>192</v>
       </c>
       <c r="C40" t="n">
-        <v>193.9</v>
+        <v>193</v>
       </c>
       <c r="D40" t="n">
-        <v>193.9</v>
+        <v>193</v>
       </c>
       <c r="E40" t="n">
-        <v>193.4</v>
+        <v>192</v>
       </c>
       <c r="F40" t="n">
-        <v>4010.958</v>
+        <v>1797.3441</v>
       </c>
       <c r="G40" t="n">
-        <v>189.2516666666667</v>
+        <v>189.1766666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>194</v>
+        <v>193.4</v>
       </c>
       <c r="C41" t="n">
-        <v>193.6</v>
+        <v>193.9</v>
       </c>
       <c r="D41" t="n">
-        <v>194</v>
+        <v>193.9</v>
       </c>
       <c r="E41" t="n">
-        <v>193.6</v>
+        <v>193.4</v>
       </c>
       <c r="F41" t="n">
-        <v>35.4194</v>
+        <v>4010.958</v>
       </c>
       <c r="G41" t="n">
-        <v>189.3533333333334</v>
+        <v>189.2516666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C42" t="n">
-        <v>192</v>
+        <v>193.6</v>
       </c>
       <c r="D42" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E42" t="n">
-        <v>192</v>
+        <v>193.6</v>
       </c>
       <c r="F42" t="n">
-        <v>1505.4389</v>
+        <v>35.4194</v>
       </c>
       <c r="G42" t="n">
-        <v>189.4683333333333</v>
+        <v>189.3533333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1874,16 +1874,16 @@
         <v>192</v>
       </c>
       <c r="D43" t="n">
-        <v>193.8</v>
+        <v>192</v>
       </c>
       <c r="E43" t="n">
         <v>192</v>
       </c>
       <c r="F43" t="n">
-        <v>9556.068600000001</v>
+        <v>1505.4389</v>
       </c>
       <c r="G43" t="n">
-        <v>189.505</v>
+        <v>189.4683333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1906,19 +1906,19 @@
         <v>192</v>
       </c>
       <c r="C44" t="n">
-        <v>191.4</v>
+        <v>192</v>
       </c>
       <c r="D44" t="n">
+        <v>193.8</v>
+      </c>
+      <c r="E44" t="n">
         <v>192</v>
       </c>
-      <c r="E44" t="n">
-        <v>191.4</v>
-      </c>
       <c r="F44" t="n">
-        <v>495.5279</v>
+        <v>9556.068600000001</v>
       </c>
       <c r="G44" t="n">
-        <v>189.5483333333333</v>
+        <v>189.505</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>192</v>
+      </c>
+      <c r="C45" t="n">
         <v>191.4</v>
       </c>
-      <c r="C45" t="n">
-        <v>190.1</v>
-      </c>
       <c r="D45" t="n">
+        <v>192</v>
+      </c>
+      <c r="E45" t="n">
         <v>191.4</v>
       </c>
-      <c r="E45" t="n">
-        <v>190.1</v>
-      </c>
       <c r="F45" t="n">
-        <v>6281.58</v>
+        <v>495.5279</v>
       </c>
       <c r="G45" t="n">
-        <v>189.5683333333334</v>
+        <v>189.5483333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>190.9</v>
+        <v>191.4</v>
       </c>
       <c r="C46" t="n">
-        <v>190.9</v>
+        <v>190.1</v>
       </c>
       <c r="D46" t="n">
-        <v>190.9</v>
+        <v>191.4</v>
       </c>
       <c r="E46" t="n">
-        <v>190.9</v>
+        <v>190.1</v>
       </c>
       <c r="F46" t="n">
-        <v>426.2453</v>
+        <v>6281.58</v>
       </c>
       <c r="G46" t="n">
-        <v>189.6</v>
+        <v>189.5683333333334</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2011,19 +2011,19 @@
         <v>190.9</v>
       </c>
       <c r="C47" t="n">
-        <v>190.1</v>
+        <v>190.9</v>
       </c>
       <c r="D47" t="n">
-        <v>191</v>
+        <v>190.9</v>
       </c>
       <c r="E47" t="n">
-        <v>190.1</v>
+        <v>190.9</v>
       </c>
       <c r="F47" t="n">
-        <v>2336.3266</v>
+        <v>426.2453</v>
       </c>
       <c r="G47" t="n">
-        <v>189.6183333333334</v>
+        <v>189.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="C48" t="n">
+        <v>190.1</v>
+      </c>
+      <c r="D48" t="n">
         <v>191</v>
       </c>
-      <c r="C48" t="n">
-        <v>191.5</v>
-      </c>
-      <c r="D48" t="n">
-        <v>191.5</v>
-      </c>
       <c r="E48" t="n">
-        <v>191</v>
+        <v>190.1</v>
       </c>
       <c r="F48" t="n">
-        <v>3151.2071</v>
+        <v>2336.3266</v>
       </c>
       <c r="G48" t="n">
-        <v>189.67</v>
+        <v>189.6183333333334</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>192.3</v>
+        <v>191</v>
       </c>
       <c r="C49" t="n">
-        <v>192.3</v>
+        <v>191.5</v>
       </c>
       <c r="D49" t="n">
-        <v>192.3</v>
+        <v>191.5</v>
       </c>
       <c r="E49" t="n">
-        <v>192.3</v>
+        <v>191</v>
       </c>
       <c r="F49" t="n">
-        <v>2660.47</v>
+        <v>3151.2071</v>
       </c>
       <c r="G49" t="n">
-        <v>189.7116666666667</v>
+        <v>189.67</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>192.3</v>
       </c>
       <c r="F50" t="n">
-        <v>3715.2674</v>
+        <v>2660.47</v>
       </c>
       <c r="G50" t="n">
-        <v>189.7533333333334</v>
+        <v>189.7116666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>190.7</v>
+        <v>192.3</v>
       </c>
       <c r="C51" t="n">
-        <v>190.7</v>
+        <v>192.3</v>
       </c>
       <c r="D51" t="n">
-        <v>190.7</v>
+        <v>192.3</v>
       </c>
       <c r="E51" t="n">
-        <v>190.7</v>
+        <v>192.3</v>
       </c>
       <c r="F51" t="n">
-        <v>84.6103</v>
+        <v>3715.2674</v>
       </c>
       <c r="G51" t="n">
-        <v>189.7683333333334</v>
+        <v>189.7533333333334</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>190.7</v>
       </c>
       <c r="F52" t="n">
-        <v>89.71040000000001</v>
+        <v>84.6103</v>
       </c>
       <c r="G52" t="n">
-        <v>189.8216666666667</v>
+        <v>189.7683333333334</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>190.6</v>
+        <v>190.7</v>
       </c>
       <c r="C53" t="n">
-        <v>190.5</v>
+        <v>190.7</v>
       </c>
       <c r="D53" t="n">
-        <v>190.6</v>
+        <v>190.7</v>
       </c>
       <c r="E53" t="n">
-        <v>190.5</v>
+        <v>190.7</v>
       </c>
       <c r="F53" t="n">
-        <v>329.7521</v>
+        <v>89.71040000000001</v>
       </c>
       <c r="G53" t="n">
-        <v>189.8716666666668</v>
+        <v>189.8216666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>190.5</v>
+        <v>190.6</v>
       </c>
       <c r="C54" t="n">
         <v>190.5</v>
       </c>
       <c r="D54" t="n">
-        <v>190.5</v>
+        <v>190.6</v>
       </c>
       <c r="E54" t="n">
         <v>190.5</v>
       </c>
       <c r="F54" t="n">
-        <v>93.86</v>
+        <v>329.7521</v>
       </c>
       <c r="G54" t="n">
-        <v>189.9216666666667</v>
+        <v>189.8716666666668</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2291,19 +2291,19 @@
         <v>190.5</v>
       </c>
       <c r="C55" t="n">
-        <v>190.2</v>
+        <v>190.5</v>
       </c>
       <c r="D55" t="n">
         <v>190.5</v>
       </c>
       <c r="E55" t="n">
-        <v>190.2</v>
+        <v>190.5</v>
       </c>
       <c r="F55" t="n">
-        <v>430.6038</v>
+        <v>93.86</v>
       </c>
       <c r="G55" t="n">
-        <v>189.9516666666668</v>
+        <v>189.9216666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>190.2</v>
+        <v>190.5</v>
       </c>
       <c r="C56" t="n">
         <v>190.2</v>
       </c>
       <c r="D56" t="n">
-        <v>190.2</v>
+        <v>190.5</v>
       </c>
       <c r="E56" t="n">
         <v>190.2</v>
       </c>
       <c r="F56" t="n">
-        <v>0.6218</v>
+        <v>430.6038</v>
       </c>
       <c r="G56" t="n">
-        <v>189.9900000000001</v>
+        <v>189.9516666666668</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>189</v>
+        <v>190.2</v>
       </c>
       <c r="C57" t="n">
-        <v>189</v>
+        <v>190.2</v>
       </c>
       <c r="D57" t="n">
-        <v>189</v>
+        <v>190.2</v>
       </c>
       <c r="E57" t="n">
-        <v>189</v>
+        <v>190.2</v>
       </c>
       <c r="F57" t="n">
-        <v>86.4701</v>
+        <v>0.6218</v>
       </c>
       <c r="G57" t="n">
-        <v>189.9983333333334</v>
+        <v>189.9900000000001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>188.3</v>
+        <v>189</v>
       </c>
       <c r="C58" t="n">
-        <v>190.7</v>
+        <v>189</v>
       </c>
       <c r="D58" t="n">
-        <v>190.7</v>
+        <v>189</v>
       </c>
       <c r="E58" t="n">
-        <v>188.3</v>
+        <v>189</v>
       </c>
       <c r="F58" t="n">
-        <v>10157.7946</v>
+        <v>86.4701</v>
       </c>
       <c r="G58" t="n">
-        <v>190.0450000000001</v>
+        <v>189.9983333333334</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>190.6</v>
+        <v>188.3</v>
       </c>
       <c r="C59" t="n">
-        <v>190.6</v>
+        <v>190.7</v>
       </c>
       <c r="D59" t="n">
-        <v>190.6</v>
+        <v>190.7</v>
       </c>
       <c r="E59" t="n">
-        <v>190.6</v>
+        <v>188.3</v>
       </c>
       <c r="F59" t="n">
-        <v>610.4862000000001</v>
+        <v>10157.7946</v>
       </c>
       <c r="G59" t="n">
-        <v>190.0766666666668</v>
+        <v>190.0450000000001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>190.5</v>
+        <v>190.6</v>
       </c>
       <c r="C60" t="n">
-        <v>189.5</v>
+        <v>190.6</v>
       </c>
       <c r="D60" t="n">
-        <v>190.5</v>
+        <v>190.6</v>
       </c>
       <c r="E60" t="n">
-        <v>189.5</v>
+        <v>190.6</v>
       </c>
       <c r="F60" t="n">
-        <v>7946.4344</v>
+        <v>610.4862000000001</v>
       </c>
       <c r="G60" t="n">
-        <v>190.0783333333335</v>
+        <v>190.0766666666668</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,19 +2498,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>189.5</v>
+        <v>190.5</v>
       </c>
       <c r="C61" t="n">
         <v>189.5</v>
       </c>
       <c r="D61" t="n">
-        <v>189.5</v>
+        <v>190.5</v>
       </c>
       <c r="E61" t="n">
         <v>189.5</v>
       </c>
       <c r="F61" t="n">
-        <v>3715.2674</v>
+        <v>7946.4344</v>
       </c>
       <c r="G61" t="n">
         <v>190.0783333333335</v>
@@ -2536,19 +2536,19 @@
         <v>189.5</v>
       </c>
       <c r="C62" t="n">
-        <v>188.6</v>
+        <v>189.5</v>
       </c>
       <c r="D62" t="n">
         <v>189.5</v>
       </c>
       <c r="E62" t="n">
-        <v>188.6</v>
+        <v>189.5</v>
       </c>
       <c r="F62" t="n">
-        <v>8513.2677</v>
+        <v>3715.2674</v>
       </c>
       <c r="G62" t="n">
-        <v>190.0616666666668</v>
+        <v>190.0783333333335</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>189.5</v>
+      </c>
+      <c r="C63" t="n">
         <v>188.6</v>
       </c>
-      <c r="C63" t="n">
-        <v>189.4</v>
-      </c>
       <c r="D63" t="n">
-        <v>189.4</v>
+        <v>189.5</v>
       </c>
       <c r="E63" t="n">
-        <v>188.1</v>
+        <v>188.6</v>
       </c>
       <c r="F63" t="n">
-        <v>4883.7259</v>
+        <v>8513.2677</v>
       </c>
       <c r="G63" t="n">
-        <v>190.0583333333335</v>
+        <v>190.0616666666668</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>188</v>
+        <v>188.6</v>
       </c>
       <c r="C64" t="n">
-        <v>188</v>
+        <v>189.4</v>
       </c>
       <c r="D64" t="n">
-        <v>188</v>
+        <v>189.4</v>
       </c>
       <c r="E64" t="n">
-        <v>188</v>
+        <v>188.1</v>
       </c>
       <c r="F64" t="n">
-        <v>183.6499</v>
+        <v>4883.7259</v>
       </c>
       <c r="G64" t="n">
-        <v>190.0316666666668</v>
+        <v>190.0583333333335</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>188</v>
       </c>
       <c r="F65" t="n">
-        <v>5725.1904</v>
+        <v>183.6499</v>
       </c>
       <c r="G65" t="n">
-        <v>190.0050000000001</v>
+        <v>190.0316666666668</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>187.6</v>
+        <v>188</v>
       </c>
       <c r="C66" t="n">
-        <v>187.5</v>
+        <v>188</v>
       </c>
       <c r="D66" t="n">
-        <v>187.6</v>
+        <v>188</v>
       </c>
       <c r="E66" t="n">
-        <v>187.5</v>
+        <v>188</v>
       </c>
       <c r="F66" t="n">
-        <v>13395.846</v>
+        <v>5725.1904</v>
       </c>
       <c r="G66" t="n">
-        <v>189.9650000000001</v>
+        <v>190.0050000000001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>187.7</v>
+        <v>187.6</v>
       </c>
       <c r="C67" t="n">
-        <v>187.7</v>
+        <v>187.5</v>
       </c>
       <c r="D67" t="n">
-        <v>187.7</v>
+        <v>187.6</v>
       </c>
       <c r="E67" t="n">
-        <v>187.7</v>
+        <v>187.5</v>
       </c>
       <c r="F67" t="n">
-        <v>1489.7923</v>
+        <v>13395.846</v>
       </c>
       <c r="G67" t="n">
-        <v>189.9566666666668</v>
+        <v>189.9650000000001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>189.5</v>
+        <v>187.7</v>
       </c>
       <c r="C68" t="n">
-        <v>189.6</v>
+        <v>187.7</v>
       </c>
       <c r="D68" t="n">
-        <v>189.6</v>
+        <v>187.7</v>
       </c>
       <c r="E68" t="n">
-        <v>189.5</v>
+        <v>187.7</v>
       </c>
       <c r="F68" t="n">
-        <v>4800</v>
+        <v>1489.7923</v>
       </c>
       <c r="G68" t="n">
-        <v>189.9516666666668</v>
+        <v>189.9566666666668</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,19 +2778,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>188.7</v>
+        <v>189.5</v>
       </c>
       <c r="C69" t="n">
-        <v>187.7</v>
+        <v>189.6</v>
       </c>
       <c r="D69" t="n">
-        <v>188.7</v>
+        <v>189.6</v>
       </c>
       <c r="E69" t="n">
-        <v>187.7</v>
+        <v>189.5</v>
       </c>
       <c r="F69" t="n">
-        <v>2052.1894</v>
+        <v>4800</v>
       </c>
       <c r="G69" t="n">
         <v>189.9516666666668</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>189.5</v>
+        <v>188.7</v>
       </c>
       <c r="C70" t="n">
-        <v>189.5</v>
+        <v>187.7</v>
       </c>
       <c r="D70" t="n">
-        <v>189.5</v>
+        <v>188.7</v>
       </c>
       <c r="E70" t="n">
-        <v>189.5</v>
+        <v>187.7</v>
       </c>
       <c r="F70" t="n">
-        <v>2.7</v>
+        <v>2052.1894</v>
       </c>
       <c r="G70" t="n">
-        <v>189.9633333333335</v>
+        <v>189.9516666666668</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>188.5</v>
+        <v>189.5</v>
       </c>
       <c r="C71" t="n">
         <v>189.5</v>
@@ -2857,13 +2857,13 @@
         <v>189.5</v>
       </c>
       <c r="E71" t="n">
-        <v>188.5</v>
+        <v>189.5</v>
       </c>
       <c r="F71" t="n">
-        <v>5000</v>
+        <v>2.7</v>
       </c>
       <c r="G71" t="n">
-        <v>189.9733333333335</v>
+        <v>189.9633333333335</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>189.5</v>
+        <v>188.5</v>
       </c>
       <c r="C72" t="n">
         <v>189.5</v>
@@ -2892,13 +2892,13 @@
         <v>189.5</v>
       </c>
       <c r="E72" t="n">
-        <v>189.5</v>
+        <v>188.5</v>
       </c>
       <c r="F72" t="n">
-        <v>555</v>
+        <v>5000</v>
       </c>
       <c r="G72" t="n">
-        <v>190.0050000000001</v>
+        <v>189.9733333333335</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>188.5</v>
+        <v>189.5</v>
       </c>
       <c r="C73" t="n">
-        <v>188.5</v>
+        <v>189.5</v>
       </c>
       <c r="D73" t="n">
-        <v>188.5</v>
+        <v>189.5</v>
       </c>
       <c r="E73" t="n">
-        <v>188.5</v>
+        <v>189.5</v>
       </c>
       <c r="F73" t="n">
-        <v>305</v>
+        <v>555</v>
       </c>
       <c r="G73" t="n">
-        <v>190.0016666666668</v>
+        <v>190.0050000000001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>189.5</v>
+        <v>188.5</v>
       </c>
       <c r="C74" t="n">
-        <v>189.5</v>
+        <v>188.5</v>
       </c>
       <c r="D74" t="n">
-        <v>189.5</v>
+        <v>188.5</v>
       </c>
       <c r="E74" t="n">
-        <v>189.5</v>
+        <v>188.5</v>
       </c>
       <c r="F74" t="n">
-        <v>3691.8221</v>
+        <v>305</v>
       </c>
       <c r="G74" t="n">
-        <v>190.0283333333335</v>
+        <v>190.0016666666668</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>189.5</v>
       </c>
       <c r="F75" t="n">
-        <v>748.1467</v>
+        <v>3691.8221</v>
       </c>
       <c r="G75" t="n">
-        <v>190.0516666666668</v>
+        <v>190.0283333333335</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>190.1</v>
+        <v>189.5</v>
       </c>
       <c r="C76" t="n">
-        <v>190.4</v>
+        <v>189.5</v>
       </c>
       <c r="D76" t="n">
-        <v>190.4</v>
+        <v>189.5</v>
       </c>
       <c r="E76" t="n">
-        <v>190.1</v>
+        <v>189.5</v>
       </c>
       <c r="F76" t="n">
-        <v>5855.7351</v>
+        <v>748.1467</v>
       </c>
       <c r="G76" t="n">
-        <v>190.0900000000001</v>
+        <v>190.0516666666668</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>190.5</v>
+        <v>190.1</v>
       </c>
       <c r="C77" t="n">
-        <v>190.5</v>
+        <v>190.4</v>
       </c>
       <c r="D77" t="n">
-        <v>190.5</v>
+        <v>190.4</v>
       </c>
       <c r="E77" t="n">
-        <v>190.5</v>
+        <v>190.1</v>
       </c>
       <c r="F77" t="n">
-        <v>5</v>
+        <v>5855.7351</v>
       </c>
       <c r="G77" t="n">
-        <v>190.1350000000001</v>
+        <v>190.0900000000001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>189.5</v>
+        <v>190.5</v>
       </c>
       <c r="C78" t="n">
-        <v>189.5</v>
+        <v>190.5</v>
       </c>
       <c r="D78" t="n">
-        <v>189.5</v>
+        <v>190.5</v>
       </c>
       <c r="E78" t="n">
-        <v>189.5</v>
+        <v>190.5</v>
       </c>
       <c r="F78" t="n">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="G78" t="n">
-        <v>190.1583333333334</v>
+        <v>190.1350000000001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>190.5</v>
+        <v>189.5</v>
       </c>
       <c r="C79" t="n">
-        <v>190.5</v>
+        <v>189.5</v>
       </c>
       <c r="D79" t="n">
-        <v>190.5</v>
+        <v>189.5</v>
       </c>
       <c r="E79" t="n">
-        <v>190.5</v>
+        <v>189.5</v>
       </c>
       <c r="F79" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="G79" t="n">
-        <v>190.1983333333334</v>
+        <v>190.1583333333334</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3175,10 +3175,10 @@
         <v>190.5</v>
       </c>
       <c r="F80" t="n">
-        <v>1662.6306</v>
+        <v>3</v>
       </c>
       <c r="G80" t="n">
-        <v>190.2433333333335</v>
+        <v>190.1983333333334</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3210,10 +3210,10 @@
         <v>190.5</v>
       </c>
       <c r="F81" t="n">
-        <v>666</v>
+        <v>1662.6306</v>
       </c>
       <c r="G81" t="n">
-        <v>190.2816666666668</v>
+        <v>190.2433333333335</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>190.7</v>
+        <v>190.5</v>
       </c>
       <c r="C82" t="n">
-        <v>190.7</v>
+        <v>190.5</v>
       </c>
       <c r="D82" t="n">
-        <v>190.7</v>
+        <v>190.5</v>
       </c>
       <c r="E82" t="n">
-        <v>190.7</v>
+        <v>190.5</v>
       </c>
       <c r="F82" t="n">
-        <v>1940.1977</v>
+        <v>666</v>
       </c>
       <c r="G82" t="n">
-        <v>190.3233333333334</v>
+        <v>190.2816666666668</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>190.8</v>
+        <v>190.7</v>
       </c>
       <c r="C83" t="n">
         <v>190.7</v>
       </c>
       <c r="D83" t="n">
-        <v>190.8</v>
+        <v>190.7</v>
       </c>
       <c r="E83" t="n">
         <v>190.7</v>
       </c>
       <c r="F83" t="n">
-        <v>753.4933</v>
+        <v>1940.1977</v>
       </c>
       <c r="G83" t="n">
-        <v>190.3383333333335</v>
+        <v>190.3233333333334</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
+        <v>190.8</v>
+      </c>
+      <c r="C84" t="n">
         <v>190.7</v>
       </c>
-      <c r="C84" t="n">
-        <v>190.5</v>
-      </c>
       <c r="D84" t="n">
+        <v>190.8</v>
+      </c>
+      <c r="E84" t="n">
         <v>190.7</v>
       </c>
-      <c r="E84" t="n">
-        <v>190.5</v>
-      </c>
       <c r="F84" t="n">
-        <v>1450.9533</v>
+        <v>753.4933</v>
       </c>
       <c r="G84" t="n">
-        <v>190.3466666666668</v>
+        <v>190.3383333333335</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>190.7</v>
+      </c>
+      <c r="C85" t="n">
         <v>190.5</v>
-      </c>
-      <c r="C85" t="n">
-        <v>189.4</v>
       </c>
       <c r="D85" t="n">
         <v>190.7</v>
       </c>
       <c r="E85" t="n">
-        <v>189.4</v>
+        <v>190.5</v>
       </c>
       <c r="F85" t="n">
-        <v>9901.3837</v>
+        <v>1450.9533</v>
       </c>
       <c r="G85" t="n">
-        <v>190.3366666666668</v>
+        <v>190.3466666666668</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>189.5</v>
+        <v>190.5</v>
       </c>
       <c r="C86" t="n">
-        <v>189.5</v>
+        <v>189.4</v>
       </c>
       <c r="D86" t="n">
-        <v>189.5</v>
+        <v>190.7</v>
       </c>
       <c r="E86" t="n">
-        <v>189.5</v>
+        <v>189.4</v>
       </c>
       <c r="F86" t="n">
-        <v>555</v>
+        <v>9901.3837</v>
       </c>
       <c r="G86" t="n">
-        <v>190.3283333333335</v>
+        <v>190.3366666666668</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>190.6</v>
+        <v>189.5</v>
       </c>
       <c r="C87" t="n">
-        <v>190.7</v>
+        <v>189.5</v>
       </c>
       <c r="D87" t="n">
-        <v>190.7</v>
+        <v>189.5</v>
       </c>
       <c r="E87" t="n">
         <v>189.5</v>
       </c>
       <c r="F87" t="n">
-        <v>1094.6275</v>
+        <v>555</v>
       </c>
       <c r="G87" t="n">
-        <v>190.3400000000001</v>
+        <v>190.3283333333335</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3446,19 +3446,19 @@
         <v>190.6</v>
       </c>
       <c r="C88" t="n">
-        <v>189.5</v>
+        <v>190.7</v>
       </c>
       <c r="D88" t="n">
-        <v>190.6</v>
+        <v>190.7</v>
       </c>
       <c r="E88" t="n">
         <v>189.5</v>
       </c>
       <c r="F88" t="n">
-        <v>2002.67</v>
+        <v>1094.6275</v>
       </c>
       <c r="G88" t="n">
-        <v>190.3133333333335</v>
+        <v>190.3400000000001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>189.6</v>
+        <v>190.6</v>
       </c>
       <c r="C89" t="n">
         <v>189.5</v>
       </c>
       <c r="D89" t="n">
-        <v>189.6</v>
+        <v>190.6</v>
       </c>
       <c r="E89" t="n">
         <v>189.5</v>
       </c>
       <c r="F89" t="n">
-        <v>2826.5113</v>
+        <v>2002.67</v>
       </c>
       <c r="G89" t="n">
-        <v>190.2983333333335</v>
+        <v>190.3133333333335</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>189.5</v>
+        <v>189.6</v>
       </c>
       <c r="C90" t="n">
         <v>189.5</v>
       </c>
       <c r="D90" t="n">
-        <v>189.5</v>
+        <v>189.6</v>
       </c>
       <c r="E90" t="n">
         <v>189.5</v>
       </c>
       <c r="F90" t="n">
-        <v>467.7058</v>
+        <v>2826.5113</v>
       </c>
       <c r="G90" t="n">
-        <v>190.2883333333335</v>
+        <v>190.2983333333335</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3551,19 +3551,19 @@
         <v>189.5</v>
       </c>
       <c r="C91" t="n">
-        <v>189</v>
+        <v>189.5</v>
       </c>
       <c r="D91" t="n">
         <v>189.5</v>
       </c>
       <c r="E91" t="n">
-        <v>189</v>
+        <v>189.5</v>
       </c>
       <c r="F91" t="n">
-        <v>646.2283</v>
+        <v>467.7058</v>
       </c>
       <c r="G91" t="n">
-        <v>190.2716666666668</v>
+        <v>190.2883333333335</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>189</v>
+        <v>189.5</v>
       </c>
       <c r="C92" t="n">
         <v>189</v>
       </c>
       <c r="D92" t="n">
-        <v>189</v>
+        <v>189.5</v>
       </c>
       <c r="E92" t="n">
         <v>189</v>
       </c>
       <c r="F92" t="n">
-        <v>3025.0746</v>
+        <v>646.2283</v>
       </c>
       <c r="G92" t="n">
-        <v>190.2433333333335</v>
+        <v>190.2716666666668</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>188.2</v>
+        <v>189</v>
       </c>
       <c r="C93" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D93" t="n">
-        <v>188.2</v>
+        <v>189</v>
       </c>
       <c r="E93" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F93" t="n">
-        <v>4232.7796</v>
+        <v>3025.0746</v>
       </c>
       <c r="G93" t="n">
-        <v>190.2100000000001</v>
+        <v>190.2433333333335</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>188.1</v>
+        <v>188.2</v>
       </c>
       <c r="C94" t="n">
-        <v>187.7</v>
+        <v>188</v>
       </c>
       <c r="D94" t="n">
-        <v>188.1</v>
+        <v>188.2</v>
       </c>
       <c r="E94" t="n">
-        <v>187.7</v>
+        <v>188</v>
       </c>
       <c r="F94" t="n">
-        <v>1513.0105</v>
+        <v>4232.7796</v>
       </c>
       <c r="G94" t="n">
-        <v>190.1450000000001</v>
+        <v>190.2100000000001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3691,19 +3691,19 @@
         <v>188.1</v>
       </c>
       <c r="C95" t="n">
-        <v>188.1</v>
+        <v>187.7</v>
       </c>
       <c r="D95" t="n">
         <v>188.1</v>
       </c>
       <c r="E95" t="n">
-        <v>188.1</v>
+        <v>187.7</v>
       </c>
       <c r="F95" t="n">
-        <v>3673.0357</v>
+        <v>1513.0105</v>
       </c>
       <c r="G95" t="n">
-        <v>190.1033333333335</v>
+        <v>190.1450000000001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3726,19 +3726,19 @@
         <v>188.1</v>
       </c>
       <c r="C96" t="n">
-        <v>189.7</v>
+        <v>188.1</v>
       </c>
       <c r="D96" t="n">
-        <v>189.7</v>
+        <v>188.1</v>
       </c>
       <c r="E96" t="n">
         <v>188.1</v>
       </c>
       <c r="F96" t="n">
-        <v>6.0001</v>
+        <v>3673.0357</v>
       </c>
       <c r="G96" t="n">
-        <v>190.1000000000002</v>
+        <v>190.1033333333335</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>189.7</v>
+        <v>188.1</v>
       </c>
       <c r="C97" t="n">
         <v>189.7</v>
@@ -3767,13 +3767,13 @@
         <v>189.7</v>
       </c>
       <c r="E97" t="n">
-        <v>189.7</v>
+        <v>188.1</v>
       </c>
       <c r="F97" t="n">
-        <v>1950.4132</v>
+        <v>6.0001</v>
       </c>
       <c r="G97" t="n">
-        <v>190.0616666666668</v>
+        <v>190.1000000000002</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>189.6</v>
+        <v>189.7</v>
       </c>
       <c r="C98" t="n">
-        <v>189.6</v>
+        <v>189.7</v>
       </c>
       <c r="D98" t="n">
-        <v>189.6</v>
+        <v>189.7</v>
       </c>
       <c r="E98" t="n">
-        <v>189.6</v>
+        <v>189.7</v>
       </c>
       <c r="F98" t="n">
-        <v>3</v>
+        <v>1950.4132</v>
       </c>
       <c r="G98" t="n">
-        <v>190.0066666666668</v>
+        <v>190.0616666666668</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>187.5</v>
+        <v>189.6</v>
       </c>
       <c r="C99" t="n">
-        <v>187.5</v>
+        <v>189.6</v>
       </c>
       <c r="D99" t="n">
-        <v>187.5</v>
+        <v>189.6</v>
       </c>
       <c r="E99" t="n">
-        <v>187.5</v>
+        <v>189.6</v>
       </c>
       <c r="F99" t="n">
-        <v>55.92</v>
+        <v>3</v>
       </c>
       <c r="G99" t="n">
-        <v>189.9150000000002</v>
+        <v>190.0066666666668</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3866,19 +3866,19 @@
         <v>187.5</v>
       </c>
       <c r="C100" t="n">
-        <v>186.5</v>
+        <v>187.5</v>
       </c>
       <c r="D100" t="n">
         <v>187.5</v>
       </c>
       <c r="E100" t="n">
-        <v>186.5</v>
+        <v>187.5</v>
       </c>
       <c r="F100" t="n">
-        <v>178.1337</v>
+        <v>55.92</v>
       </c>
       <c r="G100" t="n">
-        <v>189.7916666666669</v>
+        <v>189.9150000000002</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>188.2</v>
+        <v>187.5</v>
       </c>
       <c r="C101" t="n">
-        <v>188.2</v>
+        <v>186.5</v>
       </c>
       <c r="D101" t="n">
-        <v>188.2</v>
+        <v>187.5</v>
       </c>
       <c r="E101" t="n">
-        <v>188.2</v>
+        <v>186.5</v>
       </c>
       <c r="F101" t="n">
-        <v>2.7</v>
+        <v>178.1337</v>
       </c>
       <c r="G101" t="n">
-        <v>189.7016666666669</v>
+        <v>189.7916666666669</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>186.5</v>
+        <v>188.2</v>
       </c>
       <c r="C102" t="n">
-        <v>186.5</v>
+        <v>188.2</v>
       </c>
       <c r="D102" t="n">
-        <v>186.5</v>
+        <v>188.2</v>
       </c>
       <c r="E102" t="n">
-        <v>186.5</v>
+        <v>188.2</v>
       </c>
       <c r="F102" t="n">
-        <v>135.8</v>
+        <v>2.7</v>
       </c>
       <c r="G102" t="n">
-        <v>189.6100000000002</v>
+        <v>189.7016666666669</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3971,19 +3971,19 @@
         <v>186.5</v>
       </c>
       <c r="C103" t="n">
-        <v>186.2</v>
+        <v>186.5</v>
       </c>
       <c r="D103" t="n">
         <v>186.5</v>
       </c>
       <c r="E103" t="n">
-        <v>186.2</v>
+        <v>186.5</v>
       </c>
       <c r="F103" t="n">
-        <v>1158.5973</v>
+        <v>135.8</v>
       </c>
       <c r="G103" t="n">
-        <v>189.5133333333335</v>
+        <v>189.6100000000002</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>186.4</v>
+        <v>186.5</v>
       </c>
       <c r="C104" t="n">
-        <v>186.5</v>
+        <v>186.2</v>
       </c>
       <c r="D104" t="n">
         <v>186.5</v>
       </c>
       <c r="E104" t="n">
-        <v>186.4</v>
+        <v>186.2</v>
       </c>
       <c r="F104" t="n">
-        <v>24283.4164</v>
+        <v>1158.5973</v>
       </c>
       <c r="G104" t="n">
-        <v>189.4316666666669</v>
+        <v>189.5133333333335</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>188</v>
+        <v>186.4</v>
       </c>
       <c r="C105" t="n">
-        <v>188</v>
+        <v>186.5</v>
       </c>
       <c r="D105" t="n">
-        <v>188</v>
+        <v>186.5</v>
       </c>
       <c r="E105" t="n">
-        <v>188</v>
+        <v>186.4</v>
       </c>
       <c r="F105" t="n">
-        <v>3</v>
+        <v>24283.4164</v>
       </c>
       <c r="G105" t="n">
-        <v>189.3966666666669</v>
+        <v>189.4316666666669</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>186.3</v>
+        <v>188</v>
       </c>
       <c r="C106" t="n">
-        <v>186.2</v>
+        <v>188</v>
       </c>
       <c r="D106" t="n">
-        <v>186.3</v>
+        <v>188</v>
       </c>
       <c r="E106" t="n">
-        <v>186.2</v>
+        <v>188</v>
       </c>
       <c r="F106" t="n">
-        <v>2004.258</v>
+        <v>3</v>
       </c>
       <c r="G106" t="n">
-        <v>189.3183333333336</v>
+        <v>189.3966666666669</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>187.8</v>
+        <v>186.3</v>
       </c>
       <c r="C107" t="n">
-        <v>187.8</v>
+        <v>186.2</v>
       </c>
       <c r="D107" t="n">
-        <v>187.8</v>
+        <v>186.3</v>
       </c>
       <c r="E107" t="n">
-        <v>187.8</v>
+        <v>186.2</v>
       </c>
       <c r="F107" t="n">
-        <v>3</v>
+        <v>2004.258</v>
       </c>
       <c r="G107" t="n">
-        <v>189.2800000000002</v>
+        <v>189.3183333333336</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>186</v>
+        <v>187.8</v>
       </c>
       <c r="C108" t="n">
-        <v>186</v>
+        <v>187.8</v>
       </c>
       <c r="D108" t="n">
-        <v>186</v>
+        <v>187.8</v>
       </c>
       <c r="E108" t="n">
-        <v>186</v>
+        <v>187.8</v>
       </c>
       <c r="F108" t="n">
-        <v>1548.7723</v>
+        <v>3</v>
       </c>
       <c r="G108" t="n">
-        <v>189.1883333333335</v>
+        <v>189.2800000000002</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>186.1</v>
+        <v>186</v>
       </c>
       <c r="C109" t="n">
-        <v>186.1</v>
+        <v>186</v>
       </c>
       <c r="D109" t="n">
-        <v>186.1</v>
+        <v>186</v>
       </c>
       <c r="E109" t="n">
-        <v>186.1</v>
+        <v>186</v>
       </c>
       <c r="F109" t="n">
-        <v>2000</v>
+        <v>1548.7723</v>
       </c>
       <c r="G109" t="n">
-        <v>189.0850000000002</v>
+        <v>189.1883333333335</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4225,10 +4225,10 @@
         <v>186.1</v>
       </c>
       <c r="F110" t="n">
-        <v>610.4862000000001</v>
+        <v>2000</v>
       </c>
       <c r="G110" t="n">
-        <v>188.9816666666669</v>
+        <v>189.0850000000002</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>187.8</v>
+        <v>186.1</v>
       </c>
       <c r="C111" t="n">
-        <v>187.8</v>
+        <v>186.1</v>
       </c>
       <c r="D111" t="n">
-        <v>187.8</v>
+        <v>186.1</v>
       </c>
       <c r="E111" t="n">
-        <v>187.8</v>
+        <v>186.1</v>
       </c>
       <c r="F111" t="n">
-        <v>3</v>
+        <v>610.4862000000001</v>
       </c>
       <c r="G111" t="n">
-        <v>188.9333333333335</v>
+        <v>188.9816666666669</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>186.1</v>
+        <v>187.8</v>
       </c>
       <c r="C112" t="n">
-        <v>186.1</v>
+        <v>187.8</v>
       </c>
       <c r="D112" t="n">
-        <v>186.1</v>
+        <v>187.8</v>
       </c>
       <c r="E112" t="n">
-        <v>186.1</v>
+        <v>187.8</v>
       </c>
       <c r="F112" t="n">
-        <v>1045.9234</v>
+        <v>3</v>
       </c>
       <c r="G112" t="n">
-        <v>188.8566666666669</v>
+        <v>188.9333333333335</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4330,10 +4330,10 @@
         <v>186.1</v>
       </c>
       <c r="F113" t="n">
-        <v>2455.4339</v>
+        <v>1045.9234</v>
       </c>
       <c r="G113" t="n">
-        <v>188.7833333333336</v>
+        <v>188.8566666666669</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4356,19 +4356,19 @@
         <v>186.1</v>
       </c>
       <c r="C114" t="n">
-        <v>187.7</v>
+        <v>186.1</v>
       </c>
       <c r="D114" t="n">
-        <v>188.2</v>
+        <v>186.1</v>
       </c>
       <c r="E114" t="n">
         <v>186.1</v>
       </c>
       <c r="F114" t="n">
-        <v>6182.7909</v>
+        <v>2455.4339</v>
       </c>
       <c r="G114" t="n">
-        <v>188.7366666666669</v>
+        <v>188.7833333333336</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>187.7</v>
+        <v>186.1</v>
       </c>
       <c r="C115" t="n">
         <v>187.7</v>
       </c>
       <c r="D115" t="n">
-        <v>187.7</v>
+        <v>188.2</v>
       </c>
       <c r="E115" t="n">
-        <v>187.7</v>
+        <v>186.1</v>
       </c>
       <c r="F115" t="n">
-        <v>3300.0436</v>
+        <v>6182.7909</v>
       </c>
       <c r="G115" t="n">
-        <v>188.6950000000002</v>
+        <v>188.7366666666669</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4435,10 +4435,10 @@
         <v>187.7</v>
       </c>
       <c r="F116" t="n">
-        <v>2396.8309</v>
+        <v>3300.0436</v>
       </c>
       <c r="G116" t="n">
-        <v>188.6533333333336</v>
+        <v>188.6950000000002</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4470,10 +4470,10 @@
         <v>187.7</v>
       </c>
       <c r="F117" t="n">
-        <v>684.7221</v>
+        <v>2396.8309</v>
       </c>
       <c r="G117" t="n">
-        <v>188.6316666666669</v>
+        <v>188.6533333333336</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>187.8</v>
+        <v>187.7</v>
       </c>
       <c r="C118" t="n">
-        <v>187.8</v>
+        <v>187.7</v>
       </c>
       <c r="D118" t="n">
-        <v>187.8</v>
+        <v>187.7</v>
       </c>
       <c r="E118" t="n">
-        <v>187.8</v>
+        <v>187.7</v>
       </c>
       <c r="F118" t="n">
-        <v>722</v>
+        <v>684.7221</v>
       </c>
       <c r="G118" t="n">
-        <v>188.5833333333335</v>
+        <v>188.6316666666669</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>187.9</v>
+        <v>187.8</v>
       </c>
       <c r="C119" t="n">
-        <v>187.9</v>
+        <v>187.8</v>
       </c>
       <c r="D119" t="n">
-        <v>187.9</v>
+        <v>187.8</v>
       </c>
       <c r="E119" t="n">
-        <v>187.9</v>
+        <v>187.8</v>
       </c>
       <c r="F119" t="n">
-        <v>580.8477</v>
+        <v>722</v>
       </c>
       <c r="G119" t="n">
-        <v>188.5383333333335</v>
+        <v>188.5833333333335</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4566,19 +4566,19 @@
         <v>187.9</v>
       </c>
       <c r="C120" t="n">
-        <v>186.9</v>
+        <v>187.9</v>
       </c>
       <c r="D120" t="n">
         <v>187.9</v>
       </c>
       <c r="E120" t="n">
-        <v>186.9</v>
+        <v>187.9</v>
       </c>
       <c r="F120" t="n">
-        <v>240.6373</v>
+        <v>580.8477</v>
       </c>
       <c r="G120" t="n">
-        <v>188.4950000000002</v>
+        <v>188.5383333333335</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>186.3</v>
+        <v>187.9</v>
       </c>
       <c r="C121" t="n">
-        <v>187.1</v>
+        <v>186.9</v>
       </c>
       <c r="D121" t="n">
-        <v>188</v>
+        <v>187.9</v>
       </c>
       <c r="E121" t="n">
-        <v>186.3</v>
+        <v>186.9</v>
       </c>
       <c r="F121" t="n">
-        <v>4604.038</v>
+        <v>240.6373</v>
       </c>
       <c r="G121" t="n">
-        <v>188.4550000000002</v>
+        <v>188.4950000000002</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>187.2</v>
+        <v>186.3</v>
       </c>
       <c r="C122" t="n">
-        <v>186.6</v>
+        <v>187.1</v>
       </c>
       <c r="D122" t="n">
-        <v>187.2</v>
+        <v>188</v>
       </c>
       <c r="E122" t="n">
-        <v>186.6</v>
+        <v>186.3</v>
       </c>
       <c r="F122" t="n">
-        <v>9479.834500000001</v>
+        <v>4604.038</v>
       </c>
       <c r="G122" t="n">
-        <v>188.4216666666669</v>
+        <v>188.4550000000002</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>186.7</v>
+        <v>187.2</v>
       </c>
       <c r="C123" t="n">
         <v>186.6</v>
       </c>
       <c r="D123" t="n">
-        <v>186.7</v>
+        <v>187.2</v>
       </c>
       <c r="E123" t="n">
         <v>186.6</v>
       </c>
       <c r="F123" t="n">
-        <v>6434.2455</v>
+        <v>9479.834500000001</v>
       </c>
       <c r="G123" t="n">
-        <v>188.3750000000002</v>
+        <v>188.4216666666669</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>187.8</v>
+        <v>186.7</v>
       </c>
       <c r="C124" t="n">
-        <v>187.8</v>
+        <v>186.6</v>
       </c>
       <c r="D124" t="n">
-        <v>187.8</v>
+        <v>186.7</v>
       </c>
       <c r="E124" t="n">
-        <v>187.8</v>
+        <v>186.6</v>
       </c>
       <c r="F124" t="n">
-        <v>3</v>
+        <v>6434.2455</v>
       </c>
       <c r="G124" t="n">
-        <v>188.3716666666669</v>
+        <v>188.3750000000002</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4741,19 +4741,19 @@
         <v>187.8</v>
       </c>
       <c r="C125" t="n">
-        <v>187.1</v>
+        <v>187.8</v>
       </c>
       <c r="D125" t="n">
         <v>187.8</v>
       </c>
       <c r="E125" t="n">
-        <v>187.1</v>
+        <v>187.8</v>
       </c>
       <c r="F125" t="n">
-        <v>23472.6155</v>
+        <v>3</v>
       </c>
       <c r="G125" t="n">
-        <v>188.3566666666669</v>
+        <v>188.3716666666669</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>187.1</v>
+        <v>187.8</v>
       </c>
       <c r="C126" t="n">
         <v>187.1</v>
       </c>
       <c r="D126" t="n">
-        <v>187.1</v>
+        <v>187.8</v>
       </c>
       <c r="E126" t="n">
         <v>187.1</v>
       </c>
       <c r="F126" t="n">
-        <v>20</v>
+        <v>23472.6155</v>
       </c>
       <c r="G126" t="n">
-        <v>188.3500000000002</v>
+        <v>188.3566666666669</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>187</v>
+        <v>187.1</v>
       </c>
       <c r="C127" t="n">
-        <v>187</v>
+        <v>187.1</v>
       </c>
       <c r="D127" t="n">
-        <v>187</v>
+        <v>187.1</v>
       </c>
       <c r="E127" t="n">
-        <v>187</v>
+        <v>187.1</v>
       </c>
       <c r="F127" t="n">
-        <v>67.34139999999999</v>
+        <v>20</v>
       </c>
       <c r="G127" t="n">
-        <v>188.3383333333335</v>
+        <v>188.3500000000002</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>187.1</v>
+        <v>187</v>
       </c>
       <c r="C128" t="n">
-        <v>187.1</v>
+        <v>187</v>
       </c>
       <c r="D128" t="n">
-        <v>187.1</v>
+        <v>187</v>
       </c>
       <c r="E128" t="n">
-        <v>187.1</v>
+        <v>187</v>
       </c>
       <c r="F128" t="n">
-        <v>4892.0312</v>
+        <v>67.34139999999999</v>
       </c>
       <c r="G128" t="n">
-        <v>188.2966666666669</v>
+        <v>188.3383333333335</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,19 +4878,19 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>187.7</v>
+        <v>187.1</v>
       </c>
       <c r="C129" t="n">
-        <v>187.7</v>
+        <v>187.1</v>
       </c>
       <c r="D129" t="n">
-        <v>187.7</v>
+        <v>187.1</v>
       </c>
       <c r="E129" t="n">
-        <v>187.7</v>
+        <v>187.1</v>
       </c>
       <c r="F129" t="n">
-        <v>5000</v>
+        <v>4892.0312</v>
       </c>
       <c r="G129" t="n">
         <v>188.2966666666669</v>
@@ -4913,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>187.5</v>
+        <v>187.7</v>
       </c>
       <c r="C130" t="n">
-        <v>187.5</v>
+        <v>187.7</v>
       </c>
       <c r="D130" t="n">
-        <v>187.5</v>
+        <v>187.7</v>
       </c>
       <c r="E130" t="n">
-        <v>187.5</v>
+        <v>187.7</v>
       </c>
       <c r="F130" t="n">
-        <v>425.5632</v>
+        <v>5000</v>
       </c>
       <c r="G130" t="n">
-        <v>188.2633333333335</v>
+        <v>188.2966666666669</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>186.4</v>
+        <v>187.5</v>
       </c>
       <c r="C131" t="n">
-        <v>186.4</v>
+        <v>187.5</v>
       </c>
       <c r="D131" t="n">
-        <v>186.4</v>
+        <v>187.5</v>
       </c>
       <c r="E131" t="n">
-        <v>186.4</v>
+        <v>187.5</v>
       </c>
       <c r="F131" t="n">
-        <v>248</v>
+        <v>425.5632</v>
       </c>
       <c r="G131" t="n">
-        <v>188.2116666666669</v>
+        <v>188.2633333333335</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>187.5</v>
+        <v>186.4</v>
       </c>
       <c r="C132" t="n">
-        <v>187.5</v>
+        <v>186.4</v>
       </c>
       <c r="D132" t="n">
-        <v>187.5</v>
+        <v>186.4</v>
       </c>
       <c r="E132" t="n">
-        <v>187.5</v>
+        <v>186.4</v>
       </c>
       <c r="F132" t="n">
-        <v>3</v>
+        <v>248</v>
       </c>
       <c r="G132" t="n">
-        <v>188.1783333333335</v>
+        <v>188.2116666666669</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5018,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>186.8</v>
+        <v>187.5</v>
       </c>
       <c r="C133" t="n">
-        <v>186.8</v>
+        <v>187.5</v>
       </c>
       <c r="D133" t="n">
-        <v>186.8</v>
+        <v>187.5</v>
       </c>
       <c r="E133" t="n">
-        <v>186.8</v>
+        <v>187.5</v>
       </c>
       <c r="F133" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="G133" t="n">
-        <v>188.1500000000002</v>
+        <v>188.1783333333335</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>186</v>
+        <v>186.8</v>
       </c>
       <c r="C134" t="n">
-        <v>186</v>
+        <v>186.8</v>
       </c>
       <c r="D134" t="n">
-        <v>186</v>
+        <v>186.8</v>
       </c>
       <c r="E134" t="n">
-        <v>186</v>
+        <v>186.8</v>
       </c>
       <c r="F134" t="n">
-        <v>2.7</v>
+        <v>50</v>
       </c>
       <c r="G134" t="n">
-        <v>188.0916666666668</v>
+        <v>188.1500000000002</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5100,10 +5100,10 @@
         <v>186</v>
       </c>
       <c r="F135" t="n">
-        <v>8636.614299999999</v>
+        <v>2.7</v>
       </c>
       <c r="G135" t="n">
-        <v>188.0333333333335</v>
+        <v>188.0916666666668</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>185.8</v>
+        <v>186</v>
       </c>
       <c r="C136" t="n">
-        <v>185.8</v>
+        <v>186</v>
       </c>
       <c r="D136" t="n">
-        <v>185.8</v>
+        <v>186</v>
       </c>
       <c r="E136" t="n">
-        <v>185.8</v>
+        <v>186</v>
       </c>
       <c r="F136" t="n">
-        <v>230.85</v>
+        <v>8636.614299999999</v>
       </c>
       <c r="G136" t="n">
-        <v>187.9566666666668</v>
+        <v>188.0333333333335</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5158,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>186</v>
+        <v>185.8</v>
       </c>
       <c r="C137" t="n">
-        <v>186</v>
+        <v>185.8</v>
       </c>
       <c r="D137" t="n">
-        <v>186</v>
+        <v>185.8</v>
       </c>
       <c r="E137" t="n">
-        <v>186</v>
+        <v>185.8</v>
       </c>
       <c r="F137" t="n">
-        <v>2.7</v>
+        <v>230.85</v>
       </c>
       <c r="G137" t="n">
-        <v>187.8816666666668</v>
+        <v>187.9566666666668</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5205,10 +5205,10 @@
         <v>186</v>
       </c>
       <c r="F138" t="n">
-        <v>5463</v>
+        <v>2.7</v>
       </c>
       <c r="G138" t="n">
-        <v>187.8233333333335</v>
+        <v>187.8816666666668</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>185.8</v>
+        <v>186</v>
       </c>
       <c r="C139" t="n">
-        <v>185.3</v>
+        <v>186</v>
       </c>
       <c r="D139" t="n">
-        <v>185.8</v>
+        <v>186</v>
       </c>
       <c r="E139" t="n">
-        <v>185.3</v>
+        <v>186</v>
       </c>
       <c r="F139" t="n">
-        <v>104.21</v>
+        <v>5463</v>
       </c>
       <c r="G139" t="n">
-        <v>187.7366666666668</v>
+        <v>187.8233333333335</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="C140" t="n">
         <v>185.3</v>
       </c>
-      <c r="C140" t="n">
-        <v>185.2</v>
-      </c>
       <c r="D140" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="E140" t="n">
         <v>185.3</v>
       </c>
-      <c r="E140" t="n">
-        <v>185.2</v>
-      </c>
       <c r="F140" t="n">
-        <v>252.9473</v>
+        <v>104.21</v>
       </c>
       <c r="G140" t="n">
-        <v>187.6483333333335</v>
+        <v>187.7366666666668</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,22 +5298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>184.6</v>
+        <v>185.3</v>
       </c>
       <c r="C141" t="n">
-        <v>184.6</v>
+        <v>185.2</v>
       </c>
       <c r="D141" t="n">
-        <v>184.6</v>
+        <v>185.3</v>
       </c>
       <c r="E141" t="n">
-        <v>184.6</v>
+        <v>185.2</v>
       </c>
       <c r="F141" t="n">
-        <v>214.0274</v>
+        <v>252.9473</v>
       </c>
       <c r="G141" t="n">
-        <v>187.5500000000002</v>
+        <v>187.6483333333335</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5345,10 +5345,10 @@
         <v>184.6</v>
       </c>
       <c r="F142" t="n">
-        <v>775.2325</v>
+        <v>214.0274</v>
       </c>
       <c r="G142" t="n">
-        <v>187.4483333333335</v>
+        <v>187.5500000000002</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,22 +5368,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>184.5</v>
+        <v>184.6</v>
       </c>
       <c r="C143" t="n">
-        <v>184.5</v>
+        <v>184.6</v>
       </c>
       <c r="D143" t="n">
-        <v>184.5</v>
+        <v>184.6</v>
       </c>
       <c r="E143" t="n">
-        <v>184.5</v>
+        <v>184.6</v>
       </c>
       <c r="F143" t="n">
-        <v>500</v>
+        <v>775.2325</v>
       </c>
       <c r="G143" t="n">
-        <v>187.3450000000002</v>
+        <v>187.4483333333335</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5415,10 +5415,10 @@
         <v>184.5</v>
       </c>
       <c r="F144" t="n">
-        <v>997.0706</v>
+        <v>500</v>
       </c>
       <c r="G144" t="n">
-        <v>187.2450000000002</v>
+        <v>187.3450000000002</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5450,10 +5450,10 @@
         <v>184.5</v>
       </c>
       <c r="F145" t="n">
-        <v>2324.1463</v>
+        <v>997.0706</v>
       </c>
       <c r="G145" t="n">
-        <v>187.1633333333335</v>
+        <v>187.2450000000002</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5485,10 +5485,10 @@
         <v>184.5</v>
       </c>
       <c r="F146" t="n">
-        <v>3000</v>
+        <v>2324.1463</v>
       </c>
       <c r="G146" t="n">
-        <v>187.0800000000002</v>
+        <v>187.1633333333335</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5511,19 +5511,19 @@
         <v>184.5</v>
       </c>
       <c r="C147" t="n">
-        <v>186</v>
+        <v>184.5</v>
       </c>
       <c r="D147" t="n">
-        <v>186</v>
+        <v>184.5</v>
       </c>
       <c r="E147" t="n">
         <v>184.5</v>
       </c>
       <c r="F147" t="n">
-        <v>68.38890000000001</v>
+        <v>3000</v>
       </c>
       <c r="G147" t="n">
-        <v>187.0016666666668</v>
+        <v>187.0800000000002</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5546,19 +5546,19 @@
         <v>184.5</v>
       </c>
       <c r="C148" t="n">
-        <v>184.5</v>
+        <v>186</v>
       </c>
       <c r="D148" t="n">
-        <v>184.5</v>
+        <v>186</v>
       </c>
       <c r="E148" t="n">
         <v>184.5</v>
       </c>
       <c r="F148" t="n">
-        <v>790.8724</v>
+        <v>68.38890000000001</v>
       </c>
       <c r="G148" t="n">
-        <v>186.9183333333335</v>
+        <v>187.0016666666668</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5590,10 +5590,10 @@
         <v>184.5</v>
       </c>
       <c r="F149" t="n">
-        <v>2000</v>
+        <v>790.8724</v>
       </c>
       <c r="G149" t="n">
-        <v>186.8350000000002</v>
+        <v>186.9183333333335</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5613,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>185.8</v>
+        <v>184.5</v>
       </c>
       <c r="C150" t="n">
-        <v>185.8</v>
+        <v>184.5</v>
       </c>
       <c r="D150" t="n">
-        <v>185.8</v>
+        <v>184.5</v>
       </c>
       <c r="E150" t="n">
-        <v>185.8</v>
+        <v>184.5</v>
       </c>
       <c r="F150" t="n">
-        <v>3</v>
+        <v>2000</v>
       </c>
       <c r="G150" t="n">
-        <v>186.7733333333335</v>
+        <v>186.8350000000002</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>184.4</v>
+        <v>185.8</v>
       </c>
       <c r="C151" t="n">
-        <v>184.4</v>
+        <v>185.8</v>
       </c>
       <c r="D151" t="n">
-        <v>184.4</v>
+        <v>185.8</v>
       </c>
       <c r="E151" t="n">
-        <v>184.4</v>
+        <v>185.8</v>
       </c>
       <c r="F151" t="n">
-        <v>165</v>
+        <v>3</v>
       </c>
       <c r="G151" t="n">
-        <v>186.6966666666668</v>
+        <v>186.7733333333335</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +5683,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>185.4</v>
+        <v>184.4</v>
       </c>
       <c r="C152" t="n">
-        <v>185.4</v>
+        <v>184.4</v>
       </c>
       <c r="D152" t="n">
-        <v>185.4</v>
+        <v>184.4</v>
       </c>
       <c r="E152" t="n">
-        <v>185.4</v>
+        <v>184.4</v>
       </c>
       <c r="F152" t="n">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G152" t="n">
-        <v>186.6366666666668</v>
+        <v>186.6966666666668</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5718,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>184.4</v>
+        <v>185.4</v>
       </c>
       <c r="C153" t="n">
-        <v>184.4</v>
+        <v>185.4</v>
       </c>
       <c r="D153" t="n">
-        <v>184.4</v>
+        <v>185.4</v>
       </c>
       <c r="E153" t="n">
-        <v>184.4</v>
+        <v>185.4</v>
       </c>
       <c r="F153" t="n">
-        <v>829.1404</v>
+        <v>10</v>
       </c>
       <c r="G153" t="n">
-        <v>186.5766666666668</v>
+        <v>186.6366666666668</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5765,10 +5765,10 @@
         <v>184.4</v>
       </c>
       <c r="F154" t="n">
-        <v>60.1663</v>
+        <v>829.1404</v>
       </c>
       <c r="G154" t="n">
-        <v>186.5216666666668</v>
+        <v>186.5766666666668</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5800,10 +5800,10 @@
         <v>184.4</v>
       </c>
       <c r="F155" t="n">
-        <v>2087.8696</v>
+        <v>60.1663</v>
       </c>
       <c r="G155" t="n">
-        <v>186.4600000000001</v>
+        <v>186.5216666666668</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +5823,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>185.4</v>
+        <v>184.4</v>
       </c>
       <c r="C156" t="n">
-        <v>185.4</v>
+        <v>184.4</v>
       </c>
       <c r="D156" t="n">
-        <v>185.4</v>
+        <v>184.4</v>
       </c>
       <c r="E156" t="n">
-        <v>185.4</v>
+        <v>184.4</v>
       </c>
       <c r="F156" t="n">
-        <v>306.0918</v>
+        <v>2087.8696</v>
       </c>
       <c r="G156" t="n">
-        <v>186.3883333333334</v>
+        <v>186.4600000000001</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,22 +5858,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>184.4</v>
+        <v>185.4</v>
       </c>
       <c r="C157" t="n">
-        <v>184.4</v>
+        <v>185.4</v>
       </c>
       <c r="D157" t="n">
-        <v>184.4</v>
+        <v>185.4</v>
       </c>
       <c r="E157" t="n">
-        <v>184.4</v>
+        <v>185.4</v>
       </c>
       <c r="F157" t="n">
-        <v>1734.4306</v>
+        <v>306.0918</v>
       </c>
       <c r="G157" t="n">
-        <v>186.3000000000001</v>
+        <v>186.3883333333334</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,22 +5893,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>184.3</v>
+        <v>184.4</v>
       </c>
       <c r="C158" t="n">
-        <v>184.3</v>
+        <v>184.4</v>
       </c>
       <c r="D158" t="n">
-        <v>184.3</v>
+        <v>184.4</v>
       </c>
       <c r="E158" t="n">
-        <v>184.3</v>
+        <v>184.4</v>
       </c>
       <c r="F158" t="n">
-        <v>49.256</v>
+        <v>1734.4306</v>
       </c>
       <c r="G158" t="n">
-        <v>186.2116666666667</v>
+        <v>186.3000000000001</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5928,22 +5928,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>183.8</v>
+        <v>184.3</v>
       </c>
       <c r="C159" t="n">
-        <v>183.8</v>
+        <v>184.3</v>
       </c>
       <c r="D159" t="n">
-        <v>183.8</v>
+        <v>184.3</v>
       </c>
       <c r="E159" t="n">
-        <v>183.8</v>
+        <v>184.3</v>
       </c>
       <c r="F159" t="n">
-        <v>1642.3244</v>
+        <v>49.256</v>
       </c>
       <c r="G159" t="n">
-        <v>186.15</v>
+        <v>186.2116666666667</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +5963,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>184.2</v>
+        <v>183.8</v>
       </c>
       <c r="C160" t="n">
-        <v>184.2</v>
+        <v>183.8</v>
       </c>
       <c r="D160" t="n">
-        <v>184.2</v>
+        <v>183.8</v>
       </c>
       <c r="E160" t="n">
-        <v>184.2</v>
+        <v>183.8</v>
       </c>
       <c r="F160" t="n">
-        <v>49.256</v>
+        <v>1642.3244</v>
       </c>
       <c r="G160" t="n">
-        <v>186.1116666666667</v>
+        <v>186.15</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +5998,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>185.4</v>
+        <v>184.2</v>
       </c>
       <c r="C161" t="n">
-        <v>185.4</v>
+        <v>184.2</v>
       </c>
       <c r="D161" t="n">
-        <v>185.4</v>
+        <v>184.2</v>
       </c>
       <c r="E161" t="n">
-        <v>185.4</v>
+        <v>184.2</v>
       </c>
       <c r="F161" t="n">
-        <v>10</v>
+        <v>49.256</v>
       </c>
       <c r="G161" t="n">
-        <v>186.065</v>
+        <v>186.1116666666667</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6036,19 +6036,19 @@
         <v>185.4</v>
       </c>
       <c r="C162" t="n">
-        <v>185.8</v>
+        <v>185.4</v>
       </c>
       <c r="D162" t="n">
-        <v>185.8</v>
+        <v>185.4</v>
       </c>
       <c r="E162" t="n">
         <v>185.4</v>
       </c>
       <c r="F162" t="n">
-        <v>7774.9748</v>
+        <v>10</v>
       </c>
       <c r="G162" t="n">
-        <v>186.0533333333333</v>
+        <v>186.065</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,7 +6068,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>185.8</v>
+        <v>185.4</v>
       </c>
       <c r="C163" t="n">
         <v>185.8</v>
@@ -6077,13 +6077,13 @@
         <v>185.8</v>
       </c>
       <c r="E163" t="n">
-        <v>185.8</v>
+        <v>185.4</v>
       </c>
       <c r="F163" t="n">
-        <v>794.2382</v>
+        <v>7774.9748</v>
       </c>
       <c r="G163" t="n">
-        <v>186.0466666666667</v>
+        <v>186.0533333333333</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6115,10 +6115,10 @@
         <v>185.8</v>
       </c>
       <c r="F164" t="n">
-        <v>480.144</v>
+        <v>794.2382</v>
       </c>
       <c r="G164" t="n">
-        <v>186.035</v>
+        <v>186.0466666666667</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6138,22 +6138,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>185.5</v>
+        <v>185.8</v>
       </c>
       <c r="C165" t="n">
-        <v>185.5</v>
+        <v>185.8</v>
       </c>
       <c r="D165" t="n">
-        <v>185.5</v>
+        <v>185.8</v>
       </c>
       <c r="E165" t="n">
-        <v>185.5</v>
+        <v>185.8</v>
       </c>
       <c r="F165" t="n">
-        <v>3285.3422</v>
+        <v>480.144</v>
       </c>
       <c r="G165" t="n">
-        <v>185.9933333333333</v>
+        <v>186.035</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6176,19 +6176,19 @@
         <v>185.5</v>
       </c>
       <c r="C166" t="n">
-        <v>185.8</v>
+        <v>185.5</v>
       </c>
       <c r="D166" t="n">
-        <v>185.8</v>
+        <v>185.5</v>
       </c>
       <c r="E166" t="n">
         <v>185.5</v>
       </c>
       <c r="F166" t="n">
-        <v>10</v>
+        <v>3285.3422</v>
       </c>
       <c r="G166" t="n">
-        <v>185.9866666666666</v>
+        <v>185.9933333333333</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6208,22 +6208,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>184.2</v>
+        <v>185.5</v>
       </c>
       <c r="C167" t="n">
-        <v>184.2</v>
+        <v>185.8</v>
       </c>
       <c r="D167" t="n">
-        <v>184.2</v>
+        <v>185.8</v>
       </c>
       <c r="E167" t="n">
-        <v>184.2</v>
+        <v>185.5</v>
       </c>
       <c r="F167" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G167" t="n">
-        <v>185.9266666666666</v>
+        <v>185.9866666666666</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6243,22 +6243,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>185.8</v>
+        <v>184.2</v>
       </c>
       <c r="C168" t="n">
-        <v>185.8</v>
+        <v>184.2</v>
       </c>
       <c r="D168" t="n">
-        <v>185.8</v>
+        <v>184.2</v>
       </c>
       <c r="E168" t="n">
-        <v>185.8</v>
+        <v>184.2</v>
       </c>
       <c r="F168" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="G168" t="n">
-        <v>185.9233333333333</v>
+        <v>185.9266666666666</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6278,22 +6278,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>184.4</v>
+        <v>185.8</v>
       </c>
       <c r="C169" t="n">
-        <v>184.4</v>
+        <v>185.8</v>
       </c>
       <c r="D169" t="n">
-        <v>184.4</v>
+        <v>185.8</v>
       </c>
       <c r="E169" t="n">
-        <v>184.4</v>
+        <v>185.8</v>
       </c>
       <c r="F169" t="n">
-        <v>898.0703999999999</v>
+        <v>3</v>
       </c>
       <c r="G169" t="n">
-        <v>185.895</v>
+        <v>185.9233333333333</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6313,22 +6313,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>185.8</v>
+        <v>184.4</v>
       </c>
       <c r="C170" t="n">
-        <v>185.8</v>
+        <v>184.4</v>
       </c>
       <c r="D170" t="n">
-        <v>185.8</v>
+        <v>184.4</v>
       </c>
       <c r="E170" t="n">
-        <v>185.8</v>
+        <v>184.4</v>
       </c>
       <c r="F170" t="n">
-        <v>10</v>
+        <v>898.0703999999999</v>
       </c>
       <c r="G170" t="n">
-        <v>185.8899999999999</v>
+        <v>185.895</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6348,22 +6348,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>184.5</v>
+        <v>185.8</v>
       </c>
       <c r="C171" t="n">
-        <v>184.5</v>
+        <v>185.8</v>
       </c>
       <c r="D171" t="n">
-        <v>184.5</v>
+        <v>185.8</v>
       </c>
       <c r="E171" t="n">
-        <v>184.5</v>
+        <v>185.8</v>
       </c>
       <c r="F171" t="n">
-        <v>3159.1028</v>
+        <v>10</v>
       </c>
       <c r="G171" t="n">
-        <v>185.835</v>
+        <v>185.8899999999999</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6395,10 +6395,10 @@
         <v>184.5</v>
       </c>
       <c r="F172" t="n">
-        <v>900.1496</v>
+        <v>3159.1028</v>
       </c>
       <c r="G172" t="n">
-        <v>185.8083333333333</v>
+        <v>185.835</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6430,10 +6430,10 @@
         <v>184.5</v>
       </c>
       <c r="F173" t="n">
-        <v>536.2619</v>
+        <v>900.1496</v>
       </c>
       <c r="G173" t="n">
-        <v>185.7816666666666</v>
+        <v>185.8083333333333</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6453,22 +6453,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>184.2</v>
+        <v>184.5</v>
       </c>
       <c r="C174" t="n">
-        <v>184.2</v>
+        <v>184.5</v>
       </c>
       <c r="D174" t="n">
-        <v>184.2</v>
+        <v>184.5</v>
       </c>
       <c r="E174" t="n">
-        <v>184.2</v>
+        <v>184.5</v>
       </c>
       <c r="F174" t="n">
-        <v>49.336</v>
+        <v>536.2619</v>
       </c>
       <c r="G174" t="n">
-        <v>185.7233333333333</v>
+        <v>185.7816666666666</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6488,22 +6488,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>184.3</v>
+        <v>184.2</v>
       </c>
       <c r="C175" t="n">
-        <v>184.3</v>
+        <v>184.2</v>
       </c>
       <c r="D175" t="n">
-        <v>184.3</v>
+        <v>184.2</v>
       </c>
       <c r="E175" t="n">
-        <v>184.3</v>
+        <v>184.2</v>
       </c>
       <c r="F175" t="n">
-        <v>329.7521</v>
+        <v>49.336</v>
       </c>
       <c r="G175" t="n">
-        <v>185.6666666666666</v>
+        <v>185.7233333333333</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6535,10 +6535,10 @@
         <v>184.3</v>
       </c>
       <c r="F176" t="n">
-        <v>2529.7675</v>
+        <v>329.7521</v>
       </c>
       <c r="G176" t="n">
-        <v>185.6099999999999</v>
+        <v>185.6666666666666</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6558,22 +6558,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>185.5</v>
+        <v>184.3</v>
       </c>
       <c r="C177" t="n">
-        <v>184</v>
+        <v>184.3</v>
       </c>
       <c r="D177" t="n">
-        <v>185.5</v>
+        <v>184.3</v>
       </c>
       <c r="E177" t="n">
-        <v>184</v>
+        <v>184.3</v>
       </c>
       <c r="F177" t="n">
-        <v>11234.9201</v>
+        <v>2529.7675</v>
       </c>
       <c r="G177" t="n">
-        <v>185.5483333333332</v>
+        <v>185.6099999999999</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6593,22 +6593,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="C178" t="n">
         <v>184</v>
       </c>
-      <c r="C178" t="n">
-        <v>183.4</v>
-      </c>
       <c r="D178" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="E178" t="n">
         <v>184</v>
       </c>
-      <c r="E178" t="n">
-        <v>183.4</v>
-      </c>
       <c r="F178" t="n">
-        <v>15092.62</v>
+        <v>11234.9201</v>
       </c>
       <c r="G178" t="n">
-        <v>185.4749999999999</v>
+        <v>185.5483333333332</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6628,22 +6628,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
+        <v>184</v>
+      </c>
+      <c r="C179" t="n">
         <v>183.4</v>
       </c>
-      <c r="C179" t="n">
-        <v>182</v>
-      </c>
       <c r="D179" t="n">
+        <v>184</v>
+      </c>
+      <c r="E179" t="n">
         <v>183.4</v>
       </c>
-      <c r="E179" t="n">
-        <v>182</v>
-      </c>
       <c r="F179" t="n">
-        <v>30000</v>
+        <v>15092.62</v>
       </c>
       <c r="G179" t="n">
-        <v>185.3766666666666</v>
+        <v>185.4749999999999</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6663,22 +6663,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>182.4</v>
+        <v>183.4</v>
       </c>
       <c r="C180" t="n">
-        <v>182.4</v>
+        <v>182</v>
       </c>
       <c r="D180" t="n">
-        <v>182.4</v>
+        <v>183.4</v>
       </c>
       <c r="E180" t="n">
-        <v>182.4</v>
+        <v>182</v>
       </c>
       <c r="F180" t="n">
-        <v>352.083</v>
+        <v>30000</v>
       </c>
       <c r="G180" t="n">
-        <v>185.3016666666666</v>
+        <v>185.3766666666666</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6698,22 +6698,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>183.4</v>
+        <v>182.4</v>
       </c>
       <c r="C181" t="n">
-        <v>185.8</v>
+        <v>182.4</v>
       </c>
       <c r="D181" t="n">
-        <v>185.8</v>
+        <v>182.4</v>
       </c>
       <c r="E181" t="n">
-        <v>183.4</v>
+        <v>182.4</v>
       </c>
       <c r="F181" t="n">
-        <v>6000</v>
+        <v>352.083</v>
       </c>
       <c r="G181" t="n">
-        <v>185.2799999999999</v>
+        <v>185.3016666666666</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6733,22 +6733,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>184.8</v>
+        <v>183.4</v>
       </c>
       <c r="C182" t="n">
-        <v>184.8</v>
+        <v>185.8</v>
       </c>
       <c r="D182" t="n">
-        <v>184.8</v>
+        <v>185.8</v>
       </c>
       <c r="E182" t="n">
-        <v>184.8</v>
+        <v>183.4</v>
       </c>
       <c r="F182" t="n">
-        <v>115</v>
+        <v>6000</v>
       </c>
       <c r="G182" t="n">
-        <v>185.2499999999999</v>
+        <v>185.2799999999999</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6768,22 +6768,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>183</v>
+        <v>184.8</v>
       </c>
       <c r="C183" t="n">
-        <v>183</v>
+        <v>184.8</v>
       </c>
       <c r="D183" t="n">
-        <v>183</v>
+        <v>184.8</v>
       </c>
       <c r="E183" t="n">
-        <v>183</v>
+        <v>184.8</v>
       </c>
       <c r="F183" t="n">
-        <v>7.3223</v>
+        <v>115</v>
       </c>
       <c r="G183" t="n">
-        <v>185.1899999999999</v>
+        <v>185.2499999999999</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>183.1</v>
+        <v>183</v>
       </c>
       <c r="C184" t="n">
-        <v>182.1</v>
+        <v>183</v>
       </c>
       <c r="D184" t="n">
-        <v>183.1</v>
+        <v>183</v>
       </c>
       <c r="E184" t="n">
-        <v>182.1</v>
+        <v>183</v>
       </c>
       <c r="F184" t="n">
-        <v>3338.3175</v>
+        <v>7.3223</v>
       </c>
       <c r="G184" t="n">
-        <v>185.0949999999999</v>
+        <v>185.1899999999999</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6838,22 +6838,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>183.7</v>
+        <v>183.1</v>
       </c>
       <c r="C185" t="n">
-        <v>183.9</v>
+        <v>182.1</v>
       </c>
       <c r="D185" t="n">
-        <v>183.9</v>
+        <v>183.1</v>
       </c>
       <c r="E185" t="n">
-        <v>183.7</v>
+        <v>182.1</v>
       </c>
       <c r="F185" t="n">
-        <v>1306</v>
+        <v>3338.3175</v>
       </c>
       <c r="G185" t="n">
-        <v>185.0416666666665</v>
+        <v>185.0949999999999</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6873,22 +6873,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>184</v>
+        <v>183.7</v>
       </c>
       <c r="C186" t="n">
-        <v>184</v>
+        <v>183.9</v>
       </c>
       <c r="D186" t="n">
-        <v>184</v>
+        <v>183.9</v>
       </c>
       <c r="E186" t="n">
-        <v>184</v>
+        <v>183.7</v>
       </c>
       <c r="F186" t="n">
-        <v>29</v>
+        <v>1306</v>
       </c>
       <c r="G186" t="n">
-        <v>184.9899999999998</v>
+        <v>185.0416666666665</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6908,22 +6908,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>183.8</v>
+        <v>184</v>
       </c>
       <c r="C187" t="n">
-        <v>183.8</v>
+        <v>184</v>
       </c>
       <c r="D187" t="n">
-        <v>183.8</v>
+        <v>184</v>
       </c>
       <c r="E187" t="n">
-        <v>183.8</v>
+        <v>184</v>
       </c>
       <c r="F187" t="n">
-        <v>951.9008</v>
+        <v>29</v>
       </c>
       <c r="G187" t="n">
-        <v>184.9366666666665</v>
+        <v>184.9899999999998</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6943,22 +6943,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>182</v>
+        <v>183.8</v>
       </c>
       <c r="C188" t="n">
-        <v>182</v>
+        <v>183.8</v>
       </c>
       <c r="D188" t="n">
-        <v>182</v>
+        <v>183.8</v>
       </c>
       <c r="E188" t="n">
-        <v>182</v>
+        <v>183.8</v>
       </c>
       <c r="F188" t="n">
-        <v>668.8504</v>
+        <v>951.9008</v>
       </c>
       <c r="G188" t="n">
-        <v>184.8516666666665</v>
+        <v>184.9366666666665</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6978,22 +6978,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>181.6</v>
+        <v>182</v>
       </c>
       <c r="C189" t="n">
-        <v>181.4</v>
+        <v>182</v>
       </c>
       <c r="D189" t="n">
-        <v>181.6</v>
+        <v>182</v>
       </c>
       <c r="E189" t="n">
-        <v>181.4</v>
+        <v>182</v>
       </c>
       <c r="F189" t="n">
-        <v>421.983</v>
+        <v>668.8504</v>
       </c>
       <c r="G189" t="n">
-        <v>184.7466666666665</v>
+        <v>184.8516666666665</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7013,22 +7013,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>181</v>
+        <v>181.6</v>
       </c>
       <c r="C190" t="n">
-        <v>181</v>
+        <v>181.4</v>
       </c>
       <c r="D190" t="n">
-        <v>181</v>
+        <v>181.6</v>
       </c>
       <c r="E190" t="n">
-        <v>180</v>
+        <v>181.4</v>
       </c>
       <c r="F190" t="n">
-        <v>10398.346</v>
+        <v>421.983</v>
       </c>
       <c r="G190" t="n">
-        <v>184.6383333333332</v>
+        <v>184.7466666666665</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7048,22 +7048,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C191" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D191" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E191" t="n">
         <v>180</v>
       </c>
       <c r="F191" t="n">
-        <v>5000</v>
+        <v>10398.346</v>
       </c>
       <c r="G191" t="n">
-        <v>184.5316666666665</v>
+        <v>184.6383333333332</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7083,22 +7083,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>180.1</v>
+        <v>180</v>
       </c>
       <c r="C192" t="n">
-        <v>180.1</v>
+        <v>180</v>
       </c>
       <c r="D192" t="n">
-        <v>180.1</v>
+        <v>180</v>
       </c>
       <c r="E192" t="n">
-        <v>180.1</v>
+        <v>180</v>
       </c>
       <c r="F192" t="n">
-        <v>756.55</v>
+        <v>5000</v>
       </c>
       <c r="G192" t="n">
-        <v>184.4083333333332</v>
+        <v>184.5316666666665</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7118,22 +7118,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>180.2</v>
+        <v>180.1</v>
       </c>
       <c r="C193" t="n">
-        <v>180.2</v>
+        <v>180.1</v>
       </c>
       <c r="D193" t="n">
-        <v>180.2</v>
+        <v>180.1</v>
       </c>
       <c r="E193" t="n">
-        <v>180.2</v>
+        <v>180.1</v>
       </c>
       <c r="F193" t="n">
-        <v>56.9358</v>
+        <v>756.55</v>
       </c>
       <c r="G193" t="n">
-        <v>184.2983333333332</v>
+        <v>184.4083333333332</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7165,10 +7165,10 @@
         <v>180.2</v>
       </c>
       <c r="F194" t="n">
-        <v>3681.0736</v>
+        <v>56.9358</v>
       </c>
       <c r="G194" t="n">
-        <v>184.2016666666665</v>
+        <v>184.2983333333332</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7200,19 +7200,23 @@
         <v>180.2</v>
       </c>
       <c r="F195" t="n">
-        <v>1950.4132</v>
+        <v>3681.0736</v>
       </c>
       <c r="G195" t="n">
-        <v>184.1049999999999</v>
+        <v>184.2016666666665</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="K195" t="n">
+        <v>180.2</v>
+      </c>
       <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
@@ -7226,19 +7230,19 @@
         <v>180.2</v>
       </c>
       <c r="C196" t="n">
-        <v>180.1</v>
+        <v>180.2</v>
       </c>
       <c r="D196" t="n">
         <v>180.2</v>
       </c>
       <c r="E196" t="n">
-        <v>180.1</v>
+        <v>180.2</v>
       </c>
       <c r="F196" t="n">
-        <v>4574.8578</v>
+        <v>1950.4132</v>
       </c>
       <c r="G196" t="n">
-        <v>184.0099999999999</v>
+        <v>184.1049999999999</v>
       </c>
       <c r="H196" t="n">
         <v>1</v>
@@ -7249,53 +7253,57 @@
       <c r="J196" t="n">
         <v>180.2</v>
       </c>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>180.2</v>
+      </c>
       <c r="L196" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="C197" t="n">
+        <v>180.1</v>
+      </c>
+      <c r="D197" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="E197" t="n">
+        <v>180.1</v>
+      </c>
+      <c r="F197" t="n">
+        <v>4574.8578</v>
+      </c>
+      <c r="G197" t="n">
+        <v>184.0099999999999</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="K197" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="L197" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>182</v>
-      </c>
-      <c r="C197" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="D197" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="E197" t="n">
-        <v>182</v>
-      </c>
-      <c r="F197" t="n">
-        <v>2722</v>
-      </c>
-      <c r="G197" t="n">
-        <v>183.9449999999999</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="n">
-        <v>180.1</v>
-      </c>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7305,22 +7313,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>182.2</v>
+        <v>182</v>
       </c>
       <c r="C198" t="n">
-        <v>182.2</v>
+        <v>182.1</v>
       </c>
       <c r="D198" t="n">
-        <v>182.2</v>
+        <v>182.1</v>
       </c>
       <c r="E198" t="n">
-        <v>182.2</v>
+        <v>182</v>
       </c>
       <c r="F198" t="n">
-        <v>5000</v>
+        <v>2722</v>
       </c>
       <c r="G198" t="n">
-        <v>183.8816666666666</v>
+        <v>183.9449999999999</v>
       </c>
       <c r="H198" t="n">
         <v>1</v>
@@ -7329,9 +7337,11 @@
         <v>0</v>
       </c>
       <c r="J198" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="K198" t="inlineStr"/>
+        <v>180.1</v>
+      </c>
+      <c r="K198" t="n">
+        <v>180.2</v>
+      </c>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7346,22 +7356,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>182.8</v>
+        <v>182.2</v>
       </c>
       <c r="C199" t="n">
-        <v>182.8</v>
+        <v>182.2</v>
       </c>
       <c r="D199" t="n">
-        <v>182.8</v>
+        <v>182.2</v>
       </c>
       <c r="E199" t="n">
-        <v>182.8</v>
+        <v>182.2</v>
       </c>
       <c r="F199" t="n">
-        <v>462</v>
+        <v>5000</v>
       </c>
       <c r="G199" t="n">
-        <v>183.8399999999999</v>
+        <v>183.8816666666666</v>
       </c>
       <c r="H199" t="n">
         <v>1</v>
@@ -7370,9 +7380,11 @@
         <v>0</v>
       </c>
       <c r="J199" t="n">
-        <v>182.2</v>
-      </c>
-      <c r="K199" t="inlineStr"/>
+        <v>182.1</v>
+      </c>
+      <c r="K199" t="n">
+        <v>180.2</v>
+      </c>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7387,33 +7399,33 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>182.6</v>
+        <v>182.8</v>
       </c>
       <c r="C200" t="n">
-        <v>183.4</v>
+        <v>182.8</v>
       </c>
       <c r="D200" t="n">
-        <v>183.4</v>
+        <v>182.8</v>
       </c>
       <c r="E200" t="n">
-        <v>182.4</v>
+        <v>182.8</v>
       </c>
       <c r="F200" t="n">
-        <v>1083</v>
+        <v>462</v>
       </c>
       <c r="G200" t="n">
-        <v>183.8099999999999</v>
+        <v>183.8399999999999</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>182.8</v>
-      </c>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>180.2</v>
+      </c>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7428,22 +7440,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>185.5</v>
+        <v>182.6</v>
       </c>
       <c r="C201" t="n">
-        <v>185.5</v>
+        <v>183.4</v>
       </c>
       <c r="D201" t="n">
-        <v>185.5</v>
+        <v>183.4</v>
       </c>
       <c r="E201" t="n">
-        <v>185.5</v>
+        <v>182.4</v>
       </c>
       <c r="F201" t="n">
-        <v>3</v>
+        <v>1083</v>
       </c>
       <c r="G201" t="n">
-        <v>183.8249999999999</v>
+        <v>183.8099999999999</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7452,7 +7464,9 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>180.2</v>
+      </c>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7482,7 +7496,7 @@
         <v>3</v>
       </c>
       <c r="G202" t="n">
-        <v>183.8399999999999</v>
+        <v>183.8249999999999</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7491,7 +7505,9 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>180.2</v>
+      </c>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7509,19 +7525,19 @@
         <v>185.5</v>
       </c>
       <c r="C203" t="n">
-        <v>185.8</v>
+        <v>185.5</v>
       </c>
       <c r="D203" t="n">
-        <v>185.8</v>
+        <v>185.5</v>
       </c>
       <c r="E203" t="n">
         <v>185.5</v>
       </c>
       <c r="F203" t="n">
-        <v>2753.31</v>
+        <v>3</v>
       </c>
       <c r="G203" t="n">
-        <v>183.8616666666665</v>
+        <v>183.8399999999999</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7530,7 +7546,9 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>180.2</v>
+      </c>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7545,22 +7563,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>189</v>
+        <v>185.5</v>
       </c>
       <c r="C204" t="n">
-        <v>187.9</v>
+        <v>185.8</v>
       </c>
       <c r="D204" t="n">
-        <v>189</v>
+        <v>185.8</v>
       </c>
       <c r="E204" t="n">
-        <v>187.9</v>
+        <v>185.5</v>
       </c>
       <c r="F204" t="n">
-        <v>184.708</v>
+        <v>2753.31</v>
       </c>
       <c r="G204" t="n">
-        <v>183.9183333333332</v>
+        <v>183.8616666666665</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7569,7 +7587,9 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>180.2</v>
+      </c>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7587,19 +7607,19 @@
         <v>189</v>
       </c>
       <c r="C205" t="n">
-        <v>189</v>
+        <v>187.9</v>
       </c>
       <c r="D205" t="n">
         <v>189</v>
       </c>
       <c r="E205" t="n">
-        <v>189</v>
+        <v>187.9</v>
       </c>
       <c r="F205" t="n">
-        <v>84.7214</v>
+        <v>184.708</v>
       </c>
       <c r="G205" t="n">
-        <v>183.9933333333332</v>
+        <v>183.9183333333332</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7608,7 +7628,9 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>180.2</v>
+      </c>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7623,22 +7645,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>189.5</v>
+        <v>189</v>
       </c>
       <c r="C206" t="n">
-        <v>187.3</v>
+        <v>189</v>
       </c>
       <c r="D206" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E206" t="n">
-        <v>187.3</v>
+        <v>189</v>
       </c>
       <c r="F206" t="n">
-        <v>9281.756600000001</v>
+        <v>84.7214</v>
       </c>
       <c r="G206" t="n">
-        <v>184.0399999999998</v>
+        <v>183.9933333333332</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7647,7 +7669,9 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>180.2</v>
+      </c>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7662,22 +7686,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>189.9</v>
+        <v>189.5</v>
       </c>
       <c r="C207" t="n">
-        <v>189.9</v>
+        <v>187.3</v>
       </c>
       <c r="D207" t="n">
-        <v>189.9</v>
+        <v>190</v>
       </c>
       <c r="E207" t="n">
-        <v>189.9</v>
+        <v>187.3</v>
       </c>
       <c r="F207" t="n">
-        <v>2.63</v>
+        <v>9281.756600000001</v>
       </c>
       <c r="G207" t="n">
-        <v>184.1049999999998</v>
+        <v>184.0399999999998</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7686,7 +7710,9 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>180.2</v>
+      </c>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7701,22 +7727,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>189</v>
+        <v>189.9</v>
       </c>
       <c r="C208" t="n">
-        <v>189</v>
+        <v>189.9</v>
       </c>
       <c r="D208" t="n">
-        <v>189</v>
+        <v>189.9</v>
       </c>
       <c r="E208" t="n">
-        <v>189</v>
+        <v>189.9</v>
       </c>
       <c r="F208" t="n">
-        <v>10590.5553</v>
+        <v>2.63</v>
       </c>
       <c r="G208" t="n">
-        <v>184.1799999999998</v>
+        <v>184.1049999999998</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7725,7 +7751,9 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>180.2</v>
+      </c>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7740,106 +7768,122 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
+        <v>189</v>
+      </c>
+      <c r="C209" t="n">
+        <v>189</v>
+      </c>
+      <c r="D209" t="n">
+        <v>189</v>
+      </c>
+      <c r="E209" t="n">
+        <v>189</v>
+      </c>
+      <c r="F209" t="n">
+        <v>10590.5553</v>
+      </c>
+      <c r="G209" t="n">
+        <v>184.1799999999998</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
         <v>188.8</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C210" t="n">
         <v>188.9</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D210" t="n">
         <v>191.8</v>
       </c>
-      <c r="E209" t="n">
+      <c r="E210" t="n">
         <v>188.8</v>
       </c>
-      <c r="F209" t="n">
+      <c r="F210" t="n">
         <v>12867.537</v>
       </c>
-      <c r="G209" t="n">
+      <c r="G210" t="n">
         <v>184.2533333333332</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>1</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="C211" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="D211" t="n">
+        <v>191.7</v>
+      </c>
+      <c r="E211" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="F211" t="n">
+        <v>15194.5294</v>
+      </c>
+      <c r="G211" t="n">
+        <v>184.2983333333332</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>1</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="L211" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>188.9</v>
-      </c>
-      <c r="C210" t="n">
-        <v>188.5</v>
-      </c>
-      <c r="D210" t="n">
-        <v>191.7</v>
-      </c>
-      <c r="E210" t="n">
-        <v>188.5</v>
-      </c>
-      <c r="F210" t="n">
-        <v>15194.5294</v>
-      </c>
-      <c r="G210" t="n">
-        <v>184.2983333333332</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>189.1</v>
-      </c>
-      <c r="C211" t="n">
-        <v>190.9</v>
-      </c>
-      <c r="D211" t="n">
-        <v>191</v>
-      </c>
-      <c r="E211" t="n">
-        <v>188.5</v>
-      </c>
-      <c r="F211" t="n">
-        <v>20682.797</v>
-      </c>
-      <c r="G211" t="n">
-        <v>184.4066666666665</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
-        <v>1</v>
+        <v>1.041059933407325</v>
       </c>
     </row>
     <row r="212">
@@ -7847,28 +7891,28 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="C212" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="D212" t="n">
+        <v>191</v>
+      </c>
+      <c r="E212" t="n">
         <v>188.5</v>
       </c>
-      <c r="C212" t="n">
-        <v>190.3</v>
-      </c>
-      <c r="D212" t="n">
-        <v>190.5</v>
-      </c>
-      <c r="E212" t="n">
-        <v>188.4</v>
-      </c>
       <c r="F212" t="n">
-        <v>12688.5393946815</v>
+        <v>20682.797</v>
       </c>
       <c r="G212" t="n">
-        <v>184.4883333333332</v>
+        <v>184.4066666666665</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
@@ -7882,22 +7926,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>190.1</v>
+        <v>188.5</v>
       </c>
       <c r="C213" t="n">
-        <v>188.8</v>
+        <v>190.3</v>
       </c>
       <c r="D213" t="n">
-        <v>190.1</v>
+        <v>190.5</v>
       </c>
       <c r="E213" t="n">
-        <v>188.8</v>
+        <v>188.4</v>
       </c>
       <c r="F213" t="n">
-        <v>2374.3995</v>
+        <v>12688.5393946815</v>
       </c>
       <c r="G213" t="n">
-        <v>184.5616666666665</v>
+        <v>184.4883333333332</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7917,28 +7961,28 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>188.3</v>
+        <v>190.1</v>
       </c>
       <c r="C214" t="n">
-        <v>188.3</v>
+        <v>188.8</v>
       </c>
       <c r="D214" t="n">
-        <v>188.3</v>
+        <v>190.1</v>
       </c>
       <c r="E214" t="n">
-        <v>188.3</v>
+        <v>188.8</v>
       </c>
       <c r="F214" t="n">
-        <v>8142.9317</v>
+        <v>2374.3995</v>
       </c>
       <c r="G214" t="n">
-        <v>184.6266666666665</v>
+        <v>184.5616666666665</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
       </c>
       <c r="I214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
@@ -7955,25 +7999,25 @@
         <v>188.3</v>
       </c>
       <c r="C215" t="n">
-        <v>187.3</v>
+        <v>188.3</v>
       </c>
       <c r="D215" t="n">
         <v>188.3</v>
       </c>
       <c r="E215" t="n">
-        <v>187.3</v>
+        <v>188.3</v>
       </c>
       <c r="F215" t="n">
-        <v>1549.9425</v>
+        <v>8142.9317</v>
       </c>
       <c r="G215" t="n">
-        <v>184.6749999999998</v>
+        <v>184.6266666666665</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
       </c>
       <c r="I215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
@@ -7987,28 +8031,28 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>189.1</v>
+        <v>188.3</v>
       </c>
       <c r="C216" t="n">
-        <v>189.9</v>
+        <v>187.3</v>
       </c>
       <c r="D216" t="n">
-        <v>189.9</v>
+        <v>188.3</v>
       </c>
       <c r="E216" t="n">
-        <v>189.1</v>
+        <v>187.3</v>
       </c>
       <c r="F216" t="n">
-        <v>4640.972</v>
+        <v>1549.9425</v>
       </c>
       <c r="G216" t="n">
-        <v>184.7499999999998</v>
+        <v>184.6749999999998</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
       </c>
       <c r="I216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
@@ -8022,28 +8066,28 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>190</v>
+        <v>189.1</v>
       </c>
       <c r="C217" t="n">
-        <v>190</v>
+        <v>189.9</v>
       </c>
       <c r="D217" t="n">
-        <v>190</v>
+        <v>189.9</v>
       </c>
       <c r="E217" t="n">
-        <v>190</v>
+        <v>189.1</v>
       </c>
       <c r="F217" t="n">
-        <v>717</v>
+        <v>4640.972</v>
       </c>
       <c r="G217" t="n">
-        <v>184.8433333333332</v>
+        <v>184.7499999999998</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
       </c>
       <c r="I217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
@@ -8069,10 +8113,10 @@
         <v>190</v>
       </c>
       <c r="F218" t="n">
-        <v>1165.2782</v>
+        <v>717</v>
       </c>
       <c r="G218" t="n">
-        <v>184.9383333333332</v>
+        <v>184.8433333333332</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8104,10 +8148,10 @@
         <v>190</v>
       </c>
       <c r="F219" t="n">
-        <v>328.9984</v>
+        <v>1165.2782</v>
       </c>
       <c r="G219" t="n">
-        <v>185.0416666666665</v>
+        <v>184.9383333333332</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8139,10 +8183,10 @@
         <v>190</v>
       </c>
       <c r="F220" t="n">
-        <v>635</v>
+        <v>328.9984</v>
       </c>
       <c r="G220" t="n">
-        <v>185.1383333333332</v>
+        <v>185.0416666666665</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8165,19 +8209,19 @@
         <v>190</v>
       </c>
       <c r="C221" t="n">
-        <v>192.1</v>
+        <v>190</v>
       </c>
       <c r="D221" t="n">
-        <v>192.1</v>
+        <v>190</v>
       </c>
       <c r="E221" t="n">
         <v>190</v>
       </c>
       <c r="F221" t="n">
-        <v>17620</v>
+        <v>635</v>
       </c>
       <c r="G221" t="n">
-        <v>185.2499999999999</v>
+        <v>185.1383333333332</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8197,22 +8241,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C222" t="n">
-        <v>192</v>
+        <v>192.1</v>
       </c>
       <c r="D222" t="n">
-        <v>192</v>
+        <v>192.1</v>
       </c>
       <c r="E222" t="n">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F222" t="n">
-        <v>27.7727</v>
+        <v>17620</v>
       </c>
       <c r="G222" t="n">
-        <v>185.3533333333332</v>
+        <v>185.2499999999999</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8232,28 +8276,28 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>192.1</v>
+        <v>192</v>
       </c>
       <c r="C223" t="n">
-        <v>192.3</v>
+        <v>192</v>
       </c>
       <c r="D223" t="n">
-        <v>192.3</v>
+        <v>192</v>
       </c>
       <c r="E223" t="n">
-        <v>192.1</v>
+        <v>192</v>
       </c>
       <c r="F223" t="n">
-        <v>1702.0856</v>
+        <v>27.7727</v>
       </c>
       <c r="G223" t="n">
-        <v>185.4616666666665</v>
+        <v>185.3533333333332</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
       </c>
       <c r="I223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
@@ -8267,28 +8311,28 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>192.9</v>
+        <v>192.1</v>
       </c>
       <c r="C224" t="n">
-        <v>193</v>
+        <v>192.3</v>
       </c>
       <c r="D224" t="n">
-        <v>193</v>
+        <v>192.3</v>
       </c>
       <c r="E224" t="n">
-        <v>192.3</v>
+        <v>192.1</v>
       </c>
       <c r="F224" t="n">
-        <v>7411.2914</v>
+        <v>1702.0856</v>
       </c>
       <c r="G224" t="n">
-        <v>185.5816666666665</v>
+        <v>185.4616666666665</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
       </c>
       <c r="I224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
@@ -8302,7 +8346,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>193</v>
+        <v>192.9</v>
       </c>
       <c r="C225" t="n">
         <v>193</v>
@@ -8311,19 +8355,19 @@
         <v>193</v>
       </c>
       <c r="E225" t="n">
-        <v>193</v>
+        <v>192.3</v>
       </c>
       <c r="F225" t="n">
-        <v>0.0001</v>
+        <v>7411.2914</v>
       </c>
       <c r="G225" t="n">
-        <v>185.7066666666665</v>
+        <v>185.5816666666665</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
       </c>
       <c r="I225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
@@ -8337,28 +8381,28 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>192.3</v>
+        <v>193</v>
       </c>
       <c r="C226" t="n">
-        <v>191.2</v>
+        <v>193</v>
       </c>
       <c r="D226" t="n">
-        <v>192.3</v>
+        <v>193</v>
       </c>
       <c r="E226" t="n">
-        <v>191.2</v>
+        <v>193</v>
       </c>
       <c r="F226" t="n">
-        <v>7001.0899</v>
+        <v>0.0001</v>
       </c>
       <c r="G226" t="n">
-        <v>185.7966666666666</v>
+        <v>185.7066666666665</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
       </c>
       <c r="I226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
@@ -8372,28 +8416,28 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>190.9</v>
+        <v>192.3</v>
       </c>
       <c r="C227" t="n">
-        <v>190.7</v>
+        <v>191.2</v>
       </c>
       <c r="D227" t="n">
-        <v>190.9</v>
+        <v>192.3</v>
       </c>
       <c r="E227" t="n">
-        <v>190.7</v>
+        <v>191.2</v>
       </c>
       <c r="F227" t="n">
-        <v>1950</v>
+        <v>7001.0899</v>
       </c>
       <c r="G227" t="n">
-        <v>185.9049999999999</v>
+        <v>185.7966666666666</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
       </c>
       <c r="I227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
@@ -8407,28 +8451,28 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>190.3</v>
+        <v>190.9</v>
       </c>
       <c r="C228" t="n">
-        <v>190.3</v>
+        <v>190.7</v>
       </c>
       <c r="D228" t="n">
-        <v>190.3</v>
+        <v>190.9</v>
       </c>
       <c r="E228" t="n">
-        <v>190.3</v>
+        <v>190.7</v>
       </c>
       <c r="F228" t="n">
-        <v>1803.3577</v>
+        <v>1950</v>
       </c>
       <c r="G228" t="n">
-        <v>185.9799999999999</v>
+        <v>185.9049999999999</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
       </c>
       <c r="I228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
@@ -8442,22 +8486,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>190</v>
+        <v>190.3</v>
       </c>
       <c r="C229" t="n">
-        <v>190</v>
+        <v>190.3</v>
       </c>
       <c r="D229" t="n">
-        <v>190</v>
+        <v>190.3</v>
       </c>
       <c r="E229" t="n">
-        <v>190</v>
+        <v>190.3</v>
       </c>
       <c r="F229" t="n">
-        <v>23272.8232</v>
+        <v>1803.3577</v>
       </c>
       <c r="G229" t="n">
-        <v>186.0733333333332</v>
+        <v>185.9799999999999</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8480,19 +8524,19 @@
         <v>190</v>
       </c>
       <c r="C230" t="n">
-        <v>188.6</v>
+        <v>190</v>
       </c>
       <c r="D230" t="n">
         <v>190</v>
       </c>
       <c r="E230" t="n">
-        <v>188.6</v>
+        <v>190</v>
       </c>
       <c r="F230" t="n">
-        <v>1867.1885</v>
+        <v>23272.8232</v>
       </c>
       <c r="G230" t="n">
-        <v>186.1199999999999</v>
+        <v>186.0733333333332</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8512,22 +8556,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C231" t="n">
-        <v>187.4</v>
+        <v>188.6</v>
       </c>
       <c r="D231" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E231" t="n">
-        <v>187.4</v>
+        <v>188.6</v>
       </c>
       <c r="F231" t="n">
-        <v>10000</v>
+        <v>1867.1885</v>
       </c>
       <c r="G231" t="n">
-        <v>186.1683333333332</v>
+        <v>186.1199999999999</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8547,22 +8591,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C232" t="n">
-        <v>187.9</v>
+        <v>187.4</v>
       </c>
       <c r="D232" t="n">
-        <v>187.9</v>
+        <v>189</v>
       </c>
       <c r="E232" t="n">
-        <v>187</v>
+        <v>187.4</v>
       </c>
       <c r="F232" t="n">
-        <v>65.78</v>
+        <v>10000</v>
       </c>
       <c r="G232" t="n">
-        <v>186.2249999999999</v>
+        <v>186.1683333333332</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8582,7 +8626,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>187.9</v>
+        <v>187</v>
       </c>
       <c r="C233" t="n">
         <v>187.9</v>
@@ -8591,13 +8635,13 @@
         <v>187.9</v>
       </c>
       <c r="E233" t="n">
-        <v>187.9</v>
+        <v>187</v>
       </c>
       <c r="F233" t="n">
-        <v>21.07</v>
+        <v>65.78</v>
       </c>
       <c r="G233" t="n">
-        <v>186.2816666666666</v>
+        <v>186.2249999999999</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8617,22 +8661,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>187</v>
+        <v>187.9</v>
       </c>
       <c r="C234" t="n">
-        <v>185.7</v>
+        <v>187.9</v>
       </c>
       <c r="D234" t="n">
-        <v>187</v>
+        <v>187.9</v>
       </c>
       <c r="E234" t="n">
-        <v>185.7</v>
+        <v>187.9</v>
       </c>
       <c r="F234" t="n">
-        <v>319.9984</v>
+        <v>21.07</v>
       </c>
       <c r="G234" t="n">
-        <v>186.3066666666666</v>
+        <v>186.2816666666666</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8652,22 +8696,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>186.8</v>
+        <v>187</v>
       </c>
       <c r="C235" t="n">
-        <v>186.8</v>
+        <v>185.7</v>
       </c>
       <c r="D235" t="n">
-        <v>186.8</v>
+        <v>187</v>
       </c>
       <c r="E235" t="n">
-        <v>186.8</v>
+        <v>185.7</v>
       </c>
       <c r="F235" t="n">
-        <v>287</v>
+        <v>319.9984</v>
       </c>
       <c r="G235" t="n">
-        <v>186.3483333333332</v>
+        <v>186.3066666666666</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8687,22 +8731,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>185.8</v>
+        <v>186.8</v>
       </c>
       <c r="C236" t="n">
-        <v>185.8</v>
+        <v>186.8</v>
       </c>
       <c r="D236" t="n">
-        <v>185.8</v>
+        <v>186.8</v>
       </c>
       <c r="E236" t="n">
-        <v>185.8</v>
+        <v>186.8</v>
       </c>
       <c r="F236" t="n">
-        <v>6291.8467</v>
+        <v>287</v>
       </c>
       <c r="G236" t="n">
-        <v>186.3733333333332</v>
+        <v>186.3483333333332</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8725,19 +8769,19 @@
         <v>185.8</v>
       </c>
       <c r="C237" t="n">
-        <v>187.7</v>
+        <v>185.8</v>
       </c>
       <c r="D237" t="n">
-        <v>187.7</v>
+        <v>185.8</v>
       </c>
       <c r="E237" t="n">
         <v>185.8</v>
       </c>
       <c r="F237" t="n">
-        <v>2521</v>
+        <v>6291.8467</v>
       </c>
       <c r="G237" t="n">
-        <v>186.4349999999999</v>
+        <v>186.3733333333332</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8757,22 +8801,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>187.9</v>
+        <v>185.8</v>
       </c>
       <c r="C238" t="n">
-        <v>187.9</v>
+        <v>187.7</v>
       </c>
       <c r="D238" t="n">
-        <v>187.9</v>
+        <v>187.7</v>
       </c>
       <c r="E238" t="n">
-        <v>187.8</v>
+        <v>185.8</v>
       </c>
       <c r="F238" t="n">
-        <v>991.0753999999999</v>
+        <v>2521</v>
       </c>
       <c r="G238" t="n">
-        <v>186.5099999999999</v>
+        <v>186.4349999999999</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8792,22 +8836,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>188.1</v>
+        <v>187.9</v>
       </c>
       <c r="C239" t="n">
-        <v>187.5</v>
+        <v>187.9</v>
       </c>
       <c r="D239" t="n">
-        <v>188.1</v>
+        <v>187.9</v>
       </c>
       <c r="E239" t="n">
-        <v>187.5</v>
+        <v>187.8</v>
       </c>
       <c r="F239" t="n">
-        <v>1863.6345</v>
+        <v>991.0753999999999</v>
       </c>
       <c r="G239" t="n">
-        <v>186.6016666666666</v>
+        <v>186.5099999999999</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8827,22 +8871,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>188.4</v>
+        <v>188.1</v>
       </c>
       <c r="C240" t="n">
-        <v>189.8</v>
+        <v>187.5</v>
       </c>
       <c r="D240" t="n">
-        <v>189.8</v>
+        <v>188.1</v>
       </c>
       <c r="E240" t="n">
-        <v>188.3</v>
+        <v>187.5</v>
       </c>
       <c r="F240" t="n">
-        <v>5558.29</v>
+        <v>1863.6345</v>
       </c>
       <c r="G240" t="n">
-        <v>186.7249999999999</v>
+        <v>186.6016666666666</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8862,22 +8906,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>189.7</v>
+        <v>188.4</v>
       </c>
       <c r="C241" t="n">
-        <v>189.7</v>
+        <v>189.8</v>
       </c>
       <c r="D241" t="n">
-        <v>189.7</v>
+        <v>189.8</v>
       </c>
       <c r="E241" t="n">
-        <v>189.7</v>
+        <v>188.3</v>
       </c>
       <c r="F241" t="n">
-        <v>538.2599</v>
+        <v>5558.29</v>
       </c>
       <c r="G241" t="n">
-        <v>186.7899999999999</v>
+        <v>186.7249999999999</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8897,22 +8941,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>189</v>
+        <v>189.7</v>
       </c>
       <c r="C242" t="n">
-        <v>189</v>
+        <v>189.7</v>
       </c>
       <c r="D242" t="n">
-        <v>189</v>
+        <v>189.7</v>
       </c>
       <c r="E242" t="n">
-        <v>189</v>
+        <v>189.7</v>
       </c>
       <c r="F242" t="n">
-        <v>3569.9878</v>
+        <v>538.2599</v>
       </c>
       <c r="G242" t="n">
-        <v>186.86</v>
+        <v>186.7899999999999</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8938,16 +8982,16 @@
         <v>189</v>
       </c>
       <c r="D243" t="n">
-        <v>190.1</v>
+        <v>189</v>
       </c>
       <c r="E243" t="n">
         <v>189</v>
       </c>
       <c r="F243" t="n">
-        <v>2265.3023</v>
+        <v>3569.9878</v>
       </c>
       <c r="G243" t="n">
-        <v>186.96</v>
+        <v>186.86</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8967,22 +9011,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C244" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D244" t="n">
-        <v>188</v>
+        <v>190.1</v>
       </c>
       <c r="E244" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F244" t="n">
-        <v>3567.6262</v>
+        <v>2265.3023</v>
       </c>
       <c r="G244" t="n">
-        <v>187.0583333333333</v>
+        <v>186.96</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9014,10 +9058,10 @@
         <v>188</v>
       </c>
       <c r="F245" t="n">
-        <v>12312.0513</v>
+        <v>3567.6262</v>
       </c>
       <c r="G245" t="n">
-        <v>187.1266666666666</v>
+        <v>187.0583333333333</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9037,22 +9081,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>189.9</v>
+        <v>188</v>
       </c>
       <c r="C246" t="n">
-        <v>189.9</v>
+        <v>188</v>
       </c>
       <c r="D246" t="n">
-        <v>189.9</v>
+        <v>188</v>
       </c>
       <c r="E246" t="n">
-        <v>189.9</v>
+        <v>188</v>
       </c>
       <c r="F246" t="n">
-        <v>3</v>
+        <v>12312.0513</v>
       </c>
       <c r="G246" t="n">
-        <v>187.2249999999999</v>
+        <v>187.1266666666666</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9072,31 +9116,35 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>187.9</v>
+        <v>189.9</v>
       </c>
       <c r="C247" t="n">
-        <v>187.9</v>
+        <v>189.9</v>
       </c>
       <c r="D247" t="n">
-        <v>187.9</v>
+        <v>189.9</v>
       </c>
       <c r="E247" t="n">
-        <v>187.9</v>
+        <v>189.9</v>
       </c>
       <c r="F247" t="n">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="G247" t="n">
-        <v>187.2933333333333</v>
+        <v>187.2249999999999</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>188</v>
+      </c>
+      <c r="K247" t="n">
+        <v>188</v>
+      </c>
       <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
@@ -9107,32 +9155,40 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>187.7</v>
+        <v>187.9</v>
       </c>
       <c r="C248" t="n">
-        <v>193.2</v>
+        <v>187.9</v>
       </c>
       <c r="D248" t="n">
-        <v>193.2</v>
+        <v>187.9</v>
       </c>
       <c r="E248" t="n">
-        <v>187.5</v>
+        <v>187.9</v>
       </c>
       <c r="F248" t="n">
-        <v>26112.54</v>
+        <v>300</v>
       </c>
       <c r="G248" t="n">
-        <v>187.48</v>
+        <v>187.2933333333333</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="K248" t="n">
+        <v>188</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9142,32 +9198,40 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="C249" t="n">
         <v>193.2</v>
       </c>
-      <c r="C249" t="n">
-        <v>194</v>
-      </c>
       <c r="D249" t="n">
-        <v>194</v>
+        <v>193.2</v>
       </c>
       <c r="E249" t="n">
-        <v>193.2</v>
+        <v>187.5</v>
       </c>
       <c r="F249" t="n">
-        <v>35005.2729</v>
+        <v>26112.54</v>
       </c>
       <c r="G249" t="n">
-        <v>187.69</v>
+        <v>187.48</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="K249" t="n">
+        <v>188</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9177,22 +9241,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>191.7</v>
+        <v>193.2</v>
       </c>
       <c r="C250" t="n">
-        <v>190.5</v>
+        <v>194</v>
       </c>
       <c r="D250" t="n">
-        <v>191.7</v>
+        <v>194</v>
       </c>
       <c r="E250" t="n">
-        <v>190.5</v>
+        <v>193.2</v>
       </c>
       <c r="F250" t="n">
-        <v>3738.6579</v>
+        <v>35005.2729</v>
       </c>
       <c r="G250" t="n">
-        <v>187.8483333333333</v>
+        <v>187.69</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9201,8 +9265,14 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>188</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9212,22 +9282,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
+        <v>191.7</v>
+      </c>
+      <c r="C251" t="n">
         <v>190.5</v>
       </c>
-      <c r="C251" t="n">
-        <v>189.2</v>
-      </c>
       <c r="D251" t="n">
+        <v>191.7</v>
+      </c>
+      <c r="E251" t="n">
         <v>190.5</v>
       </c>
-      <c r="E251" t="n">
-        <v>189.2</v>
-      </c>
       <c r="F251" t="n">
-        <v>1102</v>
+        <v>3738.6579</v>
       </c>
       <c r="G251" t="n">
-        <v>188.0016666666666</v>
+        <v>187.8483333333333</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9236,8 +9306,14 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>188</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9247,22 +9323,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>189.6</v>
+        <v>190.5</v>
       </c>
       <c r="C252" t="n">
-        <v>189.4</v>
+        <v>189.2</v>
       </c>
       <c r="D252" t="n">
-        <v>189.6</v>
+        <v>190.5</v>
       </c>
       <c r="E252" t="n">
-        <v>189.4</v>
+        <v>189.2</v>
       </c>
       <c r="F252" t="n">
-        <v>6000</v>
+        <v>1102</v>
       </c>
       <c r="G252" t="n">
-        <v>188.1566666666666</v>
+        <v>188.0016666666666</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9271,8 +9347,14 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>188</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9282,22 +9364,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>189.1</v>
+        <v>189.6</v>
       </c>
       <c r="C253" t="n">
-        <v>190.9</v>
+        <v>189.4</v>
       </c>
       <c r="D253" t="n">
-        <v>190.9</v>
+        <v>189.6</v>
       </c>
       <c r="E253" t="n">
-        <v>189.1</v>
+        <v>189.4</v>
       </c>
       <c r="F253" t="n">
-        <v>10653</v>
+        <v>6000</v>
       </c>
       <c r="G253" t="n">
-        <v>188.335</v>
+        <v>188.1566666666666</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9306,8 +9388,14 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>188</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9320,19 +9408,19 @@
         <v>189.1</v>
       </c>
       <c r="C254" t="n">
-        <v>185.6</v>
+        <v>190.9</v>
       </c>
       <c r="D254" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="E254" t="n">
         <v>189.1</v>
       </c>
-      <c r="E254" t="n">
-        <v>185.6</v>
-      </c>
       <c r="F254" t="n">
-        <v>27870.37</v>
+        <v>10653</v>
       </c>
       <c r="G254" t="n">
-        <v>188.4249999999999</v>
+        <v>188.335</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9341,8 +9429,14 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>188</v>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9352,22 +9446,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>190</v>
+        <v>189.1</v>
       </c>
       <c r="C255" t="n">
-        <v>190</v>
+        <v>185.6</v>
       </c>
       <c r="D255" t="n">
-        <v>190</v>
+        <v>189.1</v>
       </c>
       <c r="E255" t="n">
-        <v>190</v>
+        <v>185.6</v>
       </c>
       <c r="F255" t="n">
-        <v>3</v>
+        <v>27870.37</v>
       </c>
       <c r="G255" t="n">
-        <v>188.5883333333333</v>
+        <v>188.4249999999999</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9376,8 +9470,14 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>188</v>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9387,22 +9487,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>188.9</v>
+        <v>190</v>
       </c>
       <c r="C256" t="n">
-        <v>192.6</v>
+        <v>190</v>
       </c>
       <c r="D256" t="n">
-        <v>192.7</v>
+        <v>190</v>
       </c>
       <c r="E256" t="n">
-        <v>188.9</v>
+        <v>190</v>
       </c>
       <c r="F256" t="n">
-        <v>4271.4748</v>
+        <v>3</v>
       </c>
       <c r="G256" t="n">
-        <v>188.7966666666666</v>
+        <v>188.5883333333333</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9411,8 +9511,14 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>188</v>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9422,22 +9528,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>192.9</v>
+        <v>188.9</v>
       </c>
       <c r="C257" t="n">
-        <v>193.4</v>
+        <v>192.6</v>
       </c>
       <c r="D257" t="n">
-        <v>193.4</v>
+        <v>192.7</v>
       </c>
       <c r="E257" t="n">
-        <v>192.9</v>
+        <v>188.9</v>
       </c>
       <c r="F257" t="n">
-        <v>6004.1512</v>
+        <v>4271.4748</v>
       </c>
       <c r="G257" t="n">
-        <v>188.9849999999999</v>
+        <v>188.7966666666666</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9446,8 +9552,14 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>188</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9457,22 +9569,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>193.3</v>
+        <v>192.9</v>
       </c>
       <c r="C258" t="n">
-        <v>194.5</v>
+        <v>193.4</v>
       </c>
       <c r="D258" t="n">
-        <v>194.5</v>
+        <v>193.4</v>
       </c>
       <c r="E258" t="n">
-        <v>193.3</v>
+        <v>192.9</v>
       </c>
       <c r="F258" t="n">
-        <v>34324.5438</v>
+        <v>6004.1512</v>
       </c>
       <c r="G258" t="n">
-        <v>189.1899999999999</v>
+        <v>188.9849999999999</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9481,8 +9593,14 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>188</v>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9492,7 +9610,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>194.5</v>
+        <v>193.3</v>
       </c>
       <c r="C259" t="n">
         <v>194.5</v>
@@ -9501,13 +9619,13 @@
         <v>194.5</v>
       </c>
       <c r="E259" t="n">
-        <v>194.5</v>
+        <v>193.3</v>
       </c>
       <c r="F259" t="n">
-        <v>5215.1002</v>
+        <v>34324.5438</v>
       </c>
       <c r="G259" t="n">
-        <v>189.3849999999999</v>
+        <v>189.1899999999999</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9516,8 +9634,14 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>188</v>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9539,10 +9663,10 @@
         <v>194.5</v>
       </c>
       <c r="F260" t="n">
-        <v>716.4722</v>
+        <v>5215.1002</v>
       </c>
       <c r="G260" t="n">
-        <v>189.5699999999999</v>
+        <v>189.3849999999999</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9551,8 +9675,14 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>188</v>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9574,10 +9704,10 @@
         <v>194.5</v>
       </c>
       <c r="F261" t="n">
-        <v>903.6994</v>
+        <v>716.4722</v>
       </c>
       <c r="G261" t="n">
-        <v>189.7199999999999</v>
+        <v>189.5699999999999</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9586,8 +9716,14 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>188</v>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9597,22 +9733,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>195.1</v>
+        <v>194.5</v>
       </c>
       <c r="C262" t="n">
-        <v>195.1</v>
+        <v>194.5</v>
       </c>
       <c r="D262" t="n">
-        <v>195.1</v>
+        <v>194.5</v>
       </c>
       <c r="E262" t="n">
-        <v>195.1</v>
+        <v>194.5</v>
       </c>
       <c r="F262" t="n">
-        <v>10450</v>
+        <v>903.6994</v>
       </c>
       <c r="G262" t="n">
-        <v>189.8799999999999</v>
+        <v>189.7199999999999</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9621,8 +9757,14 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>188</v>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9632,22 +9774,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>193.8</v>
+        <v>195.1</v>
       </c>
       <c r="C263" t="n">
-        <v>193.6</v>
+        <v>195.1</v>
       </c>
       <c r="D263" t="n">
-        <v>193.8</v>
+        <v>195.1</v>
       </c>
       <c r="E263" t="n">
-        <v>193.6</v>
+        <v>195.1</v>
       </c>
       <c r="F263" t="n">
-        <v>16659.0994</v>
+        <v>10450</v>
       </c>
       <c r="G263" t="n">
-        <v>190.0099999999999</v>
+        <v>189.8799999999999</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9656,8 +9798,14 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>188</v>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9667,22 +9815,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>193.2</v>
+        <v>193.8</v>
       </c>
       <c r="C264" t="n">
-        <v>193.2</v>
+        <v>193.6</v>
       </c>
       <c r="D264" t="n">
-        <v>193.2</v>
+        <v>193.8</v>
       </c>
       <c r="E264" t="n">
-        <v>193.2</v>
+        <v>193.6</v>
       </c>
       <c r="F264" t="n">
-        <v>893.0791</v>
+        <v>16659.0994</v>
       </c>
       <c r="G264" t="n">
-        <v>190.0983333333333</v>
+        <v>190.0099999999999</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9691,8 +9839,14 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>188</v>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9702,22 +9856,22 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>193.8</v>
+        <v>193.2</v>
       </c>
       <c r="C265" t="n">
-        <v>193.8</v>
+        <v>193.2</v>
       </c>
       <c r="D265" t="n">
-        <v>193.8</v>
+        <v>193.2</v>
       </c>
       <c r="E265" t="n">
-        <v>193.8</v>
+        <v>193.2</v>
       </c>
       <c r="F265" t="n">
-        <v>6952.7989</v>
+        <v>893.0791</v>
       </c>
       <c r="G265" t="n">
-        <v>190.1783333333333</v>
+        <v>190.0983333333333</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9726,8 +9880,14 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>188</v>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -9740,19 +9900,19 @@
         <v>193.8</v>
       </c>
       <c r="C266" t="n">
-        <v>194.8</v>
+        <v>193.8</v>
       </c>
       <c r="D266" t="n">
-        <v>194.8</v>
+        <v>193.8</v>
       </c>
       <c r="E266" t="n">
         <v>193.8</v>
       </c>
       <c r="F266" t="n">
-        <v>11440.8596</v>
+        <v>6952.7989</v>
       </c>
       <c r="G266" t="n">
-        <v>190.3033333333333</v>
+        <v>190.1783333333333</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9761,8 +9921,14 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>188</v>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -9772,22 +9938,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
+        <v>193.8</v>
+      </c>
+      <c r="C267" t="n">
         <v>194.8</v>
       </c>
-      <c r="C267" t="n">
-        <v>195.1</v>
-      </c>
       <c r="D267" t="n">
-        <v>195.2</v>
+        <v>194.8</v>
       </c>
       <c r="E267" t="n">
-        <v>194.8</v>
+        <v>193.8</v>
       </c>
       <c r="F267" t="n">
-        <v>21682.6808</v>
+        <v>11440.8596</v>
       </c>
       <c r="G267" t="n">
-        <v>190.39</v>
+        <v>190.3033333333333</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9796,8 +9962,14 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>188</v>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -9807,33 +9979,80 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
+        <v>194.8</v>
+      </c>
+      <c r="C268" t="n">
+        <v>195.1</v>
+      </c>
+      <c r="D268" t="n">
+        <v>195.2</v>
+      </c>
+      <c r="E268" t="n">
+        <v>194.8</v>
+      </c>
+      <c r="F268" t="n">
+        <v>21682.6808</v>
+      </c>
+      <c r="G268" t="n">
+        <v>190.39</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>188</v>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
         <v>195</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C269" t="n">
         <v>194.9</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D269" t="n">
         <v>195</v>
       </c>
-      <c r="E268" t="n">
+      <c r="E269" t="n">
         <v>194.9</v>
       </c>
-      <c r="F268" t="n">
+      <c r="F269" t="n">
         <v>17303.459</v>
       </c>
-      <c r="G268" t="n">
+      <c r="G269" t="n">
         <v>190.4883333333333</v>
       </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>188</v>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M269" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-25 BackTest INS.xlsx
+++ b/BackTest/2020-01-25 BackTest INS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N337"/>
+  <dimension ref="A1:M337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3948,18 +3652,15 @@
         <v>172766.9834925463</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3984,18 +3685,15 @@
         <v>172731.5640925463</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4020,18 +3718,15 @@
         <v>171226.1251925463</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4056,18 +3751,15 @@
         <v>171226.1251925463</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4092,18 +3784,15 @@
         <v>170730.5972925463</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4128,18 +3817,15 @@
         <v>164449.0172925463</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4164,18 +3850,15 @@
         <v>164875.2625925464</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4200,18 +3883,15 @@
         <v>162538.9359925464</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4344,18 +4015,15 @@
         <v>168266.0027925464</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4380,18 +4048,15 @@
         <v>168266.0027925464</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5700,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5733,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5799,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5865,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5898,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5931,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5964,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +5997,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6030,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6063,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6096,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6162,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6195,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6228,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6294,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6327,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6360,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6393,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6426,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6459,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6492,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6525,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6558,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6591,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6624,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +6657,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +6690,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +6723,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +6756,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +6789,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7406,16 +6822,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7442,16 +6855,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7478,16 +6888,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7514,16 +6921,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7550,16 +6954,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7586,16 +6987,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7622,16 +7020,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7658,16 +7053,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7694,16 +7086,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7730,16 +7119,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7766,16 +7152,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7802,16 +7185,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7838,16 +7218,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7874,16 +7251,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7910,16 +7284,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7946,16 +7317,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7982,16 +7350,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8016,18 +7381,19 @@
         <v>157983.7777925463</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
+        <v>185.4</v>
+      </c>
+      <c r="J212" t="n">
+        <v>185.4</v>
+      </c>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8054,16 +7420,19 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8088,18 +7457,23 @@
         <v>157983.7777925463</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+        <v>184.4</v>
+      </c>
+      <c r="J214" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8124,18 +7498,19 @@
         <v>158289.8695925463</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
+        <v>184.4</v>
+      </c>
+      <c r="J215" t="n">
+        <v>184.4</v>
+      </c>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8160,18 +7535,23 @@
         <v>156555.4389925463</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+        <v>185.4</v>
+      </c>
+      <c r="J216" t="n">
+        <v>184.4</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8196,18 +7576,23 @@
         <v>156506.1829925463</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+        <v>184.4</v>
+      </c>
+      <c r="J217" t="n">
+        <v>184.4</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8232,18 +7617,19 @@
         <v>154863.8585925463</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
+        <v>184.3</v>
+      </c>
+      <c r="J218" t="n">
+        <v>184.3</v>
+      </c>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8268,18 +7654,23 @@
         <v>154913.1145925462</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+        <v>183.8</v>
+      </c>
+      <c r="J219" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8304,18 +7695,23 @@
         <v>154923.1145925462</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+        <v>184.2</v>
+      </c>
+      <c r="J220" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8340,18 +7736,23 @@
         <v>162698.0893925462</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+        <v>185.4</v>
+      </c>
+      <c r="J221" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8376,18 +7777,23 @@
         <v>162698.0893925462</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+        <v>185.8</v>
+      </c>
+      <c r="J222" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8414,16 +7820,19 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8450,16 +7859,19 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8486,16 +7898,19 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8520,18 +7935,23 @@
         <v>159372.7471925462</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+        <v>185.8</v>
+      </c>
+      <c r="J226" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8556,18 +7976,23 @@
         <v>159375.7471925462</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+        <v>184.2</v>
+      </c>
+      <c r="J227" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8592,18 +8017,23 @@
         <v>158477.6767925462</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+        <v>185.8</v>
+      </c>
+      <c r="J228" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8628,18 +8058,23 @@
         <v>158487.6767925462</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+        <v>184.4</v>
+      </c>
+      <c r="J229" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8664,18 +8099,23 @@
         <v>155328.5739925462</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+        <v>185.8</v>
+      </c>
+      <c r="J230" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8700,18 +8140,23 @@
         <v>155328.5739925462</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+        <v>184.5</v>
+      </c>
+      <c r="J231" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8736,18 +8181,23 @@
         <v>155328.5739925462</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+        <v>184.5</v>
+      </c>
+      <c r="J232" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8772,18 +8222,23 @@
         <v>155279.2379925462</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+        <v>184.5</v>
+      </c>
+      <c r="J233" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8808,18 +8263,23 @@
         <v>155608.9900925462</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+        <v>184.2</v>
+      </c>
+      <c r="J234" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8844,18 +8304,23 @@
         <v>155608.9900925462</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+        <v>184.3</v>
+      </c>
+      <c r="J235" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8880,18 +8345,23 @@
         <v>144374.0699925463</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+        <v>184.3</v>
+      </c>
+      <c r="J236" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8916,18 +8386,23 @@
         <v>129281.4499925463</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="J237" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8952,18 +8427,23 @@
         <v>99281.44999254626</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+        <v>183.4</v>
+      </c>
+      <c r="J238" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8988,22 +8468,23 @@
         <v>99633.53299254626</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I239" t="n">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="J239" t="n">
-        <v>182</v>
-      </c>
-      <c r="K239" t="n">
-        <v>182</v>
-      </c>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+        <v>184.3</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9028,26 +8509,23 @@
         <v>105633.5329925463</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I240" t="n">
-        <v>0</v>
+        <v>182.4</v>
       </c>
       <c r="J240" t="n">
-        <v>182.4</v>
-      </c>
-      <c r="K240" t="n">
-        <v>182</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+        <v>184.3</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9072,24 +8550,23 @@
         <v>105518.5329925463</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>182</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+        <v>185.8</v>
+      </c>
+      <c r="J241" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9114,18 +8591,23 @@
         <v>105511.2106925463</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+        <v>184.8</v>
+      </c>
+      <c r="J242" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9150,18 +8632,23 @@
         <v>102172.8931925463</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+        <v>183</v>
+      </c>
+      <c r="J243" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9186,22 +8673,23 @@
         <v>103478.8931925463</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I244" t="n">
-        <v>0</v>
+        <v>182.1</v>
       </c>
       <c r="J244" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="K244" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+        <v>184.3</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9226,24 +8714,23 @@
         <v>103507.8931925463</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+        <v>183.9</v>
+      </c>
+      <c r="J245" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9268,24 +8755,23 @@
         <v>102555.9923925462</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="J246" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9310,18 +8796,23 @@
         <v>101887.1419925463</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+        <v>183.8</v>
+      </c>
+      <c r="J247" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9346,24 +8837,23 @@
         <v>101465.1589925463</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I248" t="n">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="J248" t="n">
-        <v>182</v>
-      </c>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+        <v>184.3</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9388,24 +8878,23 @@
         <v>91066.81299254626</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I249" t="n">
-        <v>0</v>
+        <v>181.4</v>
       </c>
       <c r="J249" t="n">
-        <v>181.4</v>
-      </c>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
+        <v>184.3</v>
+      </c>
+      <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9430,24 +8919,23 @@
         <v>86066.81299254626</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I250" t="n">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="J250" t="n">
-        <v>181</v>
-      </c>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
+        <v>184.3</v>
+      </c>
+      <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9472,24 +8960,23 @@
         <v>86823.36299254626</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I251" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="J251" t="n">
-        <v>180</v>
-      </c>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
+        <v>184.3</v>
+      </c>
+      <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9514,24 +9001,23 @@
         <v>86880.29879254627</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I252" t="n">
-        <v>0</v>
+        <v>180.1</v>
       </c>
       <c r="J252" t="n">
-        <v>180.1</v>
-      </c>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
+        <v>184.3</v>
+      </c>
+      <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9556,24 +9042,23 @@
         <v>86880.29879254627</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I253" t="n">
-        <v>0</v>
+        <v>180.2</v>
       </c>
       <c r="J253" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
+        <v>184.3</v>
+      </c>
+      <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9598,24 +9083,23 @@
         <v>86880.29879254627</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I254" t="n">
-        <v>0</v>
+        <v>180.2</v>
       </c>
       <c r="J254" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
+        <v>184.3</v>
+      </c>
+      <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9640,24 +9124,23 @@
         <v>82305.44099254627</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I255" t="n">
-        <v>0</v>
+        <v>180.2</v>
       </c>
       <c r="J255" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
+        <v>184.3</v>
+      </c>
+      <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9682,24 +9165,23 @@
         <v>85027.44099254627</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I256" t="n">
-        <v>0</v>
+        <v>180.1</v>
       </c>
       <c r="J256" t="n">
-        <v>180.1</v>
-      </c>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
+        <v>184.3</v>
+      </c>
+      <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9724,24 +9206,23 @@
         <v>90027.44099254627</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I257" t="n">
-        <v>0</v>
+        <v>182.1</v>
       </c>
       <c r="J257" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
+        <v>184.3</v>
+      </c>
+      <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9766,24 +9247,23 @@
         <v>90489.44099254627</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I258" t="n">
-        <v>0</v>
+        <v>182.2</v>
       </c>
       <c r="J258" t="n">
-        <v>182.2</v>
-      </c>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
+        <v>184.3</v>
+      </c>
+      <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9808,24 +9288,23 @@
         <v>91572.44099254627</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I259" t="n">
-        <v>0</v>
+        <v>182.8</v>
       </c>
       <c r="J259" t="n">
-        <v>182.8</v>
-      </c>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
+        <v>184.3</v>
+      </c>
+      <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9850,22 +9329,23 @@
         <v>91575.44099254627</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="n">
-        <v>0</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
+        <v>183.4</v>
+      </c>
+      <c r="J260" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9890,22 +9370,23 @@
         <v>91575.44099254627</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="n">
-        <v>0</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
+        <v>185.5</v>
+      </c>
+      <c r="J261" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9932,20 +9413,19 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9970,22 +9450,23 @@
         <v>94513.45899254626</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="n">
-        <v>0</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr">
+        <v>185.8</v>
+      </c>
+      <c r="J263" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10012,20 +9493,19 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr">
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10052,20 +9532,19 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10092,20 +9571,19 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr">
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10132,20 +9610,19 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr">
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10172,20 +9649,19 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr">
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10212,20 +9688,19 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr">
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10252,20 +9727,19 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr">
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10292,20 +9766,19 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr">
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10332,20 +9805,19 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr">
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10372,20 +9844,19 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr">
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10412,20 +9883,19 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr">
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10452,20 +9922,19 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr">
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10492,20 +9961,19 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr">
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10532,20 +10000,19 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr">
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10572,20 +10039,19 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr">
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10612,20 +10078,19 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr">
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10652,20 +10117,19 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr">
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10692,20 +10156,19 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr">
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10732,20 +10195,19 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr">
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10772,20 +10234,19 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr">
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10810,22 +10271,21 @@
         <v>74656.99229786478</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10850,22 +10310,21 @@
         <v>67655.90239786477</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10890,22 +10349,21 @@
         <v>65705.90239786477</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10932,20 +10390,19 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr">
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10970,22 +10427,21 @@
         <v>40629.72149786478</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11010,22 +10466,21 @@
         <v>38762.53299786478</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11050,22 +10505,21 @@
         <v>28762.53299786478</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11092,22 +10546,19 @@
       <c r="H291" t="n">
         <v>1</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>187.4</v>
-      </c>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr">
+        <v>184.3</v>
+      </c>
+      <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11134,22 +10585,19 @@
       <c r="H292" t="n">
         <v>1</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>187.9</v>
-      </c>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr">
+        <v>184.3</v>
+      </c>
+      <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11176,22 +10624,19 @@
       <c r="H293" t="n">
         <v>1</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>187.9</v>
-      </c>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr">
+        <v>184.3</v>
+      </c>
+      <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11218,22 +10663,19 @@
       <c r="H294" t="n">
         <v>1</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>185.7</v>
-      </c>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr">
+        <v>184.3</v>
+      </c>
+      <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11260,22 +10702,19 @@
       <c r="H295" t="n">
         <v>1</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr">
+        <v>184.3</v>
+      </c>
+      <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11302,22 +10741,19 @@
       <c r="H296" t="n">
         <v>1</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr">
+        <v>184.3</v>
+      </c>
+      <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11344,22 +10780,19 @@
       <c r="H297" t="n">
         <v>1</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>187.7</v>
-      </c>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr">
+        <v>184.3</v>
+      </c>
+      <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11386,22 +10819,19 @@
       <c r="H298" t="n">
         <v>1</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>187.9</v>
-      </c>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr">
+        <v>184.3</v>
+      </c>
+      <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11426,24 +10856,21 @@
         <v>29710.19879786478</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>187.5</v>
-      </c>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr">
+        <v>184.3</v>
+      </c>
+      <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11470,20 +10897,19 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr">
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11508,22 +10934,21 @@
         <v>25601.95109786478</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11550,20 +10975,19 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr">
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11588,24 +11012,21 @@
         <v>22034.32489786478</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>189</v>
-      </c>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr">
+        <v>184.3</v>
+      </c>
+      <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11630,24 +11051,21 @@
         <v>22034.32489786478</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>188</v>
-      </c>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr">
+        <v>184.3</v>
+      </c>
+      <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11672,24 +11090,21 @@
         <v>22037.32489786478</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>188</v>
-      </c>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr">
+        <v>184.3</v>
+      </c>
+      <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11716,22 +11131,19 @@
       <c r="H306" t="n">
         <v>1</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>189.9</v>
-      </c>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr">
+        <v>184.3</v>
+      </c>
+      <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11758,22 +11170,19 @@
       <c r="H307" t="n">
         <v>1</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>187.9</v>
-      </c>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr">
+        <v>184.3</v>
+      </c>
+      <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11798,24 +11207,21 @@
         <v>82855.13779786479</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>193.2</v>
-      </c>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr">
+        <v>184.3</v>
+      </c>
+      <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11842,20 +11248,19 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr">
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11882,20 +11287,19 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr">
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11922,20 +11326,19 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr">
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11962,20 +11365,19 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr">
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12002,20 +11404,19 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr">
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12042,20 +11443,19 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr">
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12082,20 +11482,19 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr">
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12122,20 +11521,19 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr">
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12162,20 +11560,19 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr">
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12202,20 +11599,19 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr">
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12242,20 +11638,19 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr">
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12282,20 +11677,19 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr">
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12322,20 +11716,19 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr">
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12362,20 +11755,19 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr">
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12402,20 +11794,19 @@
       <c r="H323" t="n">
         <v>0</v>
       </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr">
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12442,20 +11833,19 @@
       <c r="H324" t="n">
         <v>0</v>
       </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr">
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12482,20 +11872,19 @@
       <c r="H325" t="n">
         <v>0</v>
       </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr">
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12522,20 +11911,19 @@
       <c r="H326" t="n">
         <v>0</v>
       </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr">
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12562,20 +11950,19 @@
       <c r="H327" t="n">
         <v>0</v>
       </c>
-      <c r="I327" t="n">
-        <v>0</v>
-      </c>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr">
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12602,20 +11989,19 @@
       <c r="H328" t="n">
         <v>0</v>
       </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr">
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12642,20 +12028,19 @@
       <c r="H329" t="n">
         <v>0</v>
       </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr">
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12682,20 +12067,19 @@
       <c r="H330" t="n">
         <v>0</v>
       </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr">
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12722,20 +12106,19 @@
       <c r="H331" t="n">
         <v>0</v>
       </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr">
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -12762,20 +12145,19 @@
       <c r="H332" t="n">
         <v>0</v>
       </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr">
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -12802,20 +12184,19 @@
       <c r="H333" t="n">
         <v>0</v>
       </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr">
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -12842,20 +12223,19 @@
       <c r="H334" t="n">
         <v>0</v>
       </c>
-      <c r="I334" t="n">
-        <v>0</v>
-      </c>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr">
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -12882,20 +12262,19 @@
       <c r="H335" t="n">
         <v>0</v>
       </c>
-      <c r="I335" t="n">
-        <v>0</v>
-      </c>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr">
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-      <c r="N335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -12922,18 +12301,19 @@
       <c r="H336" t="n">
         <v>0</v>
       </c>
-      <c r="I336" t="n">
-        <v>1</v>
-      </c>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L336" t="n">
+        <v>1</v>
       </c>
       <c r="M336" t="inlineStr"/>
-      <c r="N336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -12960,18 +12340,21 @@
       <c r="H337" t="n">
         <v>0</v>
       </c>
-      <c r="I337" t="n">
-        <v>1</v>
-      </c>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
-      <c r="M337" t="n">
-        <v>1</v>
-      </c>
-      <c r="N337" t="inlineStr"/>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest INS.xlsx
+++ b/BackTest/2020-01-25 BackTest INS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>52478.7602</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>52478.7602</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>195.8</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>77890.1949</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>195.8</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>77890.1949</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>196</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>77890.1949</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>196</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +640,17 @@
         <v>101185.2941339122</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>196</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +679,17 @@
         <v>118735.0460339122</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>196.1</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +718,17 @@
         <v>112896.3514339122</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>196.9</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +757,17 @@
         <v>111554.5580339122</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>194.4</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +796,17 @@
         <v>145549.4422339122</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>191.4</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +835,17 @@
         <v>209370.8683339122</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>196.8</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,7 +878,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +911,17 @@
         <v>171731.7684339122</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>198.5</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,7 +954,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +987,17 @@
         <v>181681.7684339122</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>195.1</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +1030,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1067,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1104,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1141,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1178,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1215,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1252,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1289,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1326,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1363,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1400,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1437,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1474,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,14 +1507,16 @@
         <v>151886.9193339123</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -1408,7 +1542,7 @@
         <v>157252.7322339122</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1575,7 @@
         <v>154050.7322339122</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1608,7 @@
         <v>153656.8343339122</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1540,7 +1674,7 @@
         <v>150477.3115339122</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1606,7 +1740,7 @@
         <v>150477.3115339122</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1773,7 @@
         <v>150977.3115339122</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1806,7 @@
         <v>150966.7519339122</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1839,7 @@
         <v>148632.1839339122</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1872,7 @@
         <v>128632.1839339122</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1905,7 @@
         <v>133917.0643339122</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1938,7 @@
         <v>132307.2084339122</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1971,7 @@
         <v>136400.8748339122</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +2004,7 @@
         <v>137865.9535339122</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +2037,7 @@
         <v>137865.9535339122</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +2070,7 @@
         <v>137538.9535339122</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +2103,7 @@
         <v>148797.6678339122</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2136,7 @@
         <v>148797.6678339122</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2169,7 @@
         <v>148797.6678339122</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2202,7 @@
         <v>142528.5903339122</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2235,7 @@
         <v>142528.5903339122</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2268,7 @@
         <v>142528.5903339122</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2301,7 @@
         <v>144807.5142339122</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2334,7 @@
         <v>140807.5142339122</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2367,7 @@
         <v>152817.2154339122</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2400,7 @@
         <v>146294.6397339122</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2433,7 @@
         <v>147211.6130339122</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2466,7 @@
         <v>149211.6130339122</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2499,7 @@
         <v>149811.6130339122</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2532,7 @@
         <v>152203.6130339122</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2565,7 @@
         <v>152203.6130339122</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2598,7 @@
         <v>152203.6130339122</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2631,7 @@
         <v>152203.6130339122</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2664,7 @@
         <v>152206.6130339122</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2697,7 @@
         <v>152200.6608339122</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2730,7 @@
         <v>152204.6608339122</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2763,7 @@
         <v>147885.7008339122</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2796,7 @@
         <v>147888.7008339122</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2829,7 @@
         <v>155315.0292339122</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2862,7 @@
         <v>145840.1714889175</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2794,7 +2928,7 @@
         <v>144249.8630889175</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2961,7 @@
         <v>144899.0577889175</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2994,7 @@
         <v>144899.0577889175</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +3027,7 @@
         <v>142275.1391889175</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +3060,7 @@
         <v>144501.1391889175</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +3093,7 @@
         <v>144501.1391889175</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3058,7 +3192,7 @@
         <v>144468.6491889175</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3289,7 +3423,7 @@
         <v>149652.8816889175</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3456,7 @@
         <v>145231.0418889175</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3489,7 @@
         <v>141317.7969889175</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3421,7 +3555,7 @@
         <v>147323.2534889175</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3588,7 @@
         <v>162403.9346889175</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3621,7 @@
         <v>159382.9646889175</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3654,7 @@
         <v>159119.0939889175</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3687,7 @@
         <v>165273.9004889175</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3720,7 @@
         <v>166958.6813925463</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3753,7 @@
         <v>168756.0254925463</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3786,7 @@
         <v>172766.9834925463</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3819,7 @@
         <v>172731.5640925463</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3852,7 @@
         <v>171226.1251925463</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3885,7 @@
         <v>171226.1251925463</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3918,7 @@
         <v>170730.5972925463</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3951,7 @@
         <v>164449.0172925463</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3984,7 @@
         <v>164875.2625925464</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +4017,7 @@
         <v>162538.9359925464</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +4050,7 @@
         <v>165690.1430925464</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +4083,7 @@
         <v>168350.6130925464</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +4116,7 @@
         <v>168350.6130925464</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4149,7 @@
         <v>168266.0027925464</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4182,7 @@
         <v>168266.0027925464</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4215,7 @@
         <v>167936.2506925463</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4248,7 @@
         <v>167936.2506925463</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4281,7 @@
         <v>167505.6468925463</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4314,7 @@
         <v>167505.6468925463</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4347,7 @@
         <v>167419.1767925463</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4380,7 @@
         <v>177576.9713925463</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4413,7 @@
         <v>176966.4851925463</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4446,7 @@
         <v>169020.0507925463</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4479,7 @@
         <v>169020.0507925463</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4512,7 @@
         <v>160506.7830925463</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4545,7 @@
         <v>165390.5089925463</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4578,7 @@
         <v>165206.8590925463</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4611,7 @@
         <v>165206.8590925463</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4644,7 @@
         <v>151811.0130925463</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4677,7 @@
         <v>153300.8053925463</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4710,7 @@
         <v>158100.8053925463</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4743,7 @@
         <v>156048.6159925463</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4776,7 @@
         <v>156051.3159925463</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4809,7 @@
         <v>156051.3159925463</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4842,7 @@
         <v>156051.3159925463</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4875,7 @@
         <v>155746.3159925463</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4908,7 @@
         <v>159438.1380925463</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4941,7 @@
         <v>159438.1380925463</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4974,7 @@
         <v>165293.8731925463</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +5007,7 @@
         <v>165298.8731925463</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +5040,7 @@
         <v>165296.1731925463</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +5073,7 @@
         <v>165299.1731925463</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +5106,7 @@
         <v>165299.1731925463</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5139,7 @@
         <v>165299.1731925463</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5172,7 @@
         <v>167239.3708925463</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5205,7 @@
         <v>167239.3708925463</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5238,7 @@
         <v>165788.4175925463</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5271,7 @@
         <v>155887.0338925463</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5304,7 @@
         <v>156442.0338925463</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5337,7 @@
         <v>157536.6613925463</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5370,7 @@
         <v>155533.9913925463</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5403,7 @@
         <v>155533.9913925463</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5436,7 @@
         <v>155533.9913925463</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5469,7 @@
         <v>154887.7630925463</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5502,7 @@
         <v>154887.7630925463</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5535,7 @@
         <v>150654.9834925463</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5568,7 @@
         <v>149141.9729925463</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5601,7 @@
         <v>152815.0086925463</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5634,7 @@
         <v>152821.0087925463</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5667,7 @@
         <v>152821.0087925463</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5700,7 @@
         <v>152818.0087925463</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5733,7 @@
         <v>152762.0887925463</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5766,7 @@
         <v>152583.9550925463</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5799,7 @@
         <v>152586.6550925463</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5832,7 @@
         <v>152450.8550925463</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5865,7 @@
         <v>151292.2577925463</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5898,7 @@
         <v>175575.6741925463</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5931,7 @@
         <v>175578.6741925463</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5964,7 @@
         <v>173574.4161925463</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5896,7 +6030,7 @@
         <v>172028.6438925463</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +6063,7 @@
         <v>174028.6438925463</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +6096,7 @@
         <v>174028.6438925463</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6028,7 +6162,7 @@
         <v>172985.7204925463</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6259,7 +6393,7 @@
         <v>180471.3590925463</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6426,7 @@
         <v>180230.7217925463</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6457,7 +6591,7 @@
         <v>151885.3097925463</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6624,7 @@
         <v>151885.3097925463</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7381,14 +7515,10 @@
         <v>157983.7777925463</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
-      </c>
-      <c r="I212" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="J212" t="n">
-        <v>185.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
@@ -7421,14 +7551,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7457,19 +7581,11 @@
         <v>157983.7777925463</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
-      </c>
-      <c r="I214" t="n">
-        <v>184.4</v>
-      </c>
-      <c r="J214" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7498,14 +7614,10 @@
         <v>158289.8695925463</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I215" t="n">
-        <v>184.4</v>
-      </c>
-      <c r="J215" t="n">
-        <v>184.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
@@ -7535,19 +7647,11 @@
         <v>156555.4389925463</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
-      </c>
-      <c r="I216" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="J216" t="n">
-        <v>184.4</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7576,19 +7680,11 @@
         <v>156506.1829925463</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
-      </c>
-      <c r="I217" t="n">
-        <v>184.4</v>
-      </c>
-      <c r="J217" t="n">
-        <v>184.4</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7617,14 +7713,10 @@
         <v>154863.8585925463</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I218" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="J218" t="n">
-        <v>184.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
@@ -7654,19 +7746,11 @@
         <v>154913.1145925462</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I219" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="J219" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7695,19 +7779,11 @@
         <v>154923.1145925462</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I220" t="n">
-        <v>184.2</v>
-      </c>
-      <c r="J220" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7736,3020 +7812,2492 @@
         <v>162698.0893925462</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
-      </c>
-      <c r="I221" t="n">
-        <v>185.4</v>
-      </c>
-      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="C222" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="D222" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="E222" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="F222" t="n">
+        <v>794.2382</v>
+      </c>
+      <c r="G222" t="n">
+        <v>162698.0893925462</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="C223" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="D223" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="E223" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="F223" t="n">
+        <v>480.144</v>
+      </c>
+      <c r="G223" t="n">
+        <v>162698.0893925462</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="C224" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="D224" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="E224" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="F224" t="n">
+        <v>3285.3422</v>
+      </c>
+      <c r="G224" t="n">
+        <v>159412.7471925462</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="C225" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="D225" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="E225" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="F225" t="n">
+        <v>10</v>
+      </c>
+      <c r="G225" t="n">
+        <v>159422.7471925462</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>184.2</v>
+      </c>
+      <c r="C226" t="n">
+        <v>184.2</v>
+      </c>
+      <c r="D226" t="n">
+        <v>184.2</v>
+      </c>
+      <c r="E226" t="n">
+        <v>184.2</v>
+      </c>
+      <c r="F226" t="n">
+        <v>50</v>
+      </c>
+      <c r="G226" t="n">
+        <v>159372.7471925462</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="C227" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="D227" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="E227" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="F227" t="n">
+        <v>3</v>
+      </c>
+      <c r="G227" t="n">
+        <v>159375.7471925462</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>184.4</v>
+      </c>
+      <c r="C228" t="n">
+        <v>184.4</v>
+      </c>
+      <c r="D228" t="n">
+        <v>184.4</v>
+      </c>
+      <c r="E228" t="n">
+        <v>184.4</v>
+      </c>
+      <c r="F228" t="n">
+        <v>898.0703999999999</v>
+      </c>
+      <c r="G228" t="n">
+        <v>158477.6767925462</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="C229" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="D229" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="E229" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="F229" t="n">
+        <v>10</v>
+      </c>
+      <c r="G229" t="n">
+        <v>158487.6767925462</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="C230" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="D230" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="E230" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="F230" t="n">
+        <v>3159.1028</v>
+      </c>
+      <c r="G230" t="n">
+        <v>155328.5739925462</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="C231" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="D231" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="E231" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="F231" t="n">
+        <v>900.1496</v>
+      </c>
+      <c r="G231" t="n">
+        <v>155328.5739925462</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="C232" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="D232" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="E232" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="F232" t="n">
+        <v>536.2619</v>
+      </c>
+      <c r="G232" t="n">
+        <v>155328.5739925462</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>184.2</v>
+      </c>
+      <c r="C233" t="n">
+        <v>184.2</v>
+      </c>
+      <c r="D233" t="n">
+        <v>184.2</v>
+      </c>
+      <c r="E233" t="n">
+        <v>184.2</v>
+      </c>
+      <c r="F233" t="n">
+        <v>49.336</v>
+      </c>
+      <c r="G233" t="n">
+        <v>155279.2379925462</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
         <v>184.3</v>
       </c>
-      <c r="K221" t="inlineStr">
+      <c r="C234" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="D234" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="E234" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="F234" t="n">
+        <v>329.7521</v>
+      </c>
+      <c r="G234" t="n">
+        <v>155608.9900925462</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="C235" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="D235" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="E235" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="F235" t="n">
+        <v>2529.7675</v>
+      </c>
+      <c r="G235" t="n">
+        <v>155608.9900925462</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="C236" t="n">
+        <v>184</v>
+      </c>
+      <c r="D236" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="E236" t="n">
+        <v>184</v>
+      </c>
+      <c r="F236" t="n">
+        <v>11234.9201</v>
+      </c>
+      <c r="G236" t="n">
+        <v>144374.0699925463</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>184</v>
+      </c>
+      <c r="C237" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="D237" t="n">
+        <v>184</v>
+      </c>
+      <c r="E237" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="F237" t="n">
+        <v>15092.62</v>
+      </c>
+      <c r="G237" t="n">
+        <v>129281.4499925463</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="C238" t="n">
+        <v>182</v>
+      </c>
+      <c r="D238" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="E238" t="n">
+        <v>182</v>
+      </c>
+      <c r="F238" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G238" t="n">
+        <v>99281.44999254626</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>182.4</v>
+      </c>
+      <c r="C239" t="n">
+        <v>182.4</v>
+      </c>
+      <c r="D239" t="n">
+        <v>182.4</v>
+      </c>
+      <c r="E239" t="n">
+        <v>182.4</v>
+      </c>
+      <c r="F239" t="n">
+        <v>352.083</v>
+      </c>
+      <c r="G239" t="n">
+        <v>99633.53299254626</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="C240" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="D240" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="E240" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="F240" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G240" t="n">
+        <v>105633.5329925463</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="C241" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="D241" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="E241" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="F241" t="n">
+        <v>115</v>
+      </c>
+      <c r="G241" t="n">
+        <v>105518.5329925463</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>183</v>
+      </c>
+      <c r="C242" t="n">
+        <v>183</v>
+      </c>
+      <c r="D242" t="n">
+        <v>183</v>
+      </c>
+      <c r="E242" t="n">
+        <v>183</v>
+      </c>
+      <c r="F242" t="n">
+        <v>7.3223</v>
+      </c>
+      <c r="G242" t="n">
+        <v>105511.2106925463</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>183.1</v>
+      </c>
+      <c r="C243" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="D243" t="n">
+        <v>183.1</v>
+      </c>
+      <c r="E243" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="F243" t="n">
+        <v>3338.3175</v>
+      </c>
+      <c r="G243" t="n">
+        <v>102172.8931925463</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>183.7</v>
+      </c>
+      <c r="C244" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="D244" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="E244" t="n">
+        <v>183.7</v>
+      </c>
+      <c r="F244" t="n">
+        <v>1306</v>
+      </c>
+      <c r="G244" t="n">
+        <v>103478.8931925463</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>184</v>
+      </c>
+      <c r="C245" t="n">
+        <v>184</v>
+      </c>
+      <c r="D245" t="n">
+        <v>184</v>
+      </c>
+      <c r="E245" t="n">
+        <v>184</v>
+      </c>
+      <c r="F245" t="n">
+        <v>29</v>
+      </c>
+      <c r="G245" t="n">
+        <v>103507.8931925463</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="C246" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="D246" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="E246" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="F246" t="n">
+        <v>951.9008</v>
+      </c>
+      <c r="G246" t="n">
+        <v>102555.9923925462</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>182</v>
+      </c>
+      <c r="C247" t="n">
+        <v>182</v>
+      </c>
+      <c r="D247" t="n">
+        <v>182</v>
+      </c>
+      <c r="E247" t="n">
+        <v>182</v>
+      </c>
+      <c r="F247" t="n">
+        <v>668.8504</v>
+      </c>
+      <c r="G247" t="n">
+        <v>101887.1419925463</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>181.6</v>
+      </c>
+      <c r="C248" t="n">
+        <v>181.4</v>
+      </c>
+      <c r="D248" t="n">
+        <v>181.6</v>
+      </c>
+      <c r="E248" t="n">
+        <v>181.4</v>
+      </c>
+      <c r="F248" t="n">
+        <v>421.983</v>
+      </c>
+      <c r="G248" t="n">
+        <v>101465.1589925463</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>181</v>
+      </c>
+      <c r="C249" t="n">
+        <v>181</v>
+      </c>
+      <c r="D249" t="n">
+        <v>181</v>
+      </c>
+      <c r="E249" t="n">
+        <v>180</v>
+      </c>
+      <c r="F249" t="n">
+        <v>10398.346</v>
+      </c>
+      <c r="G249" t="n">
+        <v>91066.81299254626</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>180</v>
+      </c>
+      <c r="C250" t="n">
+        <v>180</v>
+      </c>
+      <c r="D250" t="n">
+        <v>180</v>
+      </c>
+      <c r="E250" t="n">
+        <v>180</v>
+      </c>
+      <c r="F250" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G250" t="n">
+        <v>86066.81299254626</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>180.1</v>
+      </c>
+      <c r="C251" t="n">
+        <v>180.1</v>
+      </c>
+      <c r="D251" t="n">
+        <v>180.1</v>
+      </c>
+      <c r="E251" t="n">
+        <v>180.1</v>
+      </c>
+      <c r="F251" t="n">
+        <v>756.55</v>
+      </c>
+      <c r="G251" t="n">
+        <v>86823.36299254626</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="C252" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="D252" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="E252" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="F252" t="n">
+        <v>56.9358</v>
+      </c>
+      <c r="G252" t="n">
+        <v>86880.29879254627</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="C253" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="D253" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="E253" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="F253" t="n">
+        <v>3681.0736</v>
+      </c>
+      <c r="G253" t="n">
+        <v>86880.29879254627</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="C254" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="D254" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="E254" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="F254" t="n">
+        <v>1950.4132</v>
+      </c>
+      <c r="G254" t="n">
+        <v>86880.29879254627</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="C255" t="n">
+        <v>180.1</v>
+      </c>
+      <c r="D255" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="E255" t="n">
+        <v>180.1</v>
+      </c>
+      <c r="F255" t="n">
+        <v>4574.8578</v>
+      </c>
+      <c r="G255" t="n">
+        <v>82305.44099254627</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>182</v>
+      </c>
+      <c r="C256" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="D256" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="E256" t="n">
+        <v>182</v>
+      </c>
+      <c r="F256" t="n">
+        <v>2722</v>
+      </c>
+      <c r="G256" t="n">
+        <v>85027.44099254627</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>182.2</v>
+      </c>
+      <c r="C257" t="n">
+        <v>182.2</v>
+      </c>
+      <c r="D257" t="n">
+        <v>182.2</v>
+      </c>
+      <c r="E257" t="n">
+        <v>182.2</v>
+      </c>
+      <c r="F257" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G257" t="n">
+        <v>90027.44099254627</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>182.8</v>
+      </c>
+      <c r="C258" t="n">
+        <v>182.8</v>
+      </c>
+      <c r="D258" t="n">
+        <v>182.8</v>
+      </c>
+      <c r="E258" t="n">
+        <v>182.8</v>
+      </c>
+      <c r="F258" t="n">
+        <v>462</v>
+      </c>
+      <c r="G258" t="n">
+        <v>90489.44099254627</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>182.6</v>
+      </c>
+      <c r="C259" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="D259" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="E259" t="n">
+        <v>182.4</v>
+      </c>
+      <c r="F259" t="n">
+        <v>1083</v>
+      </c>
+      <c r="G259" t="n">
+        <v>91572.44099254627</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="C260" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="D260" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="E260" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="F260" t="n">
+        <v>3</v>
+      </c>
+      <c r="G260" t="n">
+        <v>91575.44099254627</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="C261" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="D261" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="E261" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="F261" t="n">
+        <v>3</v>
+      </c>
+      <c r="G261" t="n">
+        <v>91575.44099254627</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="C262" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="D262" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="E262" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="F262" t="n">
+        <v>2753.31</v>
+      </c>
+      <c r="G262" t="n">
+        <v>94328.75099254627</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>189</v>
+      </c>
+      <c r="C263" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="D263" t="n">
+        <v>189</v>
+      </c>
+      <c r="E263" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="F263" t="n">
+        <v>184.708</v>
+      </c>
+      <c r="G263" t="n">
+        <v>94513.45899254626</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>189</v>
+      </c>
+      <c r="C264" t="n">
+        <v>189</v>
+      </c>
+      <c r="D264" t="n">
+        <v>189</v>
+      </c>
+      <c r="E264" t="n">
+        <v>189</v>
+      </c>
+      <c r="F264" t="n">
+        <v>84.7214</v>
+      </c>
+      <c r="G264" t="n">
+        <v>94598.18039254626</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>189.5</v>
+      </c>
+      <c r="C265" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="D265" t="n">
+        <v>190</v>
+      </c>
+      <c r="E265" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="F265" t="n">
+        <v>9281.756600000001</v>
+      </c>
+      <c r="G265" t="n">
+        <v>85316.42379254627</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="C266" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="D266" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="E266" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="F266" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="G266" t="n">
+        <v>85319.05379254627</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>189</v>
+      </c>
+      <c r="C267" t="n">
+        <v>189</v>
+      </c>
+      <c r="D267" t="n">
+        <v>189</v>
+      </c>
+      <c r="E267" t="n">
+        <v>189</v>
+      </c>
+      <c r="F267" t="n">
+        <v>10590.5553</v>
+      </c>
+      <c r="G267" t="n">
+        <v>74728.49849254626</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>188.8</v>
+      </c>
+      <c r="C268" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="D268" t="n">
+        <v>191.8</v>
+      </c>
+      <c r="E268" t="n">
+        <v>188.8</v>
+      </c>
+      <c r="F268" t="n">
+        <v>12867.537</v>
+      </c>
+      <c r="G268" t="n">
+        <v>61860.96149254627</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="C269" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="D269" t="n">
+        <v>191.7</v>
+      </c>
+      <c r="E269" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="F269" t="n">
+        <v>15194.5294</v>
+      </c>
+      <c r="G269" t="n">
+        <v>46666.43209254627</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="C270" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="D270" t="n">
+        <v>191</v>
+      </c>
+      <c r="E270" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="F270" t="n">
+        <v>20682.797</v>
+      </c>
+      <c r="G270" t="n">
+        <v>67349.22909254627</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="C271" t="n">
+        <v>190.3</v>
+      </c>
+      <c r="D271" t="n">
+        <v>190.5</v>
+      </c>
+      <c r="E271" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="F271" t="n">
+        <v>12688.5393946815</v>
+      </c>
+      <c r="G271" t="n">
+        <v>54660.68969786477</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>190.1</v>
+      </c>
+      <c r="C272" t="n">
+        <v>188.8</v>
+      </c>
+      <c r="D272" t="n">
+        <v>190.1</v>
+      </c>
+      <c r="E272" t="n">
+        <v>188.8</v>
+      </c>
+      <c r="F272" t="n">
+        <v>2374.3995</v>
+      </c>
+      <c r="G272" t="n">
+        <v>52286.29019786477</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="C273" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="D273" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="E273" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="F273" t="n">
+        <v>8142.9317</v>
+      </c>
+      <c r="G273" t="n">
+        <v>44143.35849786477</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="C274" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="D274" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="E274" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="F274" t="n">
+        <v>1549.9425</v>
+      </c>
+      <c r="G274" t="n">
+        <v>42593.41599786477</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="C275" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="D275" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="E275" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="F275" t="n">
+        <v>4640.972</v>
+      </c>
+      <c r="G275" t="n">
+        <v>47234.38799786477</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>190</v>
+      </c>
+      <c r="C276" t="n">
+        <v>190</v>
+      </c>
+      <c r="D276" t="n">
+        <v>190</v>
+      </c>
+      <c r="E276" t="n">
+        <v>190</v>
+      </c>
+      <c r="F276" t="n">
+        <v>717</v>
+      </c>
+      <c r="G276" t="n">
+        <v>47951.38799786477</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>190</v>
+      </c>
+      <c r="C277" t="n">
+        <v>190</v>
+      </c>
+      <c r="D277" t="n">
+        <v>190</v>
+      </c>
+      <c r="E277" t="n">
+        <v>190</v>
+      </c>
+      <c r="F277" t="n">
+        <v>1165.2782</v>
+      </c>
+      <c r="G277" t="n">
+        <v>47951.38799786477</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>190</v>
+      </c>
+      <c r="C278" t="n">
+        <v>190</v>
+      </c>
+      <c r="D278" t="n">
+        <v>190</v>
+      </c>
+      <c r="E278" t="n">
+        <v>190</v>
+      </c>
+      <c r="F278" t="n">
+        <v>328.9984</v>
+      </c>
+      <c r="G278" t="n">
+        <v>47951.38799786477</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>190</v>
+      </c>
+      <c r="C279" t="n">
+        <v>190</v>
+      </c>
+      <c r="D279" t="n">
+        <v>190</v>
+      </c>
+      <c r="E279" t="n">
+        <v>190</v>
+      </c>
+      <c r="F279" t="n">
+        <v>635</v>
+      </c>
+      <c r="G279" t="n">
+        <v>47951.38799786477</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>190</v>
+      </c>
+      <c r="C280" t="n">
+        <v>192.1</v>
+      </c>
+      <c r="D280" t="n">
+        <v>192.1</v>
+      </c>
+      <c r="E280" t="n">
+        <v>190</v>
+      </c>
+      <c r="F280" t="n">
+        <v>17620</v>
+      </c>
+      <c r="G280" t="n">
+        <v>65571.38799786477</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>192</v>
+      </c>
+      <c r="C281" t="n">
+        <v>192</v>
+      </c>
+      <c r="D281" t="n">
+        <v>192</v>
+      </c>
+      <c r="E281" t="n">
+        <v>192</v>
+      </c>
+      <c r="F281" t="n">
+        <v>27.7727</v>
+      </c>
+      <c r="G281" t="n">
+        <v>65543.61529786477</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>192.1</v>
+      </c>
+      <c r="C282" t="n">
+        <v>192.3</v>
+      </c>
+      <c r="D282" t="n">
+        <v>192.3</v>
+      </c>
+      <c r="E282" t="n">
+        <v>192.1</v>
+      </c>
+      <c r="F282" t="n">
+        <v>1702.0856</v>
+      </c>
+      <c r="G282" t="n">
+        <v>67245.70089786478</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>192.9</v>
+      </c>
+      <c r="C283" t="n">
+        <v>193</v>
+      </c>
+      <c r="D283" t="n">
+        <v>193</v>
+      </c>
+      <c r="E283" t="n">
+        <v>192.3</v>
+      </c>
+      <c r="F283" t="n">
+        <v>7411.2914</v>
+      </c>
+      <c r="G283" t="n">
+        <v>74656.99229786478</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>193</v>
+      </c>
+      <c r="C284" t="n">
+        <v>193</v>
+      </c>
+      <c r="D284" t="n">
+        <v>193</v>
+      </c>
+      <c r="E284" t="n">
+        <v>193</v>
+      </c>
+      <c r="F284" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G284" t="n">
+        <v>74656.99229786478</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>192.3</v>
+      </c>
+      <c r="C285" t="n">
+        <v>191.2</v>
+      </c>
+      <c r="D285" t="n">
+        <v>192.3</v>
+      </c>
+      <c r="E285" t="n">
+        <v>191.2</v>
+      </c>
+      <c r="F285" t="n">
+        <v>7001.0899</v>
+      </c>
+      <c r="G285" t="n">
+        <v>67655.90239786477</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="C286" t="n">
+        <v>190.7</v>
+      </c>
+      <c r="D286" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="E286" t="n">
+        <v>190.7</v>
+      </c>
+      <c r="F286" t="n">
+        <v>1950</v>
+      </c>
+      <c r="G286" t="n">
+        <v>65705.90239786477</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>190.3</v>
+      </c>
+      <c r="C287" t="n">
+        <v>190.3</v>
+      </c>
+      <c r="D287" t="n">
+        <v>190.3</v>
+      </c>
+      <c r="E287" t="n">
+        <v>190.3</v>
+      </c>
+      <c r="F287" t="n">
+        <v>1803.3577</v>
+      </c>
+      <c r="G287" t="n">
+        <v>63902.54469786477</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>190</v>
+      </c>
+      <c r="C288" t="n">
+        <v>190</v>
+      </c>
+      <c r="D288" t="n">
+        <v>190</v>
+      </c>
+      <c r="E288" t="n">
+        <v>190</v>
+      </c>
+      <c r="F288" t="n">
+        <v>23272.8232</v>
+      </c>
+      <c r="G288" t="n">
+        <v>40629.72149786478</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>190</v>
+      </c>
+      <c r="C289" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="D289" t="n">
+        <v>190</v>
+      </c>
+      <c r="E289" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="F289" t="n">
+        <v>1867.1885</v>
+      </c>
+      <c r="G289" t="n">
+        <v>38762.53299786478</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>189</v>
+      </c>
+      <c r="C290" t="n">
+        <v>187.4</v>
+      </c>
+      <c r="D290" t="n">
+        <v>189</v>
+      </c>
+      <c r="E290" t="n">
+        <v>187.4</v>
+      </c>
+      <c r="F290" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G290" t="n">
+        <v>28762.53299786478</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>187</v>
+      </c>
+      <c r="C291" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="D291" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="E291" t="n">
+        <v>187</v>
+      </c>
+      <c r="F291" t="n">
+        <v>65.78</v>
+      </c>
+      <c r="G291" t="n">
+        <v>28828.31299786478</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="C292" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="D292" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="E292" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="F292" t="n">
+        <v>21.07</v>
+      </c>
+      <c r="G292" t="n">
+        <v>28828.31299786478</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>187</v>
+      </c>
+      <c r="C293" t="n">
+        <v>185.7</v>
+      </c>
+      <c r="D293" t="n">
+        <v>187</v>
+      </c>
+      <c r="E293" t="n">
+        <v>185.7</v>
+      </c>
+      <c r="F293" t="n">
+        <v>319.9984</v>
+      </c>
+      <c r="G293" t="n">
+        <v>28508.31459786478</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="C294" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="D294" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="E294" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="F294" t="n">
+        <v>287</v>
+      </c>
+      <c r="G294" t="n">
+        <v>28795.31459786478</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="C295" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="D295" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="E295" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="F295" t="n">
+        <v>6291.8467</v>
+      </c>
+      <c r="G295" t="n">
+        <v>22503.46789786478</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="C296" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="D296" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="E296" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="F296" t="n">
+        <v>2521</v>
+      </c>
+      <c r="G296" t="n">
+        <v>25024.46789786478</v>
+      </c>
+      <c r="H296" t="n">
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="C222" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="D222" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="E222" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="F222" t="n">
-        <v>794.2382</v>
-      </c>
-      <c r="G222" t="n">
-        <v>162698.0893925462</v>
-      </c>
-      <c r="H222" t="n">
-        <v>2</v>
-      </c>
-      <c r="I222" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="J222" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="C223" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="D223" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="E223" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="F223" t="n">
-        <v>480.144</v>
-      </c>
-      <c r="G223" t="n">
-        <v>162698.0893925462</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="C224" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="D224" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="E224" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="F224" t="n">
-        <v>3285.3422</v>
-      </c>
-      <c r="G224" t="n">
-        <v>159412.7471925462</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="C225" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="D225" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="E225" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="F225" t="n">
-        <v>10</v>
-      </c>
-      <c r="G225" t="n">
-        <v>159422.7471925462</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>184.2</v>
-      </c>
-      <c r="C226" t="n">
-        <v>184.2</v>
-      </c>
-      <c r="D226" t="n">
-        <v>184.2</v>
-      </c>
-      <c r="E226" t="n">
-        <v>184.2</v>
-      </c>
-      <c r="F226" t="n">
-        <v>50</v>
-      </c>
-      <c r="G226" t="n">
-        <v>159372.7471925462</v>
-      </c>
-      <c r="H226" t="n">
-        <v>2</v>
-      </c>
-      <c r="I226" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="J226" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="C227" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="D227" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="E227" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="F227" t="n">
-        <v>3</v>
-      </c>
-      <c r="G227" t="n">
-        <v>159375.7471925462</v>
-      </c>
-      <c r="H227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I227" t="n">
-        <v>184.2</v>
-      </c>
-      <c r="J227" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>184.4</v>
-      </c>
-      <c r="C228" t="n">
-        <v>184.4</v>
-      </c>
-      <c r="D228" t="n">
-        <v>184.4</v>
-      </c>
-      <c r="E228" t="n">
-        <v>184.4</v>
-      </c>
-      <c r="F228" t="n">
-        <v>898.0703999999999</v>
-      </c>
-      <c r="G228" t="n">
-        <v>158477.6767925462</v>
-      </c>
-      <c r="H228" t="n">
-        <v>2</v>
-      </c>
-      <c r="I228" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="J228" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="C229" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="D229" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="E229" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="F229" t="n">
-        <v>10</v>
-      </c>
-      <c r="G229" t="n">
-        <v>158487.6767925462</v>
-      </c>
-      <c r="H229" t="n">
-        <v>2</v>
-      </c>
-      <c r="I229" t="n">
-        <v>184.4</v>
-      </c>
-      <c r="J229" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="C230" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="D230" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="E230" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="F230" t="n">
-        <v>3159.1028</v>
-      </c>
-      <c r="G230" t="n">
-        <v>155328.5739925462</v>
-      </c>
-      <c r="H230" t="n">
-        <v>2</v>
-      </c>
-      <c r="I230" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="J230" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="C231" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="D231" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="E231" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="F231" t="n">
-        <v>900.1496</v>
-      </c>
-      <c r="G231" t="n">
-        <v>155328.5739925462</v>
-      </c>
-      <c r="H231" t="n">
-        <v>2</v>
-      </c>
-      <c r="I231" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="J231" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="C232" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="D232" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="E232" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="F232" t="n">
-        <v>536.2619</v>
-      </c>
-      <c r="G232" t="n">
-        <v>155328.5739925462</v>
-      </c>
-      <c r="H232" t="n">
-        <v>2</v>
-      </c>
-      <c r="I232" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="J232" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>184.2</v>
-      </c>
-      <c r="C233" t="n">
-        <v>184.2</v>
-      </c>
-      <c r="D233" t="n">
-        <v>184.2</v>
-      </c>
-      <c r="E233" t="n">
-        <v>184.2</v>
-      </c>
-      <c r="F233" t="n">
-        <v>49.336</v>
-      </c>
-      <c r="G233" t="n">
-        <v>155279.2379925462</v>
-      </c>
-      <c r="H233" t="n">
-        <v>2</v>
-      </c>
-      <c r="I233" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="J233" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="C234" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="D234" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="E234" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="F234" t="n">
-        <v>329.7521</v>
-      </c>
-      <c r="G234" t="n">
-        <v>155608.9900925462</v>
-      </c>
-      <c r="H234" t="n">
-        <v>2</v>
-      </c>
-      <c r="I234" t="n">
-        <v>184.2</v>
-      </c>
-      <c r="J234" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="C235" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="D235" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="E235" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="F235" t="n">
-        <v>2529.7675</v>
-      </c>
-      <c r="G235" t="n">
-        <v>155608.9900925462</v>
-      </c>
-      <c r="H235" t="n">
-        <v>2</v>
-      </c>
-      <c r="I235" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="J235" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="C236" t="n">
-        <v>184</v>
-      </c>
-      <c r="D236" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="E236" t="n">
-        <v>184</v>
-      </c>
-      <c r="F236" t="n">
-        <v>11234.9201</v>
-      </c>
-      <c r="G236" t="n">
-        <v>144374.0699925463</v>
-      </c>
-      <c r="H236" t="n">
-        <v>2</v>
-      </c>
-      <c r="I236" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="J236" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>184</v>
-      </c>
-      <c r="C237" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="D237" t="n">
-        <v>184</v>
-      </c>
-      <c r="E237" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="F237" t="n">
-        <v>15092.62</v>
-      </c>
-      <c r="G237" t="n">
-        <v>129281.4499925463</v>
-      </c>
-      <c r="H237" t="n">
-        <v>2</v>
-      </c>
-      <c r="I237" t="n">
-        <v>184</v>
-      </c>
-      <c r="J237" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="C238" t="n">
-        <v>182</v>
-      </c>
-      <c r="D238" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="E238" t="n">
-        <v>182</v>
-      </c>
-      <c r="F238" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G238" t="n">
-        <v>99281.44999254626</v>
-      </c>
-      <c r="H238" t="n">
-        <v>2</v>
-      </c>
-      <c r="I238" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="J238" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>182.4</v>
-      </c>
-      <c r="C239" t="n">
-        <v>182.4</v>
-      </c>
-      <c r="D239" t="n">
-        <v>182.4</v>
-      </c>
-      <c r="E239" t="n">
-        <v>182.4</v>
-      </c>
-      <c r="F239" t="n">
-        <v>352.083</v>
-      </c>
-      <c r="G239" t="n">
-        <v>99633.53299254626</v>
-      </c>
-      <c r="H239" t="n">
-        <v>2</v>
-      </c>
-      <c r="I239" t="n">
-        <v>182</v>
-      </c>
-      <c r="J239" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="C240" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="D240" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="E240" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="F240" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G240" t="n">
-        <v>105633.5329925463</v>
-      </c>
-      <c r="H240" t="n">
-        <v>2</v>
-      </c>
-      <c r="I240" t="n">
-        <v>182.4</v>
-      </c>
-      <c r="J240" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="C241" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="D241" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="E241" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="F241" t="n">
-        <v>115</v>
-      </c>
-      <c r="G241" t="n">
-        <v>105518.5329925463</v>
-      </c>
-      <c r="H241" t="n">
-        <v>2</v>
-      </c>
-      <c r="I241" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="J241" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>183</v>
-      </c>
-      <c r="C242" t="n">
-        <v>183</v>
-      </c>
-      <c r="D242" t="n">
-        <v>183</v>
-      </c>
-      <c r="E242" t="n">
-        <v>183</v>
-      </c>
-      <c r="F242" t="n">
-        <v>7.3223</v>
-      </c>
-      <c r="G242" t="n">
-        <v>105511.2106925463</v>
-      </c>
-      <c r="H242" t="n">
-        <v>2</v>
-      </c>
-      <c r="I242" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="J242" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>183.1</v>
-      </c>
-      <c r="C243" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="D243" t="n">
-        <v>183.1</v>
-      </c>
-      <c r="E243" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="F243" t="n">
-        <v>3338.3175</v>
-      </c>
-      <c r="G243" t="n">
-        <v>102172.8931925463</v>
-      </c>
-      <c r="H243" t="n">
-        <v>2</v>
-      </c>
-      <c r="I243" t="n">
-        <v>183</v>
-      </c>
-      <c r="J243" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="C244" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="D244" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="E244" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="F244" t="n">
-        <v>1306</v>
-      </c>
-      <c r="G244" t="n">
-        <v>103478.8931925463</v>
-      </c>
-      <c r="H244" t="n">
-        <v>2</v>
-      </c>
-      <c r="I244" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="J244" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>184</v>
-      </c>
-      <c r="C245" t="n">
-        <v>184</v>
-      </c>
-      <c r="D245" t="n">
-        <v>184</v>
-      </c>
-      <c r="E245" t="n">
-        <v>184</v>
-      </c>
-      <c r="F245" t="n">
-        <v>29</v>
-      </c>
-      <c r="G245" t="n">
-        <v>103507.8931925463</v>
-      </c>
-      <c r="H245" t="n">
-        <v>2</v>
-      </c>
-      <c r="I245" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="J245" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="C246" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="D246" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="E246" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="F246" t="n">
-        <v>951.9008</v>
-      </c>
-      <c r="G246" t="n">
-        <v>102555.9923925462</v>
-      </c>
-      <c r="H246" t="n">
-        <v>2</v>
-      </c>
-      <c r="I246" t="n">
-        <v>184</v>
-      </c>
-      <c r="J246" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>182</v>
-      </c>
-      <c r="C247" t="n">
-        <v>182</v>
-      </c>
-      <c r="D247" t="n">
-        <v>182</v>
-      </c>
-      <c r="E247" t="n">
-        <v>182</v>
-      </c>
-      <c r="F247" t="n">
-        <v>668.8504</v>
-      </c>
-      <c r="G247" t="n">
-        <v>101887.1419925463</v>
-      </c>
-      <c r="H247" t="n">
-        <v>2</v>
-      </c>
-      <c r="I247" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="J247" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>181.6</v>
-      </c>
-      <c r="C248" t="n">
-        <v>181.4</v>
-      </c>
-      <c r="D248" t="n">
-        <v>181.6</v>
-      </c>
-      <c r="E248" t="n">
-        <v>181.4</v>
-      </c>
-      <c r="F248" t="n">
-        <v>421.983</v>
-      </c>
-      <c r="G248" t="n">
-        <v>101465.1589925463</v>
-      </c>
-      <c r="H248" t="n">
-        <v>2</v>
-      </c>
-      <c r="I248" t="n">
-        <v>182</v>
-      </c>
-      <c r="J248" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>181</v>
-      </c>
-      <c r="C249" t="n">
-        <v>181</v>
-      </c>
-      <c r="D249" t="n">
-        <v>181</v>
-      </c>
-      <c r="E249" t="n">
-        <v>180</v>
-      </c>
-      <c r="F249" t="n">
-        <v>10398.346</v>
-      </c>
-      <c r="G249" t="n">
-        <v>91066.81299254626</v>
-      </c>
-      <c r="H249" t="n">
-        <v>2</v>
-      </c>
-      <c r="I249" t="n">
-        <v>181.4</v>
-      </c>
-      <c r="J249" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>180</v>
-      </c>
-      <c r="C250" t="n">
-        <v>180</v>
-      </c>
-      <c r="D250" t="n">
-        <v>180</v>
-      </c>
-      <c r="E250" t="n">
-        <v>180</v>
-      </c>
-      <c r="F250" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G250" t="n">
-        <v>86066.81299254626</v>
-      </c>
-      <c r="H250" t="n">
-        <v>2</v>
-      </c>
-      <c r="I250" t="n">
-        <v>181</v>
-      </c>
-      <c r="J250" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>180.1</v>
-      </c>
-      <c r="C251" t="n">
-        <v>180.1</v>
-      </c>
-      <c r="D251" t="n">
-        <v>180.1</v>
-      </c>
-      <c r="E251" t="n">
-        <v>180.1</v>
-      </c>
-      <c r="F251" t="n">
-        <v>756.55</v>
-      </c>
-      <c r="G251" t="n">
-        <v>86823.36299254626</v>
-      </c>
-      <c r="H251" t="n">
-        <v>2</v>
-      </c>
-      <c r="I251" t="n">
-        <v>180</v>
-      </c>
-      <c r="J251" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="C252" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="D252" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="E252" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="F252" t="n">
-        <v>56.9358</v>
-      </c>
-      <c r="G252" t="n">
-        <v>86880.29879254627</v>
-      </c>
-      <c r="H252" t="n">
-        <v>2</v>
-      </c>
-      <c r="I252" t="n">
-        <v>180.1</v>
-      </c>
-      <c r="J252" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="C253" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="D253" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="E253" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="F253" t="n">
-        <v>3681.0736</v>
-      </c>
-      <c r="G253" t="n">
-        <v>86880.29879254627</v>
-      </c>
-      <c r="H253" t="n">
-        <v>2</v>
-      </c>
-      <c r="I253" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="J253" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="C254" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="D254" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="E254" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="F254" t="n">
-        <v>1950.4132</v>
-      </c>
-      <c r="G254" t="n">
-        <v>86880.29879254627</v>
-      </c>
-      <c r="H254" t="n">
-        <v>2</v>
-      </c>
-      <c r="I254" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="J254" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="C255" t="n">
-        <v>180.1</v>
-      </c>
-      <c r="D255" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="E255" t="n">
-        <v>180.1</v>
-      </c>
-      <c r="F255" t="n">
-        <v>4574.8578</v>
-      </c>
-      <c r="G255" t="n">
-        <v>82305.44099254627</v>
-      </c>
-      <c r="H255" t="n">
-        <v>2</v>
-      </c>
-      <c r="I255" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="J255" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>182</v>
-      </c>
-      <c r="C256" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="D256" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="E256" t="n">
-        <v>182</v>
-      </c>
-      <c r="F256" t="n">
-        <v>2722</v>
-      </c>
-      <c r="G256" t="n">
-        <v>85027.44099254627</v>
-      </c>
-      <c r="H256" t="n">
-        <v>2</v>
-      </c>
-      <c r="I256" t="n">
-        <v>180.1</v>
-      </c>
-      <c r="J256" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>182.2</v>
-      </c>
-      <c r="C257" t="n">
-        <v>182.2</v>
-      </c>
-      <c r="D257" t="n">
-        <v>182.2</v>
-      </c>
-      <c r="E257" t="n">
-        <v>182.2</v>
-      </c>
-      <c r="F257" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G257" t="n">
-        <v>90027.44099254627</v>
-      </c>
-      <c r="H257" t="n">
-        <v>2</v>
-      </c>
-      <c r="I257" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="J257" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>182.8</v>
-      </c>
-      <c r="C258" t="n">
-        <v>182.8</v>
-      </c>
-      <c r="D258" t="n">
-        <v>182.8</v>
-      </c>
-      <c r="E258" t="n">
-        <v>182.8</v>
-      </c>
-      <c r="F258" t="n">
-        <v>462</v>
-      </c>
-      <c r="G258" t="n">
-        <v>90489.44099254627</v>
-      </c>
-      <c r="H258" t="n">
-        <v>2</v>
-      </c>
-      <c r="I258" t="n">
-        <v>182.2</v>
-      </c>
-      <c r="J258" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>182.6</v>
-      </c>
-      <c r="C259" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="D259" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="E259" t="n">
-        <v>182.4</v>
-      </c>
-      <c r="F259" t="n">
-        <v>1083</v>
-      </c>
-      <c r="G259" t="n">
-        <v>91572.44099254627</v>
-      </c>
-      <c r="H259" t="n">
-        <v>2</v>
-      </c>
-      <c r="I259" t="n">
-        <v>182.8</v>
-      </c>
-      <c r="J259" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="C260" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="D260" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="E260" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="F260" t="n">
-        <v>3</v>
-      </c>
-      <c r="G260" t="n">
-        <v>91575.44099254627</v>
-      </c>
-      <c r="H260" t="n">
-        <v>2</v>
-      </c>
-      <c r="I260" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="J260" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="C261" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="D261" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="E261" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="F261" t="n">
-        <v>3</v>
-      </c>
-      <c r="G261" t="n">
-        <v>91575.44099254627</v>
-      </c>
-      <c r="H261" t="n">
-        <v>2</v>
-      </c>
-      <c r="I261" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="J261" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="C262" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="D262" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="E262" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="F262" t="n">
-        <v>2753.31</v>
-      </c>
-      <c r="G262" t="n">
-        <v>94328.75099254627</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>189</v>
-      </c>
-      <c r="C263" t="n">
-        <v>187.9</v>
-      </c>
-      <c r="D263" t="n">
-        <v>189</v>
-      </c>
-      <c r="E263" t="n">
-        <v>187.9</v>
-      </c>
-      <c r="F263" t="n">
-        <v>184.708</v>
-      </c>
-      <c r="G263" t="n">
-        <v>94513.45899254626</v>
-      </c>
-      <c r="H263" t="n">
-        <v>2</v>
-      </c>
-      <c r="I263" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="J263" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>189</v>
-      </c>
-      <c r="C264" t="n">
-        <v>189</v>
-      </c>
-      <c r="D264" t="n">
-        <v>189</v>
-      </c>
-      <c r="E264" t="n">
-        <v>189</v>
-      </c>
-      <c r="F264" t="n">
-        <v>84.7214</v>
-      </c>
-      <c r="G264" t="n">
-        <v>94598.18039254626</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>189.5</v>
-      </c>
-      <c r="C265" t="n">
-        <v>187.3</v>
-      </c>
-      <c r="D265" t="n">
-        <v>190</v>
-      </c>
-      <c r="E265" t="n">
-        <v>187.3</v>
-      </c>
-      <c r="F265" t="n">
-        <v>9281.756600000001</v>
-      </c>
-      <c r="G265" t="n">
-        <v>85316.42379254627</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>189.9</v>
-      </c>
-      <c r="C266" t="n">
-        <v>189.9</v>
-      </c>
-      <c r="D266" t="n">
-        <v>189.9</v>
-      </c>
-      <c r="E266" t="n">
-        <v>189.9</v>
-      </c>
-      <c r="F266" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="G266" t="n">
-        <v>85319.05379254627</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>189</v>
-      </c>
-      <c r="C267" t="n">
-        <v>189</v>
-      </c>
-      <c r="D267" t="n">
-        <v>189</v>
-      </c>
-      <c r="E267" t="n">
-        <v>189</v>
-      </c>
-      <c r="F267" t="n">
-        <v>10590.5553</v>
-      </c>
-      <c r="G267" t="n">
-        <v>74728.49849254626</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>188.8</v>
-      </c>
-      <c r="C268" t="n">
-        <v>188.9</v>
-      </c>
-      <c r="D268" t="n">
-        <v>191.8</v>
-      </c>
-      <c r="E268" t="n">
-        <v>188.8</v>
-      </c>
-      <c r="F268" t="n">
-        <v>12867.537</v>
-      </c>
-      <c r="G268" t="n">
-        <v>61860.96149254627</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>188.9</v>
-      </c>
-      <c r="C269" t="n">
-        <v>188.5</v>
-      </c>
-      <c r="D269" t="n">
-        <v>191.7</v>
-      </c>
-      <c r="E269" t="n">
-        <v>188.5</v>
-      </c>
-      <c r="F269" t="n">
-        <v>15194.5294</v>
-      </c>
-      <c r="G269" t="n">
-        <v>46666.43209254627</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>189.1</v>
-      </c>
-      <c r="C270" t="n">
-        <v>190.9</v>
-      </c>
-      <c r="D270" t="n">
-        <v>191</v>
-      </c>
-      <c r="E270" t="n">
-        <v>188.5</v>
-      </c>
-      <c r="F270" t="n">
-        <v>20682.797</v>
-      </c>
-      <c r="G270" t="n">
-        <v>67349.22909254627</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>188.5</v>
-      </c>
-      <c r="C271" t="n">
-        <v>190.3</v>
-      </c>
-      <c r="D271" t="n">
-        <v>190.5</v>
-      </c>
-      <c r="E271" t="n">
-        <v>188.4</v>
-      </c>
-      <c r="F271" t="n">
-        <v>12688.5393946815</v>
-      </c>
-      <c r="G271" t="n">
-        <v>54660.68969786477</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>190.1</v>
-      </c>
-      <c r="C272" t="n">
-        <v>188.8</v>
-      </c>
-      <c r="D272" t="n">
-        <v>190.1</v>
-      </c>
-      <c r="E272" t="n">
-        <v>188.8</v>
-      </c>
-      <c r="F272" t="n">
-        <v>2374.3995</v>
-      </c>
-      <c r="G272" t="n">
-        <v>52286.29019786477</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>188.3</v>
-      </c>
-      <c r="C273" t="n">
-        <v>188.3</v>
-      </c>
-      <c r="D273" t="n">
-        <v>188.3</v>
-      </c>
-      <c r="E273" t="n">
-        <v>188.3</v>
-      </c>
-      <c r="F273" t="n">
-        <v>8142.9317</v>
-      </c>
-      <c r="G273" t="n">
-        <v>44143.35849786477</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>188.3</v>
-      </c>
-      <c r="C274" t="n">
-        <v>187.3</v>
-      </c>
-      <c r="D274" t="n">
-        <v>188.3</v>
-      </c>
-      <c r="E274" t="n">
-        <v>187.3</v>
-      </c>
-      <c r="F274" t="n">
-        <v>1549.9425</v>
-      </c>
-      <c r="G274" t="n">
-        <v>42593.41599786477</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>189.1</v>
-      </c>
-      <c r="C275" t="n">
-        <v>189.9</v>
-      </c>
-      <c r="D275" t="n">
-        <v>189.9</v>
-      </c>
-      <c r="E275" t="n">
-        <v>189.1</v>
-      </c>
-      <c r="F275" t="n">
-        <v>4640.972</v>
-      </c>
-      <c r="G275" t="n">
-        <v>47234.38799786477</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>190</v>
-      </c>
-      <c r="C276" t="n">
-        <v>190</v>
-      </c>
-      <c r="D276" t="n">
-        <v>190</v>
-      </c>
-      <c r="E276" t="n">
-        <v>190</v>
-      </c>
-      <c r="F276" t="n">
-        <v>717</v>
-      </c>
-      <c r="G276" t="n">
-        <v>47951.38799786477</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>190</v>
-      </c>
-      <c r="C277" t="n">
-        <v>190</v>
-      </c>
-      <c r="D277" t="n">
-        <v>190</v>
-      </c>
-      <c r="E277" t="n">
-        <v>190</v>
-      </c>
-      <c r="F277" t="n">
-        <v>1165.2782</v>
-      </c>
-      <c r="G277" t="n">
-        <v>47951.38799786477</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>190</v>
-      </c>
-      <c r="C278" t="n">
-        <v>190</v>
-      </c>
-      <c r="D278" t="n">
-        <v>190</v>
-      </c>
-      <c r="E278" t="n">
-        <v>190</v>
-      </c>
-      <c r="F278" t="n">
-        <v>328.9984</v>
-      </c>
-      <c r="G278" t="n">
-        <v>47951.38799786477</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>190</v>
-      </c>
-      <c r="C279" t="n">
-        <v>190</v>
-      </c>
-      <c r="D279" t="n">
-        <v>190</v>
-      </c>
-      <c r="E279" t="n">
-        <v>190</v>
-      </c>
-      <c r="F279" t="n">
-        <v>635</v>
-      </c>
-      <c r="G279" t="n">
-        <v>47951.38799786477</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>190</v>
-      </c>
-      <c r="C280" t="n">
-        <v>192.1</v>
-      </c>
-      <c r="D280" t="n">
-        <v>192.1</v>
-      </c>
-      <c r="E280" t="n">
-        <v>190</v>
-      </c>
-      <c r="F280" t="n">
-        <v>17620</v>
-      </c>
-      <c r="G280" t="n">
-        <v>65571.38799786477</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>192</v>
-      </c>
-      <c r="C281" t="n">
-        <v>192</v>
-      </c>
-      <c r="D281" t="n">
-        <v>192</v>
-      </c>
-      <c r="E281" t="n">
-        <v>192</v>
-      </c>
-      <c r="F281" t="n">
-        <v>27.7727</v>
-      </c>
-      <c r="G281" t="n">
-        <v>65543.61529786477</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>192.1</v>
-      </c>
-      <c r="C282" t="n">
-        <v>192.3</v>
-      </c>
-      <c r="D282" t="n">
-        <v>192.3</v>
-      </c>
-      <c r="E282" t="n">
-        <v>192.1</v>
-      </c>
-      <c r="F282" t="n">
-        <v>1702.0856</v>
-      </c>
-      <c r="G282" t="n">
-        <v>67245.70089786478</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>192.9</v>
-      </c>
-      <c r="C283" t="n">
-        <v>193</v>
-      </c>
-      <c r="D283" t="n">
-        <v>193</v>
-      </c>
-      <c r="E283" t="n">
-        <v>192.3</v>
-      </c>
-      <c r="F283" t="n">
-        <v>7411.2914</v>
-      </c>
-      <c r="G283" t="n">
-        <v>74656.99229786478</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>193</v>
-      </c>
-      <c r="C284" t="n">
-        <v>193</v>
-      </c>
-      <c r="D284" t="n">
-        <v>193</v>
-      </c>
-      <c r="E284" t="n">
-        <v>193</v>
-      </c>
-      <c r="F284" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G284" t="n">
-        <v>74656.99229786478</v>
-      </c>
-      <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>192.3</v>
-      </c>
-      <c r="C285" t="n">
-        <v>191.2</v>
-      </c>
-      <c r="D285" t="n">
-        <v>192.3</v>
-      </c>
-      <c r="E285" t="n">
-        <v>191.2</v>
-      </c>
-      <c r="F285" t="n">
-        <v>7001.0899</v>
-      </c>
-      <c r="G285" t="n">
-        <v>67655.90239786477</v>
-      </c>
-      <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>190.9</v>
-      </c>
-      <c r="C286" t="n">
-        <v>190.7</v>
-      </c>
-      <c r="D286" t="n">
-        <v>190.9</v>
-      </c>
-      <c r="E286" t="n">
-        <v>190.7</v>
-      </c>
-      <c r="F286" t="n">
-        <v>1950</v>
-      </c>
-      <c r="G286" t="n">
-        <v>65705.90239786477</v>
-      </c>
-      <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>190.3</v>
-      </c>
-      <c r="C287" t="n">
-        <v>190.3</v>
-      </c>
-      <c r="D287" t="n">
-        <v>190.3</v>
-      </c>
-      <c r="E287" t="n">
-        <v>190.3</v>
-      </c>
-      <c r="F287" t="n">
-        <v>1803.3577</v>
-      </c>
-      <c r="G287" t="n">
-        <v>63902.54469786477</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>190</v>
-      </c>
-      <c r="C288" t="n">
-        <v>190</v>
-      </c>
-      <c r="D288" t="n">
-        <v>190</v>
-      </c>
-      <c r="E288" t="n">
-        <v>190</v>
-      </c>
-      <c r="F288" t="n">
-        <v>23272.8232</v>
-      </c>
-      <c r="G288" t="n">
-        <v>40629.72149786478</v>
-      </c>
-      <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>190</v>
-      </c>
-      <c r="C289" t="n">
-        <v>188.6</v>
-      </c>
-      <c r="D289" t="n">
-        <v>190</v>
-      </c>
-      <c r="E289" t="n">
-        <v>188.6</v>
-      </c>
-      <c r="F289" t="n">
-        <v>1867.1885</v>
-      </c>
-      <c r="G289" t="n">
-        <v>38762.53299786478</v>
-      </c>
-      <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>189</v>
-      </c>
-      <c r="C290" t="n">
-        <v>187.4</v>
-      </c>
-      <c r="D290" t="n">
-        <v>189</v>
-      </c>
-      <c r="E290" t="n">
-        <v>187.4</v>
-      </c>
-      <c r="F290" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G290" t="n">
-        <v>28762.53299786478</v>
-      </c>
-      <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>187</v>
-      </c>
-      <c r="C291" t="n">
-        <v>187.9</v>
-      </c>
-      <c r="D291" t="n">
-        <v>187.9</v>
-      </c>
-      <c r="E291" t="n">
-        <v>187</v>
-      </c>
-      <c r="F291" t="n">
-        <v>65.78</v>
-      </c>
-      <c r="G291" t="n">
-        <v>28828.31299786478</v>
-      </c>
-      <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>187.9</v>
-      </c>
-      <c r="C292" t="n">
-        <v>187.9</v>
-      </c>
-      <c r="D292" t="n">
-        <v>187.9</v>
-      </c>
-      <c r="E292" t="n">
-        <v>187.9</v>
-      </c>
-      <c r="F292" t="n">
-        <v>21.07</v>
-      </c>
-      <c r="G292" t="n">
-        <v>28828.31299786478</v>
-      </c>
-      <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>187</v>
-      </c>
-      <c r="C293" t="n">
-        <v>185.7</v>
-      </c>
-      <c r="D293" t="n">
-        <v>187</v>
-      </c>
-      <c r="E293" t="n">
-        <v>185.7</v>
-      </c>
-      <c r="F293" t="n">
-        <v>319.9984</v>
-      </c>
-      <c r="G293" t="n">
-        <v>28508.31459786478</v>
-      </c>
-      <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="C294" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="D294" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="E294" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="F294" t="n">
-        <v>287</v>
-      </c>
-      <c r="G294" t="n">
-        <v>28795.31459786478</v>
-      </c>
-      <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="C295" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="D295" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="E295" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="F295" t="n">
-        <v>6291.8467</v>
-      </c>
-      <c r="G295" t="n">
-        <v>22503.46789786478</v>
-      </c>
-      <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="C296" t="n">
-        <v>187.7</v>
-      </c>
-      <c r="D296" t="n">
-        <v>187.7</v>
-      </c>
-      <c r="E296" t="n">
-        <v>185.8</v>
-      </c>
-      <c r="F296" t="n">
-        <v>2521</v>
-      </c>
-      <c r="G296" t="n">
-        <v>25024.46789786478</v>
-      </c>
-      <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10780,10 +10328,10 @@
       <c r="H297" t="n">
         <v>1</v>
       </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>184.3</v>
-      </c>
+      <c r="I297" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10819,10 +10367,10 @@
       <c r="H298" t="n">
         <v>1</v>
       </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>184.3</v>
-      </c>
+      <c r="I298" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10856,12 +10404,12 @@
         <v>29710.19879786478</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>184.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10895,12 +10443,12 @@
         <v>29171.93889786478</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>184.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>189.8</v>
+      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10936,10 +10484,10 @@
       <c r="H301" t="n">
         <v>1</v>
       </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>184.3</v>
-      </c>
+      <c r="I301" t="n">
+        <v>189.7</v>
+      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10973,12 +10521,12 @@
         <v>25601.95109786478</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>184.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>189</v>
+      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11012,12 +10560,12 @@
         <v>22034.32489786478</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>184.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>189</v>
+      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11051,12 +10599,12 @@
         <v>22034.32489786478</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>184.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>188</v>
+      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11090,12 +10638,12 @@
         <v>22037.32489786478</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>184.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>188</v>
+      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11131,10 +10679,10 @@
       <c r="H306" t="n">
         <v>1</v>
       </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>184.3</v>
-      </c>
+      <c r="I306" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11170,10 +10718,10 @@
       <c r="H307" t="n">
         <v>1</v>
       </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>184.3</v>
-      </c>
+      <c r="I307" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11210,9 +10758,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>184.3</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11249,9 +10795,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>184.3</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11288,9 +10832,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>184.3</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11327,9 +10869,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>184.3</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11366,9 +10906,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>184.3</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11405,9 +10943,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>184.3</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11444,9 +10980,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>184.3</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11483,9 +11017,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>184.3</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11522,9 +11054,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>184.3</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11561,9 +11091,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>184.3</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11600,9 +11128,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>184.3</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11639,9 +11165,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>184.3</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11678,9 +11202,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>184.3</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11717,9 +11239,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>184.3</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11756,9 +11276,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>184.3</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11795,9 +11313,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>184.3</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11834,9 +11350,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>184.3</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11873,9 +11387,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>184.3</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11912,9 +11424,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>184.3</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11951,9 +11461,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>184.3</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11990,9 +11498,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>184.3</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12029,9 +11535,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>184.3</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12068,9 +11572,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>184.3</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12107,9 +11609,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>184.3</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12146,9 +11646,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>184.3</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12185,9 +11683,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>184.3</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12221,20 +11717,16 @@
         <v>310762.1610978648</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>184.3</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
+      <c r="L334" t="inlineStr"/>
       <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
@@ -12260,17 +11752,11 @@
         <v>310762.1610978648</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12299,17 +11785,11 @@
         <v>310754.0996978648</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12338,23 +11818,17 @@
         <v>310732.3798978648</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>184.3</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
       <c r="M337" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest INS.xlsx
+++ b/BackTest/2020-01-25 BackTest INS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>52478.7602</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>52478.7602</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>195.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>77890.1949</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>195.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>77890.1949</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>196</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,17 +583,11 @@
         <v>77890.1949</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>196</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,17 +616,11 @@
         <v>101185.2941339122</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>196</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -679,17 +649,11 @@
         <v>118735.0460339122</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>196.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -718,17 +682,11 @@
         <v>112896.3514339122</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>196.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -757,17 +715,11 @@
         <v>111554.5580339122</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>194.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -796,17 +748,11 @@
         <v>145549.4422339122</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>191.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -835,17 +781,11 @@
         <v>209370.8683339122</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>196.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -878,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -911,17 +847,11 @@
         <v>171731.7684339122</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>198.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -954,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -987,17 +913,11 @@
         <v>181681.7684339122</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>195.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1030,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1067,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1104,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1141,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1178,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1215,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1252,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1289,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1326,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1363,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1400,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1437,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1507,16 +1375,14 @@
         <v>151886.9193339123</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
       <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -1542,7 +1408,7 @@
         <v>157252.7322339122</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1575,7 +1441,7 @@
         <v>154050.7322339122</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1608,7 +1474,7 @@
         <v>153656.8343339122</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1674,7 +1540,7 @@
         <v>150477.3115339122</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1740,7 +1606,7 @@
         <v>150477.3115339122</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1773,7 +1639,7 @@
         <v>150977.3115339122</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1806,7 +1672,7 @@
         <v>150966.7519339122</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1839,7 +1705,7 @@
         <v>148632.1839339122</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1872,7 +1738,7 @@
         <v>128632.1839339122</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1905,7 +1771,7 @@
         <v>133917.0643339122</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1938,7 +1804,7 @@
         <v>132307.2084339122</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1971,7 +1837,7 @@
         <v>136400.8748339122</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2004,7 +1870,7 @@
         <v>137865.9535339122</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2037,7 +1903,7 @@
         <v>137865.9535339122</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2070,7 +1936,7 @@
         <v>137538.9535339122</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2103,7 +1969,7 @@
         <v>148797.6678339122</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2136,7 +2002,7 @@
         <v>148797.6678339122</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2169,7 +2035,7 @@
         <v>148797.6678339122</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2202,7 +2068,7 @@
         <v>142528.5903339122</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2235,7 +2101,7 @@
         <v>142528.5903339122</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2268,7 +2134,7 @@
         <v>142528.5903339122</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2301,7 +2167,7 @@
         <v>144807.5142339122</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2334,7 +2200,7 @@
         <v>140807.5142339122</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2367,7 +2233,7 @@
         <v>152817.2154339122</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2400,7 +2266,7 @@
         <v>146294.6397339122</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2433,7 +2299,7 @@
         <v>147211.6130339122</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2466,7 +2332,7 @@
         <v>149211.6130339122</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2499,7 +2365,7 @@
         <v>149811.6130339122</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2532,7 +2398,7 @@
         <v>152203.6130339122</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2565,7 +2431,7 @@
         <v>152203.6130339122</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2598,7 +2464,7 @@
         <v>152203.6130339122</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2631,7 +2497,7 @@
         <v>152203.6130339122</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2664,7 +2530,7 @@
         <v>152206.6130339122</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2697,7 +2563,7 @@
         <v>152200.6608339122</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2730,7 +2596,7 @@
         <v>152204.6608339122</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2763,7 +2629,7 @@
         <v>147885.7008339122</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2796,7 +2662,7 @@
         <v>147888.7008339122</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2829,7 +2695,7 @@
         <v>155315.0292339122</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2862,7 +2728,7 @@
         <v>145840.1714889175</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2928,7 +2794,7 @@
         <v>144249.8630889175</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2961,7 +2827,7 @@
         <v>144899.0577889175</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2994,7 +2860,7 @@
         <v>144899.0577889175</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3027,7 +2893,7 @@
         <v>142275.1391889175</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3060,7 +2926,7 @@
         <v>144501.1391889175</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3093,7 +2959,7 @@
         <v>144501.1391889175</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3192,7 +3058,7 @@
         <v>144468.6491889175</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3423,7 +3289,7 @@
         <v>149652.8816889175</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3456,7 +3322,7 @@
         <v>145231.0418889175</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3489,7 +3355,7 @@
         <v>141317.7969889175</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3555,7 +3421,7 @@
         <v>147323.2534889175</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3588,7 +3454,7 @@
         <v>162403.9346889175</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3621,7 +3487,7 @@
         <v>159382.9646889175</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3654,7 +3520,7 @@
         <v>159119.0939889175</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3687,7 +3553,7 @@
         <v>165273.9004889175</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3720,7 +3586,7 @@
         <v>166958.6813925463</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3753,7 +3619,7 @@
         <v>168756.0254925463</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3786,7 +3652,7 @@
         <v>172766.9834925463</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3819,7 +3685,7 @@
         <v>172731.5640925463</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3852,7 +3718,7 @@
         <v>171226.1251925463</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3885,7 +3751,7 @@
         <v>171226.1251925463</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3918,7 +3784,7 @@
         <v>170730.5972925463</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3951,7 +3817,7 @@
         <v>164449.0172925463</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3984,7 +3850,7 @@
         <v>164875.2625925464</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4017,7 +3883,7 @@
         <v>162538.9359925464</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4050,7 +3916,7 @@
         <v>165690.1430925464</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4083,7 +3949,7 @@
         <v>168350.6130925464</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4116,7 +3982,7 @@
         <v>168350.6130925464</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4149,7 +4015,7 @@
         <v>168266.0027925464</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4182,7 +4048,7 @@
         <v>168266.0027925464</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4215,7 +4081,7 @@
         <v>167936.2506925463</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4248,7 +4114,7 @@
         <v>167936.2506925463</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4281,7 +4147,7 @@
         <v>167505.6468925463</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4314,7 +4180,7 @@
         <v>167505.6468925463</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4347,7 +4213,7 @@
         <v>167419.1767925463</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4380,7 +4246,7 @@
         <v>177576.9713925463</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4413,7 +4279,7 @@
         <v>176966.4851925463</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4446,7 +4312,7 @@
         <v>169020.0507925463</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4479,7 +4345,7 @@
         <v>169020.0507925463</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4512,7 +4378,7 @@
         <v>160506.7830925463</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4545,7 +4411,7 @@
         <v>165390.5089925463</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4578,7 +4444,7 @@
         <v>165206.8590925463</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4611,7 +4477,7 @@
         <v>165206.8590925463</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4644,7 +4510,7 @@
         <v>151811.0130925463</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4677,7 +4543,7 @@
         <v>153300.8053925463</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4710,7 +4576,7 @@
         <v>158100.8053925463</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4743,7 +4609,7 @@
         <v>156048.6159925463</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4776,7 +4642,7 @@
         <v>156051.3159925463</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4809,7 +4675,7 @@
         <v>156051.3159925463</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4842,7 +4708,7 @@
         <v>156051.3159925463</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4875,7 +4741,7 @@
         <v>155746.3159925463</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4908,7 +4774,7 @@
         <v>159438.1380925463</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4941,7 +4807,7 @@
         <v>159438.1380925463</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4974,7 +4840,7 @@
         <v>165293.8731925463</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5007,7 +4873,7 @@
         <v>165298.8731925463</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5040,7 +4906,7 @@
         <v>165296.1731925463</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5073,7 +4939,7 @@
         <v>165299.1731925463</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5106,7 +4972,7 @@
         <v>165299.1731925463</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5139,7 +5005,7 @@
         <v>165299.1731925463</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5172,7 +5038,7 @@
         <v>167239.3708925463</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5205,7 +5071,7 @@
         <v>167239.3708925463</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5238,7 +5104,7 @@
         <v>165788.4175925463</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5271,7 +5137,7 @@
         <v>155887.0338925463</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5304,7 +5170,7 @@
         <v>156442.0338925463</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5337,7 +5203,7 @@
         <v>157536.6613925463</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5370,7 +5236,7 @@
         <v>155533.9913925463</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5403,7 +5269,7 @@
         <v>155533.9913925463</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5436,7 +5302,7 @@
         <v>155533.9913925463</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5469,7 +5335,7 @@
         <v>154887.7630925463</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5502,7 +5368,7 @@
         <v>154887.7630925463</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5535,7 +5401,7 @@
         <v>150654.9834925463</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5568,7 +5434,7 @@
         <v>149141.9729925463</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5601,7 +5467,7 @@
         <v>152815.0086925463</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5634,7 +5500,7 @@
         <v>152821.0087925463</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5667,7 +5533,7 @@
         <v>152821.0087925463</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5700,7 +5566,7 @@
         <v>152818.0087925463</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5733,7 +5599,7 @@
         <v>152762.0887925463</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5766,7 +5632,7 @@
         <v>152583.9550925463</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5799,7 +5665,7 @@
         <v>152586.6550925463</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5832,7 +5698,7 @@
         <v>152450.8550925463</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5865,7 +5731,7 @@
         <v>151292.2577925463</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5898,7 +5764,7 @@
         <v>175575.6741925463</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5931,7 +5797,7 @@
         <v>175578.6741925463</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5964,7 +5830,7 @@
         <v>173574.4161925463</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6030,7 +5896,7 @@
         <v>172028.6438925463</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6063,7 +5929,7 @@
         <v>174028.6438925463</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6096,7 +5962,7 @@
         <v>174028.6438925463</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6162,7 +6028,7 @@
         <v>172985.7204925463</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6393,7 +6259,7 @@
         <v>180471.3590925463</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6426,7 +6292,7 @@
         <v>180230.7217925463</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6591,7 +6457,7 @@
         <v>151885.3097925463</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6624,7 +6490,7 @@
         <v>151885.3097925463</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -8802,10 +8668,14 @@
         <v>86823.36299254626</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>180</v>
+      </c>
+      <c r="J251" t="n">
+        <v>180</v>
+      </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
@@ -8835,11 +8705,19 @@
         <v>86880.29879254627</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>180.1</v>
+      </c>
+      <c r="J252" t="n">
+        <v>180</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8868,11 +8746,19 @@
         <v>86880.29879254627</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="J253" t="n">
+        <v>180</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8901,10 +8787,14 @@
         <v>86880.29879254627</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="J254" t="n">
+        <v>180.2</v>
+      </c>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
@@ -8934,11 +8824,19 @@
         <v>82305.44099254627</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="J255" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8967,11 +8865,19 @@
         <v>85027.44099254627</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>180.1</v>
+      </c>
+      <c r="J256" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9000,11 +8906,19 @@
         <v>90027.44099254627</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="J257" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9033,11 +8947,19 @@
         <v>90489.44099254627</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>182.2</v>
+      </c>
+      <c r="J258" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9066,11 +8988,19 @@
         <v>91572.44099254627</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>182.8</v>
+      </c>
+      <c r="J259" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9102,8 +9032,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9135,8 +9071,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9168,8 +9110,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9201,8 +9149,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9234,8 +9188,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9267,8 +9227,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9300,8 +9266,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9333,8 +9305,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9363,13 +9341,19 @@
         <v>61860.96149254627</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L268" t="n">
-        <v>1</v>
+        <v>1.043279689234184</v>
       </c>
       <c r="M268" t="inlineStr"/>
     </row>
@@ -9396,7 +9380,7 @@
         <v>46666.43209254627</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9825,7 +9809,7 @@
         <v>67245.70089786478</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10056,7 +10040,7 @@
         <v>38762.53299786478</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10089,7 +10073,7 @@
         <v>28762.53299786478</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10122,7 +10106,7 @@
         <v>28828.31299786478</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10155,7 +10139,7 @@
         <v>28828.31299786478</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10188,7 +10172,7 @@
         <v>28508.31459786478</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10221,7 +10205,7 @@
         <v>28795.31459786478</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10254,7 +10238,7 @@
         <v>22503.46789786478</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10287,17 +10271,11 @@
         <v>25024.46789786478</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>185.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10326,17 +10304,11 @@
         <v>26015.54329786478</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>187.7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10365,17 +10337,11 @@
         <v>24151.90879786478</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>187.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10404,17 +10370,11 @@
         <v>29710.19879786478</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>187.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10443,17 +10403,11 @@
         <v>29171.93889786478</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>189.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10482,17 +10436,11 @@
         <v>25601.95109786478</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>189.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10521,17 +10469,11 @@
         <v>25601.95109786478</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10560,17 +10502,11 @@
         <v>22034.32489786478</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10599,17 +10535,11 @@
         <v>22034.32489786478</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10638,17 +10568,11 @@
         <v>22037.32489786478</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>188</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10677,17 +10601,11 @@
         <v>21737.32489786478</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>189.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10716,17 +10634,11 @@
         <v>47849.86489786478</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>187.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10755,15 +10667,11 @@
         <v>82855.13779786479</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10792,15 +10700,11 @@
         <v>79116.47989786479</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10829,15 +10733,11 @@
         <v>78014.47989786479</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10870,11 +10770,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10907,11 +10803,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10944,11 +10836,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10981,11 +10869,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11018,11 +10902,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11055,11 +10935,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11092,11 +10968,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11129,11 +11001,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11166,11 +11034,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11203,11 +11067,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11240,11 +11100,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11277,11 +11133,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11314,11 +11166,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11351,11 +11199,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11388,11 +11232,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11425,11 +11265,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11462,11 +11298,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11499,11 +11331,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11536,11 +11364,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11573,11 +11397,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11610,11 +11430,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11647,11 +11463,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11684,11 +11496,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11717,16 +11525,14 @@
         <v>310762.1610978648</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
       <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
@@ -11752,7 +11558,7 @@
         <v>310762.1610978648</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11785,7 +11591,7 @@
         <v>310754.0996978648</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11818,7 +11624,7 @@
         <v>310732.3798978648</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11829,6 +11635,6 @@
       <c r="M337" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest INS.xlsx
+++ b/BackTest/2020-01-25 BackTest INS.xlsx
@@ -451,7 +451,7 @@
         <v>52478.7602</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>52478.7602</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>195.8</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -521,7 +527,11 @@
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -554,7 +564,11 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -587,7 +601,11 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -620,7 +638,11 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -653,7 +675,11 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -686,7 +712,11 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -719,7 +749,11 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -752,7 +786,11 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -785,7 +823,11 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +856,15 @@
         <v>209370.8683339122</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,14 +893,16 @@
         <v>171731.7684339122</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -880,7 +928,7 @@
         <v>171731.7684339122</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +961,7 @@
         <v>181681.7684339122</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +994,7 @@
         <v>181498.1185339122</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +1027,7 @@
         <v>182838.7024339122</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1060,7 @@
         <v>168951.8918339122</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1093,7 @@
         <v>142323.0453339122</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1126,7 @@
         <v>142423.0453339122</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -3718,7 +3766,7 @@
         <v>171226.1251925463</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3982,7 +4030,7 @@
         <v>168350.6130925464</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4063,7 @@
         <v>168266.0027925464</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -8668,14 +8716,10 @@
         <v>86823.36299254626</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>180</v>
-      </c>
-      <c r="J251" t="n">
-        <v>180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
@@ -8705,19 +8749,11 @@
         <v>86880.29879254627</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>180.1</v>
-      </c>
-      <c r="J252" t="n">
-        <v>180</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8746,19 +8782,11 @@
         <v>86880.29879254627</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="J253" t="n">
-        <v>180</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8787,14 +8815,10 @@
         <v>86880.29879254627</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="J254" t="n">
-        <v>180.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
@@ -8824,19 +8848,11 @@
         <v>82305.44099254627</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="J255" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8865,19 +8881,11 @@
         <v>85027.44099254627</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>180.1</v>
-      </c>
-      <c r="J256" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8906,19 +8914,11 @@
         <v>90027.44099254627</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="J257" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8947,19 +8947,11 @@
         <v>90489.44099254627</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>182.2</v>
-      </c>
-      <c r="J258" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8988,19 +8980,11 @@
         <v>91572.44099254627</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>182.8</v>
-      </c>
-      <c r="J259" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9032,14 +9016,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9071,14 +9049,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9110,14 +9082,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9149,14 +9115,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9188,14 +9148,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9227,14 +9181,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9266,14 +9214,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9305,14 +9247,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9341,19 +9277,13 @@
         <v>61860.96149254627</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
-        <v>1.043279689234184</v>
+        <v>1</v>
       </c>
       <c r="M268" t="inlineStr"/>
     </row>
@@ -9380,7 +9310,7 @@
         <v>46666.43209254627</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9809,7 +9739,7 @@
         <v>67245.70089786478</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10040,7 +9970,7 @@
         <v>38762.53299786478</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10073,7 +10003,7 @@
         <v>28762.53299786478</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10106,7 +10036,7 @@
         <v>28828.31299786478</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10139,7 +10069,7 @@
         <v>28828.31299786478</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10172,7 +10102,7 @@
         <v>28508.31459786478</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10205,7 +10135,7 @@
         <v>28795.31459786478</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10238,7 +10168,7 @@
         <v>22503.46789786478</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10271,7 +10201,7 @@
         <v>25024.46789786478</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10304,7 +10234,7 @@
         <v>26015.54329786478</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10337,7 +10267,7 @@
         <v>24151.90879786478</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10370,7 +10300,7 @@
         <v>29710.19879786478</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10403,7 +10333,7 @@
         <v>29171.93889786478</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10568,7 +10498,7 @@
         <v>22037.32489786478</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10601,7 +10531,7 @@
         <v>21737.32489786478</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10634,7 +10564,7 @@
         <v>47849.86489786478</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10667,7 +10597,7 @@
         <v>82855.13779786479</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10700,7 +10630,7 @@
         <v>79116.47989786479</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10733,7 +10663,7 @@
         <v>78014.47989786479</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11525,7 +11455,7 @@
         <v>310762.1610978648</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11558,7 +11488,7 @@
         <v>310762.1610978648</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11591,7 +11521,7 @@
         <v>310754.0996978648</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11624,7 +11554,7 @@
         <v>310732.3798978648</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>

--- a/BackTest/2020-01-25 BackTest INS.xlsx
+++ b/BackTest/2020-01-25 BackTest INS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M337"/>
+  <dimension ref="A1:L337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>3678.2023</v>
       </c>
       <c r="G2" t="n">
-        <v>52478.7602</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,24 +473,15 @@
         <v>12504.0444660878</v>
       </c>
       <c r="G3" t="n">
-        <v>52478.7602</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>195.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,22 +503,15 @@
         <v>25411.4347</v>
       </c>
       <c r="G4" t="n">
-        <v>77890.1949</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -557,22 +533,15 @@
         <v>7948</v>
       </c>
       <c r="G5" t="n">
-        <v>77890.1949</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -594,22 +563,15 @@
         <v>4568.1445</v>
       </c>
       <c r="G6" t="n">
-        <v>77890.1949</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -631,22 +593,15 @@
         <v>23295.0992339122</v>
       </c>
       <c r="G7" t="n">
-        <v>101185.2941339122</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -668,22 +623,15 @@
         <v>17549.7519</v>
       </c>
       <c r="G8" t="n">
-        <v>118735.0460339122</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -705,22 +653,15 @@
         <v>5838.6946</v>
       </c>
       <c r="G9" t="n">
-        <v>112896.3514339122</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,22 +683,15 @@
         <v>1341.7934</v>
       </c>
       <c r="G10" t="n">
-        <v>111554.5580339122</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -779,22 +713,15 @@
         <v>33994.8842</v>
       </c>
       <c r="G11" t="n">
-        <v>145549.4422339122</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,22 +743,15 @@
         <v>63821.4261</v>
       </c>
       <c r="G12" t="n">
-        <v>209370.8683339122</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -853,22 +773,15 @@
         <v>33098.0071</v>
       </c>
       <c r="G13" t="n">
-        <v>209370.8683339122</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,20 +803,15 @@
         <v>37639.0999</v>
       </c>
       <c r="G14" t="n">
-        <v>171731.7684339122</v>
-      </c>
-      <c r="H14" t="n">
         <v>2</v>
       </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K14" t="n">
+        <v>1</v>
       </c>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -925,18 +833,15 @@
         <v>15356.8279</v>
       </c>
       <c r="G15" t="n">
-        <v>171731.7684339122</v>
-      </c>
-      <c r="H15" t="n">
         <v>2</v>
       </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -958,18 +863,15 @@
         <v>9950</v>
       </c>
       <c r="G16" t="n">
-        <v>181681.7684339122</v>
-      </c>
-      <c r="H16" t="n">
         <v>2</v>
       </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -991,18 +893,15 @@
         <v>183.6499</v>
       </c>
       <c r="G17" t="n">
-        <v>181498.1185339122</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1024,18 +923,15 @@
         <v>1340.5839</v>
       </c>
       <c r="G18" t="n">
-        <v>182838.7024339122</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,18 +953,15 @@
         <v>13886.8106</v>
       </c>
       <c r="G19" t="n">
-        <v>168951.8918339122</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1090,18 +983,15 @@
         <v>26628.8465</v>
       </c>
       <c r="G20" t="n">
-        <v>142323.0453339122</v>
-      </c>
-      <c r="H20" t="n">
         <v>2</v>
       </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1123,18 +1013,15 @@
         <v>100</v>
       </c>
       <c r="G21" t="n">
-        <v>142423.0453339122</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1156,18 +1043,15 @@
         <v>1185.8768</v>
       </c>
       <c r="G22" t="n">
-        <v>142423.0453339122</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1189,18 +1073,15 @@
         <v>621.799</v>
       </c>
       <c r="G23" t="n">
-        <v>141801.2463339122</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1222,18 +1103,15 @@
         <v>8283.216200000001</v>
       </c>
       <c r="G24" t="n">
-        <v>150084.4625339122</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1255,18 +1133,15 @@
         <v>316</v>
       </c>
       <c r="G25" t="n">
-        <v>150084.4625339122</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1288,18 +1163,15 @@
         <v>2000</v>
       </c>
       <c r="G26" t="n">
-        <v>152084.4625339122</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1321,18 +1193,15 @@
         <v>947</v>
       </c>
       <c r="G27" t="n">
-        <v>153031.4625339122</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1354,18 +1223,15 @@
         <v>21393.5432</v>
       </c>
       <c r="G28" t="n">
-        <v>131637.9193339123</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1387,18 +1253,15 @@
         <v>20249</v>
       </c>
       <c r="G29" t="n">
-        <v>151886.9193339123</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1420,18 +1283,15 @@
         <v>1625</v>
       </c>
       <c r="G30" t="n">
-        <v>151886.9193339123</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1453,18 +1313,15 @@
         <v>5365.8129</v>
       </c>
       <c r="G31" t="n">
-        <v>157252.7322339122</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1486,18 +1343,15 @@
         <v>3202</v>
       </c>
       <c r="G32" t="n">
-        <v>154050.7322339122</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1519,18 +1373,15 @@
         <v>393.8979</v>
       </c>
       <c r="G33" t="n">
-        <v>153656.8343339122</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1552,18 +1403,15 @@
         <v>5880.7285</v>
       </c>
       <c r="G34" t="n">
-        <v>153656.8343339122</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1585,18 +1433,15 @@
         <v>3179.5228</v>
       </c>
       <c r="G35" t="n">
-        <v>150477.3115339122</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1618,18 +1463,15 @@
         <v>1713</v>
       </c>
       <c r="G36" t="n">
-        <v>150477.3115339122</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1651,18 +1493,15 @@
         <v>2170.6701</v>
       </c>
       <c r="G37" t="n">
-        <v>150477.3115339122</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1684,18 +1523,15 @@
         <v>500</v>
       </c>
       <c r="G38" t="n">
-        <v>150977.3115339122</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1717,18 +1553,15 @@
         <v>10.5596</v>
       </c>
       <c r="G39" t="n">
-        <v>150966.7519339122</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1750,18 +1583,15 @@
         <v>2334.568</v>
       </c>
       <c r="G40" t="n">
-        <v>148632.1839339122</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1783,18 +1613,15 @@
         <v>20000</v>
       </c>
       <c r="G41" t="n">
-        <v>128632.1839339122</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1816,18 +1643,15 @@
         <v>5284.8804</v>
       </c>
       <c r="G42" t="n">
-        <v>133917.0643339122</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1849,18 +1673,15 @@
         <v>1609.8559</v>
       </c>
       <c r="G43" t="n">
-        <v>132307.2084339122</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1882,18 +1703,15 @@
         <v>4093.6664</v>
       </c>
       <c r="G44" t="n">
-        <v>136400.8748339122</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1915,18 +1733,15 @@
         <v>1465.0787</v>
       </c>
       <c r="G45" t="n">
-        <v>137865.9535339122</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1948,18 +1763,15 @@
         <v>286.9717</v>
       </c>
       <c r="G46" t="n">
-        <v>137865.9535339122</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1981,18 +1793,15 @@
         <v>327</v>
       </c>
       <c r="G47" t="n">
-        <v>137538.9535339122</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2014,18 +1823,15 @@
         <v>11258.7143</v>
       </c>
       <c r="G48" t="n">
-        <v>148797.6678339122</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2047,18 +1853,15 @@
         <v>6.666</v>
       </c>
       <c r="G49" t="n">
-        <v>148797.6678339122</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2080,18 +1883,15 @@
         <v>35</v>
       </c>
       <c r="G50" t="n">
-        <v>148797.6678339122</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2113,18 +1913,15 @@
         <v>6269.0775</v>
       </c>
       <c r="G51" t="n">
-        <v>142528.5903339122</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2146,18 +1943,15 @@
         <v>1290.2665</v>
       </c>
       <c r="G52" t="n">
-        <v>142528.5903339122</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2179,18 +1973,15 @@
         <v>4496.3177</v>
       </c>
       <c r="G53" t="n">
-        <v>142528.5903339122</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2212,18 +2003,15 @@
         <v>2278.9239</v>
       </c>
       <c r="G54" t="n">
-        <v>144807.5142339122</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2245,18 +2033,15 @@
         <v>4000</v>
       </c>
       <c r="G55" t="n">
-        <v>140807.5142339122</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2278,18 +2063,15 @@
         <v>12009.7012</v>
       </c>
       <c r="G56" t="n">
-        <v>152817.2154339122</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2311,18 +2093,15 @@
         <v>6522.5757</v>
       </c>
       <c r="G57" t="n">
-        <v>146294.6397339122</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2344,18 +2123,15 @@
         <v>916.9733</v>
       </c>
       <c r="G58" t="n">
-        <v>147211.6130339122</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2377,18 +2153,15 @@
         <v>2000</v>
       </c>
       <c r="G59" t="n">
-        <v>149211.6130339122</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2410,18 +2183,15 @@
         <v>600</v>
       </c>
       <c r="G60" t="n">
-        <v>149811.6130339122</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2443,18 +2213,15 @@
         <v>2392</v>
       </c>
       <c r="G61" t="n">
-        <v>152203.6130339122</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2476,18 +2243,15 @@
         <v>2942</v>
       </c>
       <c r="G62" t="n">
-        <v>152203.6130339122</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2509,18 +2273,15 @@
         <v>338.7729</v>
       </c>
       <c r="G63" t="n">
-        <v>152203.6130339122</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2542,18 +2303,15 @@
         <v>4703.0422</v>
       </c>
       <c r="G64" t="n">
-        <v>152203.6130339122</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2575,18 +2333,15 @@
         <v>3</v>
       </c>
       <c r="G65" t="n">
-        <v>152206.6130339122</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2608,18 +2363,15 @@
         <v>5.9522</v>
       </c>
       <c r="G66" t="n">
-        <v>152200.6608339122</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2641,18 +2393,15 @@
         <v>4</v>
       </c>
       <c r="G67" t="n">
-        <v>152204.6608339122</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2674,18 +2423,15 @@
         <v>4318.96</v>
       </c>
       <c r="G68" t="n">
-        <v>147885.7008339122</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2707,18 +2453,15 @@
         <v>3</v>
       </c>
       <c r="G69" t="n">
-        <v>147888.7008339122</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2740,18 +2483,15 @@
         <v>7426.3284</v>
       </c>
       <c r="G70" t="n">
-        <v>155315.0292339122</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2773,18 +2513,15 @@
         <v>9474.857744994701</v>
       </c>
       <c r="G71" t="n">
-        <v>145840.1714889175</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2806,18 +2543,15 @@
         <v>2000</v>
       </c>
       <c r="G72" t="n">
-        <v>147840.1714889175</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2839,18 +2573,15 @@
         <v>3590.3084</v>
       </c>
       <c r="G73" t="n">
-        <v>144249.8630889175</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2872,18 +2603,15 @@
         <v>649.1947</v>
       </c>
       <c r="G74" t="n">
-        <v>144899.0577889175</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2905,18 +2633,15 @@
         <v>5302.7364</v>
       </c>
       <c r="G75" t="n">
-        <v>144899.0577889175</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2938,18 +2663,15 @@
         <v>2623.9186</v>
       </c>
       <c r="G76" t="n">
-        <v>142275.1391889175</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2971,18 +2693,15 @@
         <v>2226</v>
       </c>
       <c r="G77" t="n">
-        <v>144501.1391889175</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3004,18 +2723,15 @@
         <v>1265.3087</v>
       </c>
       <c r="G78" t="n">
-        <v>144501.1391889175</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3037,18 +2753,15 @@
         <v>370.0513</v>
       </c>
       <c r="G79" t="n">
-        <v>144131.0878889175</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3070,18 +2783,15 @@
         <v>337.5613</v>
       </c>
       <c r="G80" t="n">
-        <v>144468.6491889175</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3103,18 +2813,15 @@
         <v>464</v>
       </c>
       <c r="G81" t="n">
-        <v>144468.6491889175</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3136,18 +2843,15 @@
         <v>1625.7933</v>
       </c>
       <c r="G82" t="n">
-        <v>146094.4424889175</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3169,18 +2873,15 @@
         <v>250</v>
       </c>
       <c r="G83" t="n">
-        <v>146344.4424889175</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3202,18 +2903,15 @@
         <v>271</v>
       </c>
       <c r="G84" t="n">
-        <v>146344.4424889175</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3235,18 +2933,15 @@
         <v>295</v>
       </c>
       <c r="G85" t="n">
-        <v>146344.4424889175</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3268,18 +2963,15 @@
         <v>4648.1145</v>
       </c>
       <c r="G86" t="n">
-        <v>146344.4424889175</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3301,18 +2993,15 @@
         <v>6580.6812</v>
       </c>
       <c r="G87" t="n">
-        <v>152925.1236889175</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3334,18 +3023,15 @@
         <v>3272.242</v>
       </c>
       <c r="G88" t="n">
-        <v>149652.8816889175</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3367,18 +3053,15 @@
         <v>4421.8398</v>
       </c>
       <c r="G89" t="n">
-        <v>145231.0418889175</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3400,18 +3083,15 @@
         <v>3913.2449</v>
       </c>
       <c r="G90" t="n">
-        <v>141317.7969889175</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3433,18 +3113,15 @@
         <v>7672.3038</v>
       </c>
       <c r="G91" t="n">
-        <v>148990.1007889175</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3466,18 +3143,15 @@
         <v>1666.8473</v>
       </c>
       <c r="G92" t="n">
-        <v>147323.2534889175</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3499,18 +3173,15 @@
         <v>15080.6812</v>
       </c>
       <c r="G93" t="n">
-        <v>162403.9346889175</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3532,18 +3203,15 @@
         <v>3020.97</v>
       </c>
       <c r="G94" t="n">
-        <v>159382.9646889175</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3565,18 +3233,15 @@
         <v>263.8707</v>
       </c>
       <c r="G95" t="n">
-        <v>159119.0939889175</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3598,18 +3263,15 @@
         <v>6154.8065</v>
       </c>
       <c r="G96" t="n">
-        <v>165273.9004889175</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3631,18 +3293,15 @@
         <v>1684.7809036288</v>
       </c>
       <c r="G97" t="n">
-        <v>166958.6813925463</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3664,18 +3323,15 @@
         <v>1797.3441</v>
       </c>
       <c r="G98" t="n">
-        <v>168756.0254925463</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3697,18 +3353,15 @@
         <v>4010.958</v>
       </c>
       <c r="G99" t="n">
-        <v>172766.9834925463</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3730,18 +3383,15 @@
         <v>35.4194</v>
       </c>
       <c r="G100" t="n">
-        <v>172731.5640925463</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3763,18 +3413,15 @@
         <v>1505.4389</v>
       </c>
       <c r="G101" t="n">
-        <v>171226.1251925463</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3796,18 +3443,15 @@
         <v>9556.068600000001</v>
       </c>
       <c r="G102" t="n">
-        <v>171226.1251925463</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3829,18 +3473,15 @@
         <v>495.5279</v>
       </c>
       <c r="G103" t="n">
-        <v>170730.5972925463</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3862,18 +3503,15 @@
         <v>6281.58</v>
       </c>
       <c r="G104" t="n">
-        <v>164449.0172925463</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3895,18 +3533,15 @@
         <v>426.2453</v>
       </c>
       <c r="G105" t="n">
-        <v>164875.2625925464</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3928,18 +3563,15 @@
         <v>2336.3266</v>
       </c>
       <c r="G106" t="n">
-        <v>162538.9359925464</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3961,18 +3593,15 @@
         <v>3151.2071</v>
       </c>
       <c r="G107" t="n">
-        <v>165690.1430925464</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3994,18 +3623,15 @@
         <v>2660.47</v>
       </c>
       <c r="G108" t="n">
-        <v>168350.6130925464</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4027,18 +3653,15 @@
         <v>3715.2674</v>
       </c>
       <c r="G109" t="n">
-        <v>168350.6130925464</v>
-      </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4060,18 +3683,15 @@
         <v>84.6103</v>
       </c>
       <c r="G110" t="n">
-        <v>168266.0027925464</v>
-      </c>
-      <c r="H110" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4093,18 +3713,15 @@
         <v>89.71040000000001</v>
       </c>
       <c r="G111" t="n">
-        <v>168266.0027925464</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4126,18 +3743,15 @@
         <v>329.7521</v>
       </c>
       <c r="G112" t="n">
-        <v>167936.2506925463</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4159,18 +3773,15 @@
         <v>93.86</v>
       </c>
       <c r="G113" t="n">
-        <v>167936.2506925463</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4192,18 +3803,15 @@
         <v>430.6038</v>
       </c>
       <c r="G114" t="n">
-        <v>167505.6468925463</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4225,18 +3833,15 @@
         <v>0.6218</v>
       </c>
       <c r="G115" t="n">
-        <v>167505.6468925463</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4258,18 +3863,15 @@
         <v>86.4701</v>
       </c>
       <c r="G116" t="n">
-        <v>167419.1767925463</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4291,18 +3893,15 @@
         <v>10157.7946</v>
       </c>
       <c r="G117" t="n">
-        <v>177576.9713925463</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4324,18 +3923,15 @@
         <v>610.4862000000001</v>
       </c>
       <c r="G118" t="n">
-        <v>176966.4851925463</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4357,18 +3953,15 @@
         <v>7946.4344</v>
       </c>
       <c r="G119" t="n">
-        <v>169020.0507925463</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4390,18 +3983,15 @@
         <v>3715.2674</v>
       </c>
       <c r="G120" t="n">
-        <v>169020.0507925463</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4423,18 +4013,15 @@
         <v>8513.2677</v>
       </c>
       <c r="G121" t="n">
-        <v>160506.7830925463</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4456,18 +4043,15 @@
         <v>4883.7259</v>
       </c>
       <c r="G122" t="n">
-        <v>165390.5089925463</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4489,18 +4073,15 @@
         <v>183.6499</v>
       </c>
       <c r="G123" t="n">
-        <v>165206.8590925463</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4522,18 +4103,15 @@
         <v>5725.1904</v>
       </c>
       <c r="G124" t="n">
-        <v>165206.8590925463</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4555,18 +4133,21 @@
         <v>13395.846</v>
       </c>
       <c r="G125" t="n">
-        <v>151811.0130925463</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4588,18 +4169,19 @@
         <v>1489.7923</v>
       </c>
       <c r="G126" t="n">
-        <v>153300.8053925463</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4621,18 +4203,19 @@
         <v>4800</v>
       </c>
       <c r="G127" t="n">
-        <v>158100.8053925463</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4654,18 +4237,19 @@
         <v>2052.1894</v>
       </c>
       <c r="G128" t="n">
-        <v>156048.6159925463</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4687,18 +4271,19 @@
         <v>2.7</v>
       </c>
       <c r="G129" t="n">
-        <v>156051.3159925463</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4720,18 +4305,19 @@
         <v>5000</v>
       </c>
       <c r="G130" t="n">
-        <v>156051.3159925463</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4753,18 +4339,19 @@
         <v>555</v>
       </c>
       <c r="G131" t="n">
-        <v>156051.3159925463</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4786,18 +4373,19 @@
         <v>305</v>
       </c>
       <c r="G132" t="n">
-        <v>155746.3159925463</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4819,18 +4407,19 @@
         <v>3691.8221</v>
       </c>
       <c r="G133" t="n">
-        <v>159438.1380925463</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4852,18 +4441,19 @@
         <v>748.1467</v>
       </c>
       <c r="G134" t="n">
-        <v>159438.1380925463</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4885,18 +4475,19 @@
         <v>5855.7351</v>
       </c>
       <c r="G135" t="n">
-        <v>165293.8731925463</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4918,18 +4509,19 @@
         <v>5</v>
       </c>
       <c r="G136" t="n">
-        <v>165298.8731925463</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4951,18 +4543,19 @@
         <v>2.7</v>
       </c>
       <c r="G137" t="n">
-        <v>165296.1731925463</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4984,18 +4577,19 @@
         <v>3</v>
       </c>
       <c r="G138" t="n">
-        <v>165299.1731925463</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5017,18 +4611,19 @@
         <v>1662.6306</v>
       </c>
       <c r="G139" t="n">
-        <v>165299.1731925463</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5050,18 +4645,19 @@
         <v>666</v>
       </c>
       <c r="G140" t="n">
-        <v>165299.1731925463</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5083,18 +4679,19 @@
         <v>1940.1977</v>
       </c>
       <c r="G141" t="n">
-        <v>167239.3708925463</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5116,18 +4713,19 @@
         <v>753.4933</v>
       </c>
       <c r="G142" t="n">
-        <v>167239.3708925463</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5149,18 +4747,19 @@
         <v>1450.9533</v>
       </c>
       <c r="G143" t="n">
-        <v>165788.4175925463</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5182,18 +4781,19 @@
         <v>9901.3837</v>
       </c>
       <c r="G144" t="n">
-        <v>155887.0338925463</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5215,18 +4815,19 @@
         <v>555</v>
       </c>
       <c r="G145" t="n">
-        <v>156442.0338925463</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5248,18 +4849,19 @@
         <v>1094.6275</v>
       </c>
       <c r="G146" t="n">
-        <v>157536.6613925463</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5281,18 +4883,19 @@
         <v>2002.67</v>
       </c>
       <c r="G147" t="n">
-        <v>155533.9913925463</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5314,18 +4917,19 @@
         <v>2826.5113</v>
       </c>
       <c r="G148" t="n">
-        <v>155533.9913925463</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5347,18 +4951,19 @@
         <v>467.7058</v>
       </c>
       <c r="G149" t="n">
-        <v>155533.9913925463</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5380,18 +4985,19 @@
         <v>646.2283</v>
       </c>
       <c r="G150" t="n">
-        <v>154887.7630925463</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5413,18 +5019,19 @@
         <v>3025.0746</v>
       </c>
       <c r="G151" t="n">
-        <v>154887.7630925463</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5446,18 +5053,19 @@
         <v>4232.7796</v>
       </c>
       <c r="G152" t="n">
-        <v>150654.9834925463</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5479,18 +5087,19 @@
         <v>1513.0105</v>
       </c>
       <c r="G153" t="n">
-        <v>149141.9729925463</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5512,18 +5121,19 @@
         <v>3673.0357</v>
       </c>
       <c r="G154" t="n">
-        <v>152815.0086925463</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5545,18 +5155,19 @@
         <v>6.0001</v>
       </c>
       <c r="G155" t="n">
-        <v>152821.0087925463</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5578,18 +5189,19 @@
         <v>1950.4132</v>
       </c>
       <c r="G156" t="n">
-        <v>152821.0087925463</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5611,18 +5223,19 @@
         <v>3</v>
       </c>
       <c r="G157" t="n">
-        <v>152818.0087925463</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5644,18 +5257,19 @@
         <v>55.92</v>
       </c>
       <c r="G158" t="n">
-        <v>152762.0887925463</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5677,18 +5291,19 @@
         <v>178.1337</v>
       </c>
       <c r="G159" t="n">
-        <v>152583.9550925463</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5710,18 +5325,19 @@
         <v>2.7</v>
       </c>
       <c r="G160" t="n">
-        <v>152586.6550925463</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5743,18 +5359,19 @@
         <v>135.8</v>
       </c>
       <c r="G161" t="n">
-        <v>152450.8550925463</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5776,18 +5393,19 @@
         <v>1158.5973</v>
       </c>
       <c r="G162" t="n">
-        <v>151292.2577925463</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5809,18 +5427,19 @@
         <v>24283.4164</v>
       </c>
       <c r="G163" t="n">
-        <v>175575.6741925463</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5842,18 +5461,19 @@
         <v>3</v>
       </c>
       <c r="G164" t="n">
-        <v>175578.6741925463</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5875,18 +5495,19 @@
         <v>2004.258</v>
       </c>
       <c r="G165" t="n">
-        <v>173574.4161925463</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5908,18 +5529,19 @@
         <v>3</v>
       </c>
       <c r="G166" t="n">
-        <v>173577.4161925463</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5941,18 +5563,19 @@
         <v>1548.7723</v>
       </c>
       <c r="G167" t="n">
-        <v>172028.6438925463</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5974,18 +5597,19 @@
         <v>2000</v>
       </c>
       <c r="G168" t="n">
-        <v>174028.6438925463</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6007,18 +5631,21 @@
         <v>610.4862000000001</v>
       </c>
       <c r="G169" t="n">
-        <v>174028.6438925463</v>
+        <v>1</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>186.1</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6040,18 +5667,21 @@
         <v>3</v>
       </c>
       <c r="G170" t="n">
-        <v>174031.6438925463</v>
+        <v>1</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>186.1</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6073,18 +5703,21 @@
         <v>1045.9234</v>
       </c>
       <c r="G171" t="n">
-        <v>172985.7204925463</v>
+        <v>1</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>187.8</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6106,18 +5739,21 @@
         <v>2455.4339</v>
       </c>
       <c r="G172" t="n">
-        <v>172985.7204925463</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>186.1</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6139,18 +5775,21 @@
         <v>6182.7909</v>
       </c>
       <c r="G173" t="n">
-        <v>179168.5113925463</v>
+        <v>1</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>186.1</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6172,18 +5811,19 @@
         <v>3300.0436</v>
       </c>
       <c r="G174" t="n">
-        <v>179168.5113925463</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6205,18 +5845,19 @@
         <v>2396.8309</v>
       </c>
       <c r="G175" t="n">
-        <v>179168.5113925463</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6238,18 +5879,19 @@
         <v>684.7221</v>
       </c>
       <c r="G176" t="n">
-        <v>179168.5113925463</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6271,18 +5913,19 @@
         <v>722</v>
       </c>
       <c r="G177" t="n">
-        <v>179890.5113925463</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6304,18 +5947,19 @@
         <v>580.8477</v>
       </c>
       <c r="G178" t="n">
-        <v>180471.3590925463</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6337,18 +5981,19 @@
         <v>240.6373</v>
       </c>
       <c r="G179" t="n">
-        <v>180230.7217925463</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6370,18 +6015,19 @@
         <v>4604.038</v>
       </c>
       <c r="G180" t="n">
-        <v>184834.7597925463</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6403,18 +6049,19 @@
         <v>9479.834500000001</v>
       </c>
       <c r="G181" t="n">
-        <v>175354.9252925463</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6436,18 +6083,19 @@
         <v>6434.2455</v>
       </c>
       <c r="G182" t="n">
-        <v>175354.9252925463</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6469,18 +6117,19 @@
         <v>3</v>
       </c>
       <c r="G183" t="n">
-        <v>175357.9252925463</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6502,18 +6151,19 @@
         <v>23472.6155</v>
       </c>
       <c r="G184" t="n">
-        <v>151885.3097925463</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6535,18 +6185,19 @@
         <v>20</v>
       </c>
       <c r="G185" t="n">
-        <v>151885.3097925463</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6568,18 +6219,19 @@
         <v>67.34139999999999</v>
       </c>
       <c r="G186" t="n">
-        <v>151817.9683925463</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6601,18 +6253,19 @@
         <v>4892.0312</v>
       </c>
       <c r="G187" t="n">
-        <v>156709.9995925463</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6634,18 +6287,19 @@
         <v>5000</v>
       </c>
       <c r="G188" t="n">
-        <v>161709.9995925463</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6667,18 +6321,19 @@
         <v>425.5632</v>
       </c>
       <c r="G189" t="n">
-        <v>161284.4363925463</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6700,18 +6355,19 @@
         <v>248</v>
       </c>
       <c r="G190" t="n">
-        <v>161036.4363925463</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6733,18 +6389,19 @@
         <v>3</v>
       </c>
       <c r="G191" t="n">
-        <v>161039.4363925463</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6766,18 +6423,19 @@
         <v>50</v>
       </c>
       <c r="G192" t="n">
-        <v>160989.4363925463</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6799,18 +6457,19 @@
         <v>2.7</v>
       </c>
       <c r="G193" t="n">
-        <v>160986.7363925462</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6832,18 +6491,21 @@
         <v>8636.614299999999</v>
       </c>
       <c r="G194" t="n">
-        <v>160986.7363925462</v>
+        <v>1</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6865,18 +6527,21 @@
         <v>230.85</v>
       </c>
       <c r="G195" t="n">
-        <v>160755.8863925462</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6898,18 +6563,21 @@
         <v>2.7</v>
       </c>
       <c r="G196" t="n">
-        <v>160758.5863925462</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>185.8</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6931,18 +6599,19 @@
         <v>5463</v>
       </c>
       <c r="G197" t="n">
-        <v>160758.5863925462</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6964,18 +6633,21 @@
         <v>104.21</v>
       </c>
       <c r="G198" t="n">
-        <v>160654.3763925463</v>
+        <v>1</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6997,18 +6669,21 @@
         <v>252.9473</v>
       </c>
       <c r="G199" t="n">
-        <v>160401.4290925463</v>
+        <v>1</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>185.3</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7030,18 +6705,21 @@
         <v>214.0274</v>
       </c>
       <c r="G200" t="n">
-        <v>160187.4016925463</v>
+        <v>1</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>185.2</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7063,18 +6741,21 @@
         <v>775.2325</v>
       </c>
       <c r="G201" t="n">
-        <v>160187.4016925463</v>
+        <v>1</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>184.6</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7096,18 +6777,21 @@
         <v>500</v>
       </c>
       <c r="G202" t="n">
-        <v>159687.4016925463</v>
+        <v>1</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>184.6</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7129,18 +6813,21 @@
         <v>997.0706</v>
       </c>
       <c r="G203" t="n">
-        <v>159687.4016925463</v>
+        <v>1</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>184.5</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7162,18 +6849,21 @@
         <v>2324.1463</v>
       </c>
       <c r="G204" t="n">
-        <v>159687.4016925463</v>
+        <v>1</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>184.5</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7195,18 +6885,21 @@
         <v>3000</v>
       </c>
       <c r="G205" t="n">
-        <v>159687.4016925463</v>
+        <v>1</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>184.5</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7228,18 +6921,21 @@
         <v>68.38890000000001</v>
       </c>
       <c r="G206" t="n">
-        <v>159755.7905925463</v>
+        <v>1</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>184.5</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7261,18 +6957,21 @@
         <v>790.8724</v>
       </c>
       <c r="G207" t="n">
-        <v>158964.9181925463</v>
+        <v>1</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7294,18 +6993,21 @@
         <v>2000</v>
       </c>
       <c r="G208" t="n">
-        <v>158964.9181925463</v>
+        <v>1</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>184.5</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7327,18 +7029,21 @@
         <v>3</v>
       </c>
       <c r="G209" t="n">
-        <v>158967.9181925463</v>
+        <v>1</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>184.5</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7360,18 +7065,21 @@
         <v>165</v>
       </c>
       <c r="G210" t="n">
-        <v>158802.9181925463</v>
+        <v>1</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>185.8</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7393,18 +7101,21 @@
         <v>10</v>
       </c>
       <c r="G211" t="n">
-        <v>158812.9181925463</v>
+        <v>1</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>184.4</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7426,18 +7137,21 @@
         <v>829.1404</v>
       </c>
       <c r="G212" t="n">
-        <v>157983.7777925463</v>
+        <v>1</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>185.4</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7459,18 +7173,21 @@
         <v>60.1663</v>
       </c>
       <c r="G213" t="n">
-        <v>157983.7777925463</v>
+        <v>1</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>184.4</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7492,18 +7209,21 @@
         <v>2087.8696</v>
       </c>
       <c r="G214" t="n">
-        <v>157983.7777925463</v>
+        <v>1</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>184.4</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7525,18 +7245,21 @@
         <v>306.0918</v>
       </c>
       <c r="G215" t="n">
-        <v>158289.8695925463</v>
+        <v>1</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>184.4</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7558,18 +7281,21 @@
         <v>1734.4306</v>
       </c>
       <c r="G216" t="n">
-        <v>156555.4389925463</v>
+        <v>1</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>185.4</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7591,18 +7317,21 @@
         <v>49.256</v>
       </c>
       <c r="G217" t="n">
-        <v>156506.1829925463</v>
+        <v>1</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>184.4</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7624,18 +7353,21 @@
         <v>1642.3244</v>
       </c>
       <c r="G218" t="n">
-        <v>154863.8585925463</v>
+        <v>1</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>184.3</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7657,18 +7389,21 @@
         <v>49.256</v>
       </c>
       <c r="G219" t="n">
-        <v>154913.1145925462</v>
+        <v>1</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>183.8</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7690,18 +7425,21 @@
         <v>10</v>
       </c>
       <c r="G220" t="n">
-        <v>154923.1145925462</v>
+        <v>1</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>184.2</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7723,18 +7461,21 @@
         <v>7774.9748</v>
       </c>
       <c r="G221" t="n">
-        <v>162698.0893925462</v>
+        <v>1</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>185.4</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7756,18 +7497,21 @@
         <v>794.2382</v>
       </c>
       <c r="G222" t="n">
-        <v>162698.0893925462</v>
+        <v>1</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>185.8</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7789,18 +7533,21 @@
         <v>480.144</v>
       </c>
       <c r="G223" t="n">
-        <v>162698.0893925462</v>
+        <v>1</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>185.8</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7822,18 +7569,21 @@
         <v>3285.3422</v>
       </c>
       <c r="G224" t="n">
-        <v>159412.7471925462</v>
+        <v>1</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>185.8</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7855,18 +7605,21 @@
         <v>10</v>
       </c>
       <c r="G225" t="n">
-        <v>159422.7471925462</v>
+        <v>1</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>185.5</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7888,18 +7641,21 @@
         <v>50</v>
       </c>
       <c r="G226" t="n">
-        <v>159372.7471925462</v>
+        <v>1</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>185.8</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7921,18 +7677,21 @@
         <v>3</v>
       </c>
       <c r="G227" t="n">
-        <v>159375.7471925462</v>
+        <v>1</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>184.2</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7954,18 +7713,21 @@
         <v>898.0703999999999</v>
       </c>
       <c r="G228" t="n">
-        <v>158477.6767925462</v>
+        <v>1</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>185.8</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7987,18 +7749,21 @@
         <v>10</v>
       </c>
       <c r="G229" t="n">
-        <v>158487.6767925462</v>
+        <v>1</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>184.4</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8020,18 +7785,21 @@
         <v>3159.1028</v>
       </c>
       <c r="G230" t="n">
-        <v>155328.5739925462</v>
+        <v>1</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>185.8</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8053,18 +7821,21 @@
         <v>900.1496</v>
       </c>
       <c r="G231" t="n">
-        <v>155328.5739925462</v>
+        <v>1</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>184.5</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8086,18 +7857,21 @@
         <v>536.2619</v>
       </c>
       <c r="G232" t="n">
-        <v>155328.5739925462</v>
+        <v>1</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>184.5</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8119,18 +7893,21 @@
         <v>49.336</v>
       </c>
       <c r="G233" t="n">
-        <v>155279.2379925462</v>
+        <v>1</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>184.5</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8152,18 +7929,21 @@
         <v>329.7521</v>
       </c>
       <c r="G234" t="n">
-        <v>155608.9900925462</v>
+        <v>1</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>184.2</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8185,18 +7965,21 @@
         <v>2529.7675</v>
       </c>
       <c r="G235" t="n">
-        <v>155608.9900925462</v>
+        <v>1</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>184.3</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8218,18 +8001,21 @@
         <v>11234.9201</v>
       </c>
       <c r="G236" t="n">
-        <v>144374.0699925463</v>
+        <v>1</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>184.3</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8251,18 +8037,21 @@
         <v>15092.62</v>
       </c>
       <c r="G237" t="n">
-        <v>129281.4499925463</v>
+        <v>1</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8284,18 +8073,21 @@
         <v>30000</v>
       </c>
       <c r="G238" t="n">
-        <v>99281.44999254626</v>
+        <v>1</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>183.4</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8317,18 +8109,21 @@
         <v>352.083</v>
       </c>
       <c r="G239" t="n">
-        <v>99633.53299254626</v>
+        <v>1</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8350,18 +8145,21 @@
         <v>6000</v>
       </c>
       <c r="G240" t="n">
-        <v>105633.5329925463</v>
+        <v>1</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>182.4</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8383,18 +8181,21 @@
         <v>115</v>
       </c>
       <c r="G241" t="n">
-        <v>105518.5329925463</v>
+        <v>1</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>185.8</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8416,18 +8217,21 @@
         <v>7.3223</v>
       </c>
       <c r="G242" t="n">
-        <v>105511.2106925463</v>
+        <v>1</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>184.8</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8449,18 +8253,21 @@
         <v>3338.3175</v>
       </c>
       <c r="G243" t="n">
-        <v>102172.8931925463</v>
+        <v>1</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8482,18 +8289,21 @@
         <v>1306</v>
       </c>
       <c r="G244" t="n">
-        <v>103478.8931925463</v>
+        <v>1</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>182.1</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8515,18 +8325,21 @@
         <v>29</v>
       </c>
       <c r="G245" t="n">
-        <v>103507.8931925463</v>
+        <v>1</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>183.9</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8548,18 +8361,21 @@
         <v>951.9008</v>
       </c>
       <c r="G246" t="n">
-        <v>102555.9923925462</v>
+        <v>1</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8581,18 +8397,21 @@
         <v>668.8504</v>
       </c>
       <c r="G247" t="n">
-        <v>101887.1419925463</v>
+        <v>1</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>183.8</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8614,18 +8433,21 @@
         <v>421.983</v>
       </c>
       <c r="G248" t="n">
-        <v>101465.1589925463</v>
+        <v>1</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8647,18 +8469,21 @@
         <v>10398.346</v>
       </c>
       <c r="G249" t="n">
-        <v>91066.81299254626</v>
+        <v>1</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>181.4</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8680,18 +8505,21 @@
         <v>5000</v>
       </c>
       <c r="G250" t="n">
-        <v>86066.81299254626</v>
+        <v>1</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8713,18 +8541,21 @@
         <v>756.55</v>
       </c>
       <c r="G251" t="n">
-        <v>86823.36299254626</v>
+        <v>1</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8746,18 +8577,21 @@
         <v>56.9358</v>
       </c>
       <c r="G252" t="n">
-        <v>86880.29879254627</v>
+        <v>1</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>180.1</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8779,18 +8613,21 @@
         <v>3681.0736</v>
       </c>
       <c r="G253" t="n">
-        <v>86880.29879254627</v>
+        <v>1</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>180.2</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8812,18 +8649,21 @@
         <v>1950.4132</v>
       </c>
       <c r="G254" t="n">
-        <v>86880.29879254627</v>
+        <v>1</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>180.2</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8845,18 +8685,21 @@
         <v>4574.8578</v>
       </c>
       <c r="G255" t="n">
-        <v>82305.44099254627</v>
+        <v>1</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>180.2</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8878,18 +8721,21 @@
         <v>2722</v>
       </c>
       <c r="G256" t="n">
-        <v>85027.44099254627</v>
+        <v>1</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>180.1</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8911,18 +8757,21 @@
         <v>5000</v>
       </c>
       <c r="G257" t="n">
-        <v>90027.44099254627</v>
+        <v>1</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>182.1</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8944,18 +8793,21 @@
         <v>462</v>
       </c>
       <c r="G258" t="n">
-        <v>90489.44099254627</v>
+        <v>1</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>182.2</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8977,18 +8829,19 @@
         <v>1083</v>
       </c>
       <c r="G259" t="n">
-        <v>91572.44099254627</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9010,18 +8863,19 @@
         <v>3</v>
       </c>
       <c r="G260" t="n">
-        <v>91575.44099254627</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9043,18 +8897,19 @@
         <v>3</v>
       </c>
       <c r="G261" t="n">
-        <v>91575.44099254627</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9076,18 +8931,19 @@
         <v>2753.31</v>
       </c>
       <c r="G262" t="n">
-        <v>94328.75099254627</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9109,18 +8965,19 @@
         <v>184.708</v>
       </c>
       <c r="G263" t="n">
-        <v>94513.45899254626</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9142,18 +8999,19 @@
         <v>84.7214</v>
       </c>
       <c r="G264" t="n">
-        <v>94598.18039254626</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9175,18 +9033,19 @@
         <v>9281.756600000001</v>
       </c>
       <c r="G265" t="n">
-        <v>85316.42379254627</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9208,18 +9067,19 @@
         <v>2.63</v>
       </c>
       <c r="G266" t="n">
-        <v>85319.05379254627</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9241,18 +9101,19 @@
         <v>10590.5553</v>
       </c>
       <c r="G267" t="n">
-        <v>74728.49849254626</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9274,18 +9135,19 @@
         <v>12867.537</v>
       </c>
       <c r="G268" t="n">
-        <v>61860.96149254627</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9307,18 +9169,19 @@
         <v>15194.5294</v>
       </c>
       <c r="G269" t="n">
-        <v>46666.43209254627</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9340,18 +9203,19 @@
         <v>20682.797</v>
       </c>
       <c r="G270" t="n">
-        <v>67349.22909254627</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9373,18 +9237,19 @@
         <v>12688.5393946815</v>
       </c>
       <c r="G271" t="n">
-        <v>54660.68969786477</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9406,18 +9271,19 @@
         <v>2374.3995</v>
       </c>
       <c r="G272" t="n">
-        <v>52286.29019786477</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9439,18 +9305,19 @@
         <v>8142.9317</v>
       </c>
       <c r="G273" t="n">
-        <v>44143.35849786477</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9472,18 +9339,19 @@
         <v>1549.9425</v>
       </c>
       <c r="G274" t="n">
-        <v>42593.41599786477</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9505,18 +9373,19 @@
         <v>4640.972</v>
       </c>
       <c r="G275" t="n">
-        <v>47234.38799786477</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9538,18 +9407,19 @@
         <v>717</v>
       </c>
       <c r="G276" t="n">
-        <v>47951.38799786477</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9571,18 +9441,19 @@
         <v>1165.2782</v>
       </c>
       <c r="G277" t="n">
-        <v>47951.38799786477</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9604,18 +9475,19 @@
         <v>328.9984</v>
       </c>
       <c r="G278" t="n">
-        <v>47951.38799786477</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9637,18 +9509,19 @@
         <v>635</v>
       </c>
       <c r="G279" t="n">
-        <v>47951.38799786477</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9670,18 +9543,19 @@
         <v>17620</v>
       </c>
       <c r="G280" t="n">
-        <v>65571.38799786477</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9703,18 +9577,19 @@
         <v>27.7727</v>
       </c>
       <c r="G281" t="n">
-        <v>65543.61529786477</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -9736,18 +9611,19 @@
         <v>1702.0856</v>
       </c>
       <c r="G282" t="n">
-        <v>67245.70089786478</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -9769,18 +9645,19 @@
         <v>7411.2914</v>
       </c>
       <c r="G283" t="n">
-        <v>74656.99229786478</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -9802,18 +9679,19 @@
         <v>0.0001</v>
       </c>
       <c r="G284" t="n">
-        <v>74656.99229786478</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -9835,18 +9713,19 @@
         <v>7001.0899</v>
       </c>
       <c r="G285" t="n">
-        <v>67655.90239786477</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -9868,18 +9747,19 @@
         <v>1950</v>
       </c>
       <c r="G286" t="n">
-        <v>65705.90239786477</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -9901,18 +9781,19 @@
         <v>1803.3577</v>
       </c>
       <c r="G287" t="n">
-        <v>63902.54469786477</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -9934,18 +9815,19 @@
         <v>23272.8232</v>
       </c>
       <c r="G288" t="n">
-        <v>40629.72149786478</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -9967,18 +9849,19 @@
         <v>1867.1885</v>
       </c>
       <c r="G289" t="n">
-        <v>38762.53299786478</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10000,18 +9883,19 @@
         <v>10000</v>
       </c>
       <c r="G290" t="n">
-        <v>28762.53299786478</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10033,18 +9917,19 @@
         <v>65.78</v>
       </c>
       <c r="G291" t="n">
-        <v>28828.31299786478</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10066,18 +9951,19 @@
         <v>21.07</v>
       </c>
       <c r="G292" t="n">
-        <v>28828.31299786478</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10099,18 +9985,19 @@
         <v>319.9984</v>
       </c>
       <c r="G293" t="n">
-        <v>28508.31459786478</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10132,18 +10019,19 @@
         <v>287</v>
       </c>
       <c r="G294" t="n">
-        <v>28795.31459786478</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10165,18 +10053,21 @@
         <v>6291.8467</v>
       </c>
       <c r="G295" t="n">
-        <v>22503.46789786478</v>
+        <v>1</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>186.8</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10198,18 +10089,21 @@
         <v>2521</v>
       </c>
       <c r="G296" t="n">
-        <v>25024.46789786478</v>
+        <v>1</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>185.8</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10231,18 +10125,21 @@
         <v>991.0753999999999</v>
       </c>
       <c r="G297" t="n">
-        <v>26015.54329786478</v>
+        <v>1</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>187.7</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10264,18 +10161,21 @@
         <v>1863.6345</v>
       </c>
       <c r="G298" t="n">
-        <v>24151.90879786478</v>
+        <v>1</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>187.9</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10297,18 +10197,21 @@
         <v>5558.29</v>
       </c>
       <c r="G299" t="n">
-        <v>29710.19879786478</v>
+        <v>1</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>187.5</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10330,18 +10233,21 @@
         <v>538.2599</v>
       </c>
       <c r="G300" t="n">
-        <v>29171.93889786478</v>
+        <v>1</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>189.8</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10363,18 +10269,19 @@
         <v>3569.9878</v>
       </c>
       <c r="G301" t="n">
-        <v>25601.95109786478</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10396,18 +10303,19 @@
         <v>2265.3023</v>
       </c>
       <c r="G302" t="n">
-        <v>25601.95109786478</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10429,18 +10337,21 @@
         <v>3567.6262</v>
       </c>
       <c r="G303" t="n">
-        <v>22034.32489786478</v>
+        <v>1</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10462,18 +10373,21 @@
         <v>12312.0513</v>
       </c>
       <c r="G304" t="n">
-        <v>22034.32489786478</v>
+        <v>1</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -10495,18 +10409,21 @@
         <v>3</v>
       </c>
       <c r="G305" t="n">
-        <v>22037.32489786478</v>
+        <v>1</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -10528,18 +10445,19 @@
         <v>300</v>
       </c>
       <c r="G306" t="n">
-        <v>21737.32489786478</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -10561,18 +10479,19 @@
         <v>26112.54</v>
       </c>
       <c r="G307" t="n">
-        <v>47849.86489786478</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -10594,18 +10513,19 @@
         <v>35005.2729</v>
       </c>
       <c r="G308" t="n">
-        <v>82855.13779786479</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -10627,18 +10547,19 @@
         <v>3738.6579</v>
       </c>
       <c r="G309" t="n">
-        <v>79116.47989786479</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -10660,18 +10581,19 @@
         <v>1102</v>
       </c>
       <c r="G310" t="n">
-        <v>78014.47989786479</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -10693,18 +10615,19 @@
         <v>6000</v>
       </c>
       <c r="G311" t="n">
-        <v>84014.47989786479</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -10726,18 +10649,19 @@
         <v>10653</v>
       </c>
       <c r="G312" t="n">
-        <v>94667.47989786479</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -10759,18 +10683,19 @@
         <v>27870.37</v>
       </c>
       <c r="G313" t="n">
-        <v>66797.10989786479</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -10792,18 +10717,19 @@
         <v>3</v>
       </c>
       <c r="G314" t="n">
-        <v>66800.10989786479</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -10825,18 +10751,19 @@
         <v>4271.4748</v>
       </c>
       <c r="G315" t="n">
-        <v>71071.58469786479</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -10858,18 +10785,19 @@
         <v>6004.1512</v>
       </c>
       <c r="G316" t="n">
-        <v>77075.7358978648</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -10891,18 +10819,19 @@
         <v>34324.5438</v>
       </c>
       <c r="G317" t="n">
-        <v>111400.2796978648</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -10924,18 +10853,19 @@
         <v>5215.1002</v>
       </c>
       <c r="G318" t="n">
-        <v>111400.2796978648</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K318" t="n">
+        <v>1</v>
+      </c>
+      <c r="L318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -10957,18 +10887,19 @@
         <v>716.4722</v>
       </c>
       <c r="G319" t="n">
-        <v>111400.2796978648</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K319" t="n">
+        <v>1</v>
+      </c>
+      <c r="L319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -10990,18 +10921,19 @@
         <v>903.6994</v>
       </c>
       <c r="G320" t="n">
-        <v>111400.2796978648</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K320" t="n">
+        <v>1</v>
+      </c>
+      <c r="L320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -11023,18 +10955,19 @@
         <v>10450</v>
       </c>
       <c r="G321" t="n">
-        <v>121850.2796978648</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11056,18 +10989,19 @@
         <v>16659.0994</v>
       </c>
       <c r="G322" t="n">
-        <v>105191.1802978648</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K322" t="n">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -11089,18 +11023,19 @@
         <v>893.0791</v>
       </c>
       <c r="G323" t="n">
-        <v>104298.1011978648</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -11122,18 +11057,19 @@
         <v>6952.7989</v>
       </c>
       <c r="G324" t="n">
-        <v>111250.9000978648</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K324" t="n">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -11155,18 +11091,19 @@
         <v>11440.8596</v>
       </c>
       <c r="G325" t="n">
-        <v>122691.7596978648</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K325" t="n">
+        <v>1</v>
+      </c>
+      <c r="L325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -11188,18 +11125,19 @@
         <v>21682.6808</v>
       </c>
       <c r="G326" t="n">
-        <v>144374.4404978648</v>
-      </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K326" t="n">
+        <v>1</v>
+      </c>
+      <c r="L326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -11221,18 +11159,19 @@
         <v>17303.459</v>
       </c>
       <c r="G327" t="n">
-        <v>127070.9814978648</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K327" t="n">
+        <v>1</v>
+      </c>
+      <c r="L327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -11254,18 +11193,19 @@
         <v>19803.6608</v>
       </c>
       <c r="G328" t="n">
-        <v>107267.3206978648</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K328" t="n">
+        <v>1</v>
+      </c>
+      <c r="L328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -11287,18 +11227,19 @@
         <v>6516.2317</v>
       </c>
       <c r="G329" t="n">
-        <v>113783.5523978648</v>
-      </c>
-      <c r="H329" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K329" t="n">
+        <v>1</v>
+      </c>
+      <c r="L329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -11320,18 +11261,19 @@
         <v>3423</v>
       </c>
       <c r="G330" t="n">
-        <v>110360.5523978648</v>
-      </c>
-      <c r="H330" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K330" t="n">
+        <v>1</v>
+      </c>
+      <c r="L330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -11353,18 +11295,19 @@
         <v>18575.0649</v>
       </c>
       <c r="G331" t="n">
-        <v>128935.6172978648</v>
-      </c>
-      <c r="H331" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K331" t="n">
+        <v>1</v>
+      </c>
+      <c r="L331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -11386,18 +11329,19 @@
         <v>46451.8214</v>
       </c>
       <c r="G332" t="n">
-        <v>175387.4386978648</v>
-      </c>
-      <c r="H332" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K332" t="n">
+        <v>1</v>
+      </c>
+      <c r="L332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -11419,18 +11363,19 @@
         <v>120153.9441</v>
       </c>
       <c r="G333" t="n">
-        <v>295541.3827978648</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K333" t="n">
+        <v>1</v>
+      </c>
+      <c r="L333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -11452,18 +11397,19 @@
         <v>15220.7783</v>
       </c>
       <c r="G334" t="n">
-        <v>310762.1610978648</v>
-      </c>
-      <c r="H334" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K334" t="n">
+        <v>1</v>
+      </c>
+      <c r="L334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -11485,18 +11431,19 @@
         <v>6031.2723</v>
       </c>
       <c r="G335" t="n">
-        <v>310762.1610978648</v>
-      </c>
-      <c r="H335" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K335" t="n">
+        <v>1</v>
+      </c>
+      <c r="L335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -11518,18 +11465,19 @@
         <v>8.061400000000001</v>
       </c>
       <c r="G336" t="n">
-        <v>310754.0996978648</v>
-      </c>
-      <c r="H336" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="n">
-        <v>1</v>
-      </c>
-      <c r="M336" t="inlineStr"/>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K336" t="n">
+        <v>1</v>
+      </c>
+      <c r="L336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -11551,18 +11499,19 @@
         <v>21.7198</v>
       </c>
       <c r="G337" t="n">
-        <v>310732.3798978648</v>
-      </c>
-      <c r="H337" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="n">
-        <v>1</v>
-      </c>
-      <c r="M337" t="inlineStr"/>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K337" t="n">
+        <v>1</v>
+      </c>
+      <c r="L337" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
